--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.unc.edu\lib\common\LMS\TRLN Discovery\data-documentation\map_to_argot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\data-documentation\argot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
-    <sheet name="issues_fields" sheetId="4" r:id="rId2"/>
+    <sheet name="fields_issues" sheetId="4" r:id="rId2"/>
     <sheet name="mappings" sheetId="2" r:id="rId3"/>
-    <sheet name="issues_maps" sheetId="3" r:id="rId4"/>
+    <sheet name="mappings_issues" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="205">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Transform to standard date format; map to desired date ranges (last week, last month, etc)</t>
   </si>
   <si>
-    <t>Need institutional mappings for Duke, NCSU, NCCU</t>
-  </si>
-  <si>
     <t>languages</t>
   </si>
   <si>
@@ -627,6 +624,24 @@
   </si>
   <si>
     <t>calculated</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>date_catalogedNCCU...</t>
+  </si>
+  <si>
+    <t>Need to find out where this is in their data.</t>
   </si>
 </sst>
 </file>
@@ -901,8 +916,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="field" dataDxfId="8"/>
     <tableColumn id="3" name="desc" dataDxfId="7"/>
@@ -913,10 +928,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:M66" totalsRowShown="0">
-  <autoFilter ref="A1:M66"/>
-  <sortState ref="A2:K60">
-    <sortCondition ref="D1:D60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:M69" totalsRowShown="0">
+  <autoFilter ref="A1:M69"/>
+  <sortState ref="A2:M69">
+    <sortCondition ref="A2:A69"/>
+    <sortCondition ref="C2:C69"/>
+    <sortCondition ref="D2:D69"/>
+    <sortCondition ref="B2:B69"/>
+    <sortCondition ref="E2:E69"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="field"/>
@@ -944,8 +963,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="mappingID"/>
     <tableColumn id="2" name="element"/>
@@ -1222,7 +1241,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1307,10 @@
         <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1562,16 +1581,16 @@
       </c>
       <c r="P6">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1589,31 +1608,31 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>113</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>114</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
       </c>
       <c r="L7" t="s">
         <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P7">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1626,7 +1645,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1644,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -1653,16 +1672,16 @@
         <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
         <v>120</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
       </c>
       <c r="L8" t="s">
         <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s">
         <v>6</v>
@@ -1681,7 +1700,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1708,10 +1727,10 @@
         <v>83</v>
       </c>
       <c r="J9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
         <v>124</v>
-      </c>
-      <c r="K9" t="s">
-        <v>125</v>
       </c>
       <c r="L9" t="s">
         <v>86</v>
@@ -1736,7 +1755,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -1757,13 +1776,13 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
         <v>127</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>128</v>
-      </c>
-      <c r="J10" t="s">
-        <v>129</v>
       </c>
       <c r="P10">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1776,7 +1795,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1797,28 +1816,28 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" t="s">
         <v>171</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>172</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>173</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
         <v>174</v>
       </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
         <v>175</v>
-      </c>
-      <c r="N11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>176</v>
       </c>
       <c r="P11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1831,7 +1850,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1858,22 +1877,22 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
         <v>166</v>
       </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
         <v>167</v>
-      </c>
-      <c r="N12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>168</v>
       </c>
       <c r="P12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1886,7 +1905,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1907,28 +1926,28 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" t="s">
         <v>179</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>180</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
         <v>181</v>
       </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>182</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>183</v>
-      </c>
-      <c r="O13" t="s">
-        <v>184</v>
       </c>
       <c r="P13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1941,7 +1960,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1962,28 +1981,28 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
         <v>187</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>188</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
         <v>189</v>
       </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
         <v>190</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>191</v>
       </c>
       <c r="P14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1996,7 +2015,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2023,22 +2042,22 @@
         <v>6</v>
       </c>
       <c r="J15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
         <v>195</v>
-      </c>
-      <c r="K15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>193</v>
-      </c>
-      <c r="N15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" t="s">
-        <v>196</v>
       </c>
       <c r="P15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2051,7 +2070,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2064,7 +2083,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2077,7 +2096,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2090,7 +2109,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2103,7 +2122,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2116,7 +2135,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2129,7 +2148,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2142,7 +2161,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2155,7 +2174,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2168,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2181,7 +2200,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2202,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,18 +2238,18 @@
         <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2241,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2249,10 +2268,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2303,24 +2322,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="A9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2332,9 +2340,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2376,178 +2384,178 @@
         <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L2">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>circulation_countUNC999oi1=9 AND i2=1</v>
+      </c>
+      <c r="L2" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="E3" s="1">
-        <v>610</v>
+        <v>946</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L3">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K3" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedDUKE946b.</v>
+      </c>
+      <c r="L3" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1">
-        <v>611</v>
+        <v>909</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L4">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K4" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedNCSU909a.</v>
+      </c>
+      <c r="L4" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1">
-        <v>630</v>
+        <v>999</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
       <c r="K5" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
       </c>
       <c r="L5">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2555,74 +2563,71 @@
       </c>
       <c r="M5">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1">
-        <v>648</v>
+        <v>202</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
-      </c>
-      <c r="L6">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedNCCU...</v>
+      </c>
+      <c r="L6" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1">
-        <v>650</v>
+        <v>999</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -2631,42 +2636,42 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L7">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="K7" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+      </c>
+      <c r="L7" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>142</v>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="1">
-        <v>651</v>
+        <v>999</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -2677,40 +2682,40 @@
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K8" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_locationUNC999li1=9 AND i2=1</v>
+      </c>
+      <c r="L8" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>142</v>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="1">
-        <v>655</v>
+        <v>999</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -2721,40 +2726,40 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L9">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K9" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_public_noteUNC999ni1=9 AND i2=1</v>
+      </c>
+      <c r="L9" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -2765,22 +2770,22 @@
       <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L10">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+      <c r="K10" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+      </c>
+      <c r="L10" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2789,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -2811,7 +2816,7 @@
       </c>
       <c r="K11" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L11">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2819,12 +2824,12 @@
       </c>
       <c r="M11">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2833,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -2855,7 +2860,7 @@
       </c>
       <c r="K12" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L12">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2863,12 +2868,12 @@
       </c>
       <c r="M12">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2877,29 +2882,29 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
+        <v>611</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
       <c r="K13" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L13">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2907,12 +2912,12 @@
       </c>
       <c r="M13">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2921,29 +2926,29 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
+        <v>630</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K14" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L14">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2951,12 +2956,12 @@
       </c>
       <c r="M14">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2965,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -2987,7 +2992,7 @@
       </c>
       <c r="K15" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L15">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2995,27 +3000,27 @@
       </c>
       <c r="M15">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="1">
+        <v>651</v>
+      </c>
+      <c r="F16" t="s">
         <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="1">
-        <v>647</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -3027,11 +3032,11 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K16" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L16">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3039,27 +3044,27 @@
       </c>
       <c r="M16">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="1">
+        <v>655</v>
+      </c>
+      <c r="F17" t="s">
         <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="1">
-        <v>648</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
@@ -3071,11 +3076,11 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K17" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L17">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3083,30 +3088,30 @@
       </c>
       <c r="M17">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -3115,11 +3120,11 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K18" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L18">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3127,7 +3132,7 @@
       </c>
       <c r="M18">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3141,29 +3146,29 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1">
-        <v>651</v>
-      </c>
-      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L19">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3182,32 +3187,32 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
-        <v>655</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K20" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L20">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3226,32 +3231,32 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1">
-        <v>655</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K21" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L21">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3270,32 +3275,32 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1">
-        <v>655</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K22" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L22">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3314,32 +3319,32 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K23" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L23">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3358,32 +3363,32 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K24" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L24">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3405,10 +3410,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -3427,7 +3432,7 @@
       </c>
       <c r="K25" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L25">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3446,19 +3451,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -3467,11 +3472,11 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K26" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L26">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3490,19 +3495,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
@@ -3511,11 +3516,11 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K27" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L27">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3534,19 +3539,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -3555,11 +3560,11 @@
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K28" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L28">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3578,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
         <v>655</v>
@@ -3590,7 +3595,7 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -3599,11 +3604,11 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K29" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L29">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3625,16 +3630,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -3643,11 +3648,11 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K30" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L30">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3669,16 +3674,16 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -3687,11 +3692,11 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K31" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L31">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3710,32 +3715,32 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>33</v>
+        <v>655</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K32" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L32">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3754,32 +3759,32 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>34</v>
+        <v>655</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K33" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L33">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3792,38 +3797,38 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K34" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L34">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3831,43 +3836,43 @@
       </c>
       <c r="M34">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K35" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L35">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3875,43 +3880,43 @@
       </c>
       <c r="M35">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K36" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L36">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3919,30 +3924,30 @@
       </c>
       <c r="M36">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -3951,11 +3956,11 @@
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K37" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L37">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3963,12 +3968,12 @@
       </c>
       <c r="M37">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -3977,16 +3982,16 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -3995,11 +4000,11 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K38" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L38">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4007,30 +4012,30 @@
       </c>
       <c r="M38">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
@@ -4039,11 +4044,11 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K39" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L39">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4051,30 +4056,30 @@
       </c>
       <c r="M39">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -4083,11 +4088,11 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K40" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L40">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4095,30 +4100,30 @@
       </c>
       <c r="M40">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
@@ -4127,11 +4132,11 @@
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K41" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L41">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4139,43 +4144,43 @@
       </c>
       <c r="M41">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4183,12 +4188,12 @@
       </c>
       <c r="M42">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -4197,13 +4202,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1">
         <v>600</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
@@ -4219,7 +4224,7 @@
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4232,7 +4237,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -4241,29 +4246,29 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1">
         <v>610</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4276,7 +4281,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -4285,13 +4290,13 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>4</v>
@@ -4307,7 +4312,7 @@
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4320,7 +4325,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -4329,29 +4334,29 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -4373,13 +4378,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
@@ -4395,7 +4400,7 @@
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4408,7 +4413,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -4417,29 +4422,29 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="1">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I48" t="s">
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4452,7 +4457,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -4461,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
@@ -4483,7 +4488,7 @@
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4496,7 +4501,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -4505,29 +4510,29 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4546,36 +4551,36 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>40</v>
+      </c>
+      <c r="K51" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -4590,13 +4595,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="1">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -4611,11 +4616,11 @@
         <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4634,32 +4639,32 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4681,19 +4686,19 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -4703,7 +4708,7 @@
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4725,29 +4730,29 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
       </c>
       <c r="J55" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4769,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="F56" t="s">
         <v>41</v>
@@ -4791,7 +4796,7 @@
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4810,32 +4815,32 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4854,19 +4859,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -4875,11 +4880,11 @@
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4898,32 +4903,32 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4942,19 +4947,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -4963,11 +4968,11 @@
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4980,38 +4985,38 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1">
-        <v>999</v>
+        <v>651</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
         <v>6</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5024,69 +5029,69 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E62" s="1">
-        <v>999</v>
+        <v>647</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>6</v>
-      </c>
-      <c r="K62" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
-      </c>
-      <c r="L62" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K62" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L62">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1">
-        <v>999</v>
+        <v>647</v>
       </c>
       <c r="F63" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -5095,42 +5100,42 @@
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>178</v>
-      </c>
-      <c r="K63" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
-      </c>
-      <c r="L63" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K63" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L63">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
       </c>
       <c r="E64" s="1">
-        <v>999</v>
+        <v>648</v>
       </c>
       <c r="F64" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
         <v>5</v>
@@ -5139,42 +5144,42 @@
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>6</v>
-      </c>
-      <c r="K64" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_locationUNC999li1=9 AND i2=1</v>
-      </c>
-      <c r="L64" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K64" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L64">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
       </c>
       <c r="E65" s="1">
-        <v>999</v>
+        <v>655</v>
       </c>
       <c r="F65" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
@@ -5187,57 +5192,189 @@
       </c>
       <c r="K65" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_public_noteUNC999ni1=9 AND i2=1</v>
-      </c>
-      <c r="L65" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L65">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>54</v>
+      <c r="D66" t="s">
+        <v>141</v>
       </c>
       <c r="E66" s="1">
-        <v>999</v>
+        <v>656</v>
       </c>
       <c r="F66" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>6</v>
-      </c>
-      <c r="K66" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>circulation_countUNC999oi1=9 AND i2=1</v>
-      </c>
-      <c r="L66" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="8">
+        <v>50</v>
+      </c>
+      <c r="K66" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L66">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="1">
+        <v>656</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L67">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="1">
+        <v>657</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L68">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="1">
+        <v>657</v>
+      </c>
+      <c r="F69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L69">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
@@ -5256,10 +5393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5272,21 +5409,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>655</v>
@@ -5295,7 +5432,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,7 +5446,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,7 +5460,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,7 +5474,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,10 +5485,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,7 +5502,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5373,8 +5524,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="260">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -374,12 +374,6 @@
     <t>Language(s) of the content in the material(s) described by the record</t>
   </si>
   <si>
-    <t xml:space="preserve">Limit/narrow results by language. Many resources are in more than one language. Users studying languages should be able to find materials that are in "English and French" </t>
-  </si>
-  <si>
-    <t>Language codes need to be mapped to preferred display terms -- http://id.loc.gov/vocabulary/languages.html or http://www.loc.gov/standards/codelists/languages.xml</t>
-  </si>
-  <si>
     <t>subject_topic_mesh_facet</t>
   </si>
   <si>
@@ -488,51 +482,27 @@
     <t>item_location</t>
   </si>
   <si>
-    <t>item_public_note</t>
-  </si>
-  <si>
     <t>item_call_number</t>
   </si>
   <si>
-    <t>item_call_number_scheme</t>
-  </si>
-  <si>
     <t>item_status</t>
   </si>
   <si>
     <t>item_type</t>
   </si>
   <si>
-    <t>item_volume_designator</t>
-  </si>
-  <si>
-    <t>holdings_summary_statement</t>
-  </si>
-  <si>
-    <t>holdings_location</t>
-  </si>
-  <si>
     <t>holdings_record_id</t>
   </si>
   <si>
     <t>holdings_call_number</t>
   </si>
   <si>
-    <t>holdings_call_number_scheme</t>
-  </si>
-  <si>
-    <t>holdings_public_note</t>
-  </si>
-  <si>
     <t>Unique identifier for an item record in host institution's ILS. Could be record number or barcode.</t>
   </si>
   <si>
     <t>Item ID</t>
   </si>
   <si>
-    <t>Each item record has only 1 value for this field. Depending on how you implement this, if there are multiple item records, this could end up being a multivalued field.</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -542,9 +512,6 @@
     <t>brief record, full record</t>
   </si>
   <si>
-    <t>Status: Due $date</t>
-  </si>
-  <si>
     <t>Item due date</t>
   </si>
   <si>
@@ -563,9 +530,6 @@
     <t>Will be blank if item is NOT checked out</t>
   </si>
   <si>
-    <t>Location:</t>
-  </si>
-  <si>
     <t>Shelving location code for item</t>
   </si>
   <si>
@@ -587,21 +551,12 @@
     <t>o</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Notes from the item record, intended for public view.</t>
-  </si>
-  <si>
     <t>Provide specific information at the copy or volume level. Assist in select and obtain user tasks</t>
   </si>
   <si>
     <t>ItemNotes</t>
   </si>
   <si>
-    <t>An item may have more than one item note.</t>
-  </si>
-  <si>
     <t>Used to sort by popularity</t>
   </si>
   <si>
@@ -642,6 +597,216 @@
   </si>
   <si>
     <t>Need to find out where this is in their data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Limit/narrow results by language. Many resources are in more than one language. Users studying languages should be able to find materials that are in "English and French" ;;; Display language names in record</t>
+  </si>
+  <si>
+    <t>Of possible use for requesting or other features</t>
+  </si>
+  <si>
+    <t>(none)</t>
+  </si>
+  <si>
+    <t>Status: Due #{date}</t>
+  </si>
+  <si>
+    <t>item_note</t>
+  </si>
+  <si>
+    <t>call number</t>
+  </si>
+  <si>
+    <t>Full call number from item record (classification number + shelving cutter + shelf marks + volume/copy designators)</t>
+  </si>
+  <si>
+    <t>Library building/branch/larger location in which the shelving location is found</t>
+  </si>
+  <si>
+    <t>Inform user what library building or main section/area to go to in order to find the item</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Subjects;;;Subject Headings</t>
+  </si>
+  <si>
+    <t>Display in record (in order); adaptive hyperlinking for browsing/exploring; feed into autosuggest and/or "related titles" features</t>
+  </si>
+  <si>
+    <t>subject heading</t>
+  </si>
+  <si>
+    <t>Scheme (LCC, DDC, NLM, SUDOC, etc) from which item_call_number was assigned</t>
+  </si>
+  <si>
+    <t>Obtain resource</t>
+  </si>
+  <si>
+    <t>Support/control features behind the scenes -- gives info on further processing of this info into other fields</t>
+  </si>
+  <si>
+    <t>Call Number</t>
+  </si>
+  <si>
+    <t>item_classification_scheme</t>
+  </si>
+  <si>
+    <t>999Class (prepipeline field)</t>
+  </si>
+  <si>
+    <t>An item may have more than one item note. They should be displayed in order.</t>
+  </si>
+  <si>
+    <t>Empty if not checked out</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>Map language codes to preferred language terms for display (if not storage/indexing) -- http://id.loc.gov/vocabulary/languages.html or http://www.loc.gov/standards/codelists/languages.xml ;;; Retain order because 008 language code is the "main" or first language in the item; in 041, codes are assigned in order of importance/amount of content</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>item_requestable</t>
+  </si>
+  <si>
+    <t>Status of individual item</t>
+  </si>
+  <si>
+    <t>Shows user whether item is available, library use only, checked out (and when due), missing, etc. Feeds into bib availability value</t>
+  </si>
+  <si>
+    <t>Statuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop/agree upon a standard set of statuses, and how they map to bib_availability value? </t>
+  </si>
+  <si>
+    <t>Type/format for individual item</t>
+  </si>
+  <si>
+    <t>Do we need this in Argot/Argon? Will any features use it? Not sure if any do in Endeca.</t>
+  </si>
+  <si>
+    <t>ItemTypes</t>
+  </si>
+  <si>
+    <t>Placeholder for possibility of representing this in data/index instead of on-the-fly</t>
+  </si>
+  <si>
+    <t>holdings</t>
+  </si>
+  <si>
+    <t>holdings_note</t>
+  </si>
+  <si>
+    <t>item_location_library</t>
+  </si>
+  <si>
+    <t>item_location_shelf</t>
+  </si>
+  <si>
+    <t>holdings_location_library</t>
+  </si>
+  <si>
+    <t>holdings_location_shelf</t>
+  </si>
+  <si>
+    <t>resource_type</t>
+  </si>
+  <si>
+    <t>search limit?</t>
+  </si>
+  <si>
+    <t>in advanced search options?</t>
+  </si>
+  <si>
+    <t>Broad category of resources that might be helpful for limiting searches.</t>
+  </si>
+  <si>
+    <t>The analogous Endeca property looks like it is only used by NCSU, but it could have broader use</t>
+  </si>
+  <si>
+    <t>DocType</t>
+  </si>
+  <si>
+    <t>in Endeca, categories include "Gov Doc" and "Reference"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaboratively maintain a vocabulary/set of types to use here, to avoid bizarre behavior after "expand to..." </t>
+  </si>
+  <si>
+    <t>Use case for this? Does NCSU still need? Anyone else?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For serials (and for some institutions, monographic series or sets), statement indicating what the library/location has for the title (volumes/years held, gaps, etc) </t>
+  </si>
+  <si>
+    <t>institution- and/or format-specific decision (brief record, full record)</t>
+  </si>
+  <si>
+    <t>Obtain resource; sort items in display into a logical order</t>
+  </si>
+  <si>
+    <t>See what the library/location has without having to look through all the individual items/volumes</t>
+  </si>
+  <si>
+    <t>SerialHoldingsSummary &gt; Serial Summary</t>
+  </si>
+  <si>
+    <t>Inform user what library building or main section/area to go to in order to find the items covered by holdings statement</t>
+  </si>
+  <si>
+    <t>SerialHoldingsSummary &gt; Library</t>
+  </si>
+  <si>
+    <t>Shelving location code for items covered by the holdings statement</t>
+  </si>
+  <si>
+    <t>Inform user what section/area of stacks to go to in order to find the items covered by holdings statement</t>
+  </si>
+  <si>
+    <t>SerialHoldingsSummary &gt; Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identifier for source data holdings record in host institution's ILS. </t>
+  </si>
+  <si>
+    <t>Of possible use for requesting or other features;;;UNC uses this to link to "Latest Received" display from our Sierra OPAC</t>
+  </si>
+  <si>
+    <t>Full call number from holdings record (classification number + shelving cutter + shelf marks + volume/copy designators)</t>
+  </si>
+  <si>
+    <t>SerialHoldingsSummary &gt; Call #</t>
+  </si>
+  <si>
+    <t>holdings_summary</t>
+  </si>
+  <si>
+    <t>Public notes from the item record</t>
+  </si>
+  <si>
+    <t>Public notes from the holdings record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide information on the run/span of items described that cannot be recorded elsewhere in holdings record. </t>
+  </si>
+  <si>
+    <t>SerialHoldingsSummary &gt; Item Note</t>
   </si>
 </sst>
 </file>
@@ -886,12 +1051,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:Q26" totalsRowShown="0">
-  <autoFilter ref="A1:Q26"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:T28" totalsRowShown="0">
+  <autoFilter ref="A1:T28"/>
+  <tableColumns count="20">
     <tableColumn id="2" name="field"/>
     <tableColumn id="1" name="provisional"/>
     <tableColumn id="3" name="local"/>
+    <tableColumn id="18" name="parent"/>
+    <tableColumn id="19" name="required"/>
     <tableColumn id="4" name="multivalued?"/>
     <tableColumn id="5" name="searchable in"/>
     <tableColumn id="6" name="retain order"/>
@@ -904,6 +1071,7 @@
     <tableColumn id="13" name="endeca equivalent"/>
     <tableColumn id="14" name="notes"/>
     <tableColumn id="15" name="implementation details"/>
+    <tableColumn id="20" name="documentation"/>
     <tableColumn id="16" name="issue ct" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
@@ -916,8 +1084,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="field" dataDxfId="8"/>
     <tableColumn id="3" name="desc" dataDxfId="7"/>
@@ -1238,29 +1406,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="34.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="16" max="16" width="24" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1271,49 +1443,58 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1324,51 +1505,57 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>87</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>88</v>
       </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2">
+      <c r="Q2" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1379,51 +1566,57 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>94</v>
       </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3">
+      <c r="Q3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1434,51 +1627,57 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
         <v>96</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>98</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>99</v>
       </c>
-      <c r="O4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4">
+      <c r="Q4" t="s">
+        <v>214</v>
+      </c>
+      <c r="S4">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1489,51 +1688,57 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>82</v>
       </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
         <v>101</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>102</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>103</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>99</v>
       </c>
-      <c r="O5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1544,51 +1749,57 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>108</v>
       </c>
-      <c r="N6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
         <v>109</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1599,614 +1810,1348 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>112</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>113</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>114</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>115</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>116</v>
       </c>
-      <c r="P7">
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8">
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="T9">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="K9" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9">
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>180</v>
+      </c>
+      <c r="S16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="T16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" t="s">
+        <v>243</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>207</v>
+      </c>
+      <c r="S17" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" t="s">
+        <v>219</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" t="s">
+        <v>220</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>221</v>
+      </c>
+      <c r="S19" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10">
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s">
+        <v>224</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M22" t="s">
+        <v>244</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" t="s">
+        <v>247</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" t="s">
         <v>171</v>
       </c>
-      <c r="J11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
         <v>173</v>
       </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
-        <v>174</v>
-      </c>
-      <c r="N11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>175</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>171</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="T24">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="T25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
-        <v>181</v>
-      </c>
-      <c r="N13" t="s">
-        <v>182</v>
-      </c>
-      <c r="O13" t="s">
-        <v>183</v>
-      </c>
-      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>254</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="T26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
-        <v>189</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="T27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>194</v>
-      </c>
-      <c r="K15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>192</v>
-      </c>
-      <c r="N15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" t="s">
-        <v>195</v>
-      </c>
-      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s">
+        <v>236</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>239</v>
+      </c>
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>157</v>
-      </c>
-      <c r="P19" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="P20" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>159</v>
-      </c>
-      <c r="P21" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="P22" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>164</v>
-      </c>
-      <c r="P26" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="T28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -2221,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,18 +3183,18 @@
         <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2260,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2268,10 +3213,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2323,12 +3268,30 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,7 +3305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2384,15 +3349,15 @@
         <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -2407,16 +3372,16 @@
         <v>999</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -2445,13 +3410,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1">
         <v>946</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -2489,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1">
         <v>909</v>
@@ -2577,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -2609,7 +3574,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -2624,10 +3589,10 @@
         <v>999</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -2636,7 +3601,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -2653,7 +3618,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2668,10 +3633,10 @@
         <v>999</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -2697,7 +3662,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2715,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -2728,7 +3693,7 @@
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_public_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -2741,7 +3706,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -2756,10 +3721,10 @@
         <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -2794,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
         <v>600</v>
@@ -2838,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1">
         <v>610</v>
@@ -2882,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1">
         <v>611</v>
@@ -2926,7 +3891,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1">
         <v>630</v>
@@ -2970,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1">
         <v>650</v>
@@ -3014,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1">
         <v>651</v>
@@ -3058,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="1">
         <v>655</v>
@@ -3102,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1">
         <v>648</v>
@@ -3146,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -3190,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
@@ -3234,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E21" s="1">
         <v>8</v>
@@ -3278,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -3322,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1">
         <v>600</v>
@@ -3366,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>610</v>
@@ -3410,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1">
         <v>611</v>
@@ -3454,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1">
         <v>630</v>
@@ -3498,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" s="1">
         <v>650</v>
@@ -3542,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1">
         <v>651</v>
@@ -3586,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1">
         <v>655</v>
@@ -3630,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>647</v>
@@ -3674,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>648</v>
@@ -3718,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1">
         <v>655</v>
@@ -3762,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1">
         <v>655</v>
@@ -3806,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1">
         <v>655</v>
@@ -3850,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1">
         <v>655</v>
@@ -3894,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1">
         <v>655</v>
@@ -3938,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1">
         <v>655</v>
@@ -3982,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1">
         <v>655</v>
@@ -4026,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1">
         <v>655</v>
@@ -4070,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1">
         <v>655</v>
@@ -4114,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1">
         <v>656</v>
@@ -4158,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1">
         <v>657</v>
@@ -4202,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1">
         <v>600</v>
@@ -4246,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="1">
         <v>610</v>
@@ -4290,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="1">
         <v>611</v>
@@ -4334,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1">
         <v>630</v>
@@ -4378,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1">
         <v>650</v>
@@ -4422,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1">
         <v>651</v>
@@ -4466,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1">
         <v>655</v>
@@ -4510,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="1">
         <v>648</v>
@@ -4554,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" s="1">
         <v>600</v>
@@ -4598,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E52" s="1">
         <v>600</v>
@@ -4642,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="1">
         <v>610</v>
@@ -4686,7 +5651,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1">
         <v>610</v>
@@ -4730,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" s="1">
         <v>611</v>
@@ -4774,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E56" s="1">
         <v>611</v>
@@ -4818,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E57" s="1">
         <v>630</v>
@@ -4862,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1">
         <v>630</v>
@@ -4906,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1">
         <v>650</v>
@@ -4950,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1">
         <v>650</v>
@@ -4994,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" s="1">
         <v>651</v>
@@ -5038,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1">
         <v>647</v>
@@ -5082,7 +6047,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1">
         <v>647</v>
@@ -5126,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1">
         <v>648</v>
@@ -5170,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1">
         <v>655</v>
@@ -5214,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E66" s="1">
         <v>656</v>
@@ -5258,7 +6223,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1">
         <v>656</v>
@@ -5302,7 +6267,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1">
         <v>657</v>
@@ -5346,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E69" s="1">
         <v>657</v>
@@ -5395,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,21 +6374,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>655</v>
@@ -5432,7 +6397,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,7 +6411,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5460,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,10 +6450,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,12 +6467,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -5516,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="273">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -479,9 +479,6 @@
     <t>item_record_id</t>
   </si>
   <si>
-    <t>item_location</t>
-  </si>
-  <si>
     <t>item_call_number</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
     <t>Need to find out where this is in their data.</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -656,9 +656,6 @@
     <t>item_classification_scheme</t>
   </si>
   <si>
-    <t>999Class (prepipeline field)</t>
-  </si>
-  <si>
     <t>An item may have more than one item note. They should be displayed in order.</t>
   </si>
   <si>
@@ -807,6 +804,48 @@
   </si>
   <si>
     <t>SerialHoldingsSummary &gt; Item Note</t>
+  </si>
+  <si>
+    <t>field defined?</t>
+  </si>
+  <si>
+    <t>qvc</t>
+  </si>
+  <si>
+    <t>Class Schemes</t>
+  </si>
+  <si>
+    <t>See https://github.com/trln/data-documentation/blob/master/argot/examples/items.md#item_call_number-unc</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=1 and $d IS NOT blank</t>
+  </si>
+  <si>
+    <t>value = "Checked Out"</t>
+  </si>
+  <si>
+    <t>map subelement to value</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=1 and $d IS blank</t>
+  </si>
+  <si>
+    <t>See maps/item_status_ils_to_argot.json["UNC"]</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</t>
+  </si>
+  <si>
+    <t>value = "On Order"</t>
+  </si>
+  <si>
+    <t>Order record data (999 94) should only be output if there is no item or holdings data output</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>See maps/location_shelf_to_location_library.json["UNC"]</t>
   </si>
 </sst>
 </file>
@@ -912,7 +951,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -932,6 +971,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1052,7 +1094,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:T28" totalsRowShown="0">
-  <autoFilter ref="A1:T28"/>
+  <autoFilter ref="A1:T28">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="items"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="20">
     <tableColumn id="2" name="field"/>
     <tableColumn id="1" name="provisional"/>
@@ -1072,7 +1120,7 @@
     <tableColumn id="14" name="notes"/>
     <tableColumn id="15" name="implementation details"/>
     <tableColumn id="20" name="documentation"/>
-    <tableColumn id="16" name="issue ct" dataDxfId="11">
+    <tableColumn id="16" name="issue ct" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="mapping ct">
@@ -1084,46 +1132,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="field" dataDxfId="8"/>
-    <tableColumn id="3" name="desc" dataDxfId="7"/>
-    <tableColumn id="4" name="doc" dataDxfId="6"/>
+    <tableColumn id="1" name="field" dataDxfId="9"/>
+    <tableColumn id="3" name="desc" dataDxfId="8"/>
+    <tableColumn id="4" name="doc" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:M69" totalsRowShown="0">
-  <autoFilter ref="A1:M69"/>
-  <sortState ref="A2:M69">
-    <sortCondition ref="A2:A69"/>
-    <sortCondition ref="C2:C69"/>
-    <sortCondition ref="D2:D69"/>
-    <sortCondition ref="B2:B69"/>
-    <sortCondition ref="E2:E69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N76" totalsRowShown="0">
+  <autoFilter ref="A1:N76"/>
+  <sortState ref="A2:N70">
+    <sortCondition ref="A2:A70"/>
+    <sortCondition ref="C2:C70"/>
+    <sortCondition ref="D2:D70"/>
+    <sortCondition ref="B2:B70"/>
+    <sortCondition ref="E2:E70"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="5"/>
+    <tableColumn id="4" name="element/field" dataDxfId="6"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="4">
+    <tableColumn id="10" name="mapping_id" dataDxfId="5">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="2">
+    <tableColumn id="13" name="field issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="field defined?" dataDxfId="2">
+      <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1408,9 +1459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1494,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>190</v>
@@ -1485,7 +1536,7 @@
         <v>80</v>
       </c>
       <c r="R1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
         <v>147</v>
@@ -1494,7 +1545,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1508,7 +1559,7 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1544,7 +1595,10 @@
         <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
       </c>
       <c r="S2">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1555,7 +1609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1605,7 +1659,10 @@
         <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
       </c>
       <c r="S3">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1616,7 +1673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1687,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1666,7 +1723,10 @@
         <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
       </c>
       <c r="S4">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1677,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1751,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -1727,7 +1787,10 @@
         <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
       </c>
       <c r="S5">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1738,7 +1801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1752,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -1789,6 +1852,9 @@
       </c>
       <c r="Q6" t="s">
         <v>109</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
       </c>
       <c r="S6">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1799,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1813,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -1849,7 +1915,10 @@
         <v>41</v>
       </c>
       <c r="Q7" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
       </c>
       <c r="S7">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1860,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -1874,7 +1943,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -1912,6 +1981,9 @@
       <c r="Q8" t="s">
         <v>6</v>
       </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
       <c r="S8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
@@ -1921,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1935,7 +2007,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -1973,6 +2045,9 @@
       <c r="Q9" t="s">
         <v>6</v>
       </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
       <c r="S9">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
@@ -1982,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -2029,6 +2104,9 @@
         <v>6</v>
       </c>
       <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
         <v>6</v>
       </c>
       <c r="S10">
@@ -2051,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2069,28 +2147,31 @@
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>194</v>
       </c>
       <c r="L11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" t="s">
         <v>161</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
         <v>162</v>
       </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" t="s">
         <v>163</v>
       </c>
-      <c r="P11" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>164</v>
+      <c r="R11" t="s">
+        <v>6</v>
       </c>
       <c r="S11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2112,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -2136,7 +2217,7 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
         <v>192</v>
@@ -2145,13 +2226,16 @@
         <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s">
         <v>41</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
       </c>
       <c r="S12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2164,7 +2248,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2173,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2191,7 +2275,7 @@
         <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>193</v>
@@ -2208,8 +2292,14 @@
       <c r="O13" t="s">
         <v>200</v>
       </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
       <c r="Q13" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
       </c>
       <c r="S13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2217,12 +2307,12 @@
       </c>
       <c r="T13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2231,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -2249,28 +2339,31 @@
         <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>193</v>
       </c>
       <c r="L14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s">
         <v>167</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
         <v>168</v>
       </c>
-      <c r="N14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>169</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" t="s">
-        <v>171</v>
+      <c r="R14" t="s">
+        <v>6</v>
       </c>
       <c r="S14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2278,7 +2371,7 @@
       </c>
       <c r="T14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2292,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -2310,28 +2403,31 @@
         <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>193</v>
       </c>
       <c r="L15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s">
         <v>174</v>
       </c>
-      <c r="N15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" t="s">
-        <v>175</v>
-      </c>
       <c r="P15" t="s">
         <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6</v>
       </c>
       <c r="S15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2342,9 +2438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -2377,22 +2473,25 @@
         <v>41</v>
       </c>
       <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
         <v>179</v>
       </c>
-      <c r="M16" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" t="s">
-        <v>177</v>
-      </c>
-      <c r="P16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>180</v>
+      <c r="R16" t="s">
+        <v>6</v>
       </c>
       <c r="S16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2405,7 +2504,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2414,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -2432,7 +2531,7 @@
         <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>193</v>
@@ -2441,7 +2540,7 @@
         <v>197</v>
       </c>
       <c r="M17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N17" t="s">
         <v>6</v>
@@ -2449,13 +2548,16 @@
       <c r="O17" t="s">
         <v>207</v>
       </c>
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
       <c r="S17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="T17">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2469,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -2502,13 +2604,16 @@
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="P18" t="s">
         <v>41</v>
       </c>
       <c r="Q18" t="s">
         <v>41</v>
+      </c>
+      <c r="R18" t="s">
+        <v>6</v>
       </c>
       <c r="S18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2521,7 +2626,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2530,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -2548,28 +2653,31 @@
         <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>193</v>
       </c>
       <c r="L19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" t="s">
         <v>218</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" t="s">
         <v>219</v>
       </c>
-      <c r="N19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
         <v>220</v>
       </c>
-      <c r="P19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>221</v>
+      <c r="R19" t="s">
+        <v>6</v>
       </c>
       <c r="S19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2577,12 +2685,12 @@
       </c>
       <c r="T19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -2591,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s">
         <v>86</v>
@@ -2615,7 +2723,7 @@
         <v>86</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s">
         <v>86</v>
@@ -2624,7 +2732,7 @@
         <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s">
         <v>41</v>
@@ -2646,7 +2754,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2655,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
@@ -2679,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
@@ -2708,9 +2816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2719,10 +2827,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2737,22 +2845,22 @@
         <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
         <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" t="s">
         <v>244</v>
-      </c>
-      <c r="N22" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" t="s">
-        <v>245</v>
       </c>
       <c r="P22" t="s">
         <v>41</v>
@@ -2772,9 +2880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2783,10 +2891,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -2801,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s">
         <v>193</v>
@@ -2810,19 +2918,19 @@
         <v>198</v>
       </c>
       <c r="M23" t="s">
+        <v>245</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" t="s">
         <v>246</v>
       </c>
-      <c r="N23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" t="s">
-        <v>247</v>
-      </c>
       <c r="P23" t="s">
         <v>41</v>
       </c>
       <c r="Q23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R23" t="s">
         <v>6</v>
@@ -2836,9 +2944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2847,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -2865,28 +2973,28 @@
         <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
         <v>193</v>
       </c>
       <c r="L24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s">
         <v>248</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s">
         <v>249</v>
       </c>
-      <c r="N24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" t="s">
-        <v>250</v>
-      </c>
       <c r="P24" t="s">
         <v>41</v>
       </c>
       <c r="Q24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R24" t="s">
         <v>6</v>
@@ -2900,9 +3008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2911,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -2935,10 +3043,10 @@
         <v>41</v>
       </c>
       <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
         <v>251</v>
-      </c>
-      <c r="M25" t="s">
-        <v>252</v>
       </c>
       <c r="N25" t="s">
         <v>41</v>
@@ -2964,9 +3072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2975,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2993,13 +3101,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
         <v>193</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s">
         <v>205</v>
@@ -3008,7 +3116,7 @@
         <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s">
         <v>41</v>
@@ -3028,9 +3136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -3039,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -3057,22 +3165,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
         <v>193</v>
       </c>
       <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s">
         <v>257</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
         <v>258</v>
-      </c>
-      <c r="N27" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" t="s">
-        <v>259</v>
       </c>
       <c r="P27" t="s">
         <v>41</v>
@@ -3092,57 +3200,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>232</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
         <v>233</v>
       </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
         <v>234</v>
       </c>
-      <c r="K28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>235</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
         <v>236</v>
       </c>
-      <c r="N28" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>237</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>238</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>239</v>
       </c>
       <c r="R28" t="s">
         <v>6</v>
@@ -3268,28 +3376,28 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -3303,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3422,7 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -3354,10 +3462,13 @@
       <c r="M1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -3372,16 +3483,16 @@
         <v>999</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -3398,8 +3509,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3410,13 +3525,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1">
         <v>946</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -3442,8 +3557,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
         <v>909</v>
@@ -3486,8 +3605,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3530,8 +3653,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3542,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -3571,10 +3698,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -3589,23 +3720,23 @@
         <v>999</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3615,10 +3746,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -3626,20 +3761,20 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>999</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -3649,7 +3784,7 @@
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_locationUNC999li1=9 AND i2=1</v>
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L8" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3659,10 +3794,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -3670,30 +3809,30 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1">
         <v>999</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3703,10 +3842,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -3721,54 +3864,58 @@
         <v>999</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L10" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1">
+        <v>999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
         <v>158</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
-      </c>
-      <c r="L10" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="1">
-        <v>600</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -3777,42 +3924,46 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L11">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+      </c>
+      <c r="L11" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>139</v>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="1">
-        <v>610</v>
+        <v>999</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -3823,40 +3974,44 @@
       <c r="J12" t="s">
         <v>6</v>
       </c>
-      <c r="K12" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L12">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+      </c>
+      <c r="L12" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>139</v>
+      <c r="D13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="1">
-        <v>611</v>
+        <v>999</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -3867,128 +4022,140 @@
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L13">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L13" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>139</v>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="1">
-        <v>630</v>
+        <v>999</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
       </c>
-      <c r="K14" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L14">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+      </c>
+      <c r="L14" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>139</v>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="1">
-        <v>650</v>
+        <v>999</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="K15" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L15">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L15" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>139</v>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="1">
-        <v>651</v>
+        <v>999</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -3999,40 +4166,44 @@
       <c r="J16" t="s">
         <v>6</v>
       </c>
-      <c r="K16" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L16">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
+      </c>
+      <c r="L16" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1">
-        <v>655</v>
+        <v>999</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -4043,20 +4214,24 @@
       <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="K17" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L17">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+      </c>
+      <c r="L17" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4064,19 +4239,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>139</v>
       </c>
       <c r="E18" s="1">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -4085,11 +4260,11 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L18">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4099,10 +4274,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4114,26 +4293,26 @@
         <v>139</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
+        <v>610</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L19">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4141,12 +4320,16 @@
       </c>
       <c r="M19">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -4158,26 +4341,26 @@
         <v>139</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
+        <v>611</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K20" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L20">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4185,12 +4368,16 @@
       </c>
       <c r="M20">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -4202,26 +4389,26 @@
         <v>139</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>33</v>
+        <v>630</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
       </c>
       <c r="K21" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L21">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4229,12 +4416,16 @@
       </c>
       <c r="M21">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -4246,26 +4437,26 @@
         <v>139</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
+        <v>650</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K22" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L22">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4273,12 +4464,16 @@
       </c>
       <c r="M22">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -4290,10 +4485,10 @@
         <v>139</v>
       </c>
       <c r="E23" s="1">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
@@ -4309,7 +4504,7 @@
       </c>
       <c r="K23" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L23">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4317,12 +4512,16 @@
       </c>
       <c r="M23">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -4334,10 +4533,10 @@
         <v>139</v>
       </c>
       <c r="E24" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
@@ -4353,7 +4552,7 @@
       </c>
       <c r="K24" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L24">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4361,30 +4560,34 @@
       </c>
       <c r="M24">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
       </c>
       <c r="E25" s="1">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -4393,11 +4596,11 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K25" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L25">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4405,10 +4608,14 @@
       </c>
       <c r="M25">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4422,26 +4629,26 @@
         <v>139</v>
       </c>
       <c r="E26" s="1">
-        <v>630</v>
-      </c>
-      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
         <v>6</v>
       </c>
       <c r="K26" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L26">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4451,8 +4658,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4466,26 +4677,26 @@
         <v>139</v>
       </c>
       <c r="E27" s="1">
-        <v>650</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K27" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L27">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4495,8 +4706,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -4510,26 +4725,26 @@
         <v>139</v>
       </c>
       <c r="E28" s="1">
-        <v>651</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>6</v>
       </c>
       <c r="K28" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L28">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4539,8 +4754,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4554,26 +4773,26 @@
         <v>139</v>
       </c>
       <c r="E29" s="1">
-        <v>655</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K29" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L29">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4583,8 +4802,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4592,13 +4815,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>139</v>
       </c>
       <c r="E30" s="1">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -4613,11 +4836,11 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K30" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L30">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4627,8 +4850,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -4636,13 +4863,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="1">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -4657,11 +4884,11 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K31" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L31">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4671,8 +4898,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -4680,32 +4911,32 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>139</v>
       </c>
       <c r="E32" s="1">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K32" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L32">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4715,8 +4946,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4724,32 +4959,32 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K33" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L33">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4759,8 +4994,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -4768,32 +5007,32 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>139</v>
       </c>
       <c r="E34" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K34" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L34">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4803,8 +5042,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4812,32 +5055,32 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>139</v>
       </c>
       <c r="E35" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K35" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L35">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4847,8 +5090,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -4856,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -4865,23 +5112,23 @@
         <v>655</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K36" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L36">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4891,8 +5138,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -4906,13 +5157,13 @@
         <v>139</v>
       </c>
       <c r="E37" s="1">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -4921,11 +5172,11 @@
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K37" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L37">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4935,8 +5186,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -4950,13 +5205,13 @@
         <v>139</v>
       </c>
       <c r="E38" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -4965,11 +5220,11 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K38" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L38">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4979,8 +5234,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -4997,23 +5256,23 @@
         <v>655</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K39" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L39">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5023,8 +5282,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -5041,23 +5304,23 @@
         <v>655</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K40" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L40">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5067,8 +5330,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5082,26 +5349,26 @@
         <v>139</v>
       </c>
       <c r="E41" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K41" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L41">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5111,8 +5378,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -5126,26 +5397,26 @@
         <v>139</v>
       </c>
       <c r="E42" s="1">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5155,41 +5426,45 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>139</v>
       </c>
       <c r="E43" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5197,30 +5472,34 @@
       </c>
       <c r="M43">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N43" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>139</v>
       </c>
       <c r="E44" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -5229,11 +5508,11 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5241,30 +5520,34 @@
       </c>
       <c r="M44">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N44" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>139</v>
       </c>
       <c r="E45" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -5273,11 +5556,11 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5285,30 +5568,34 @@
       </c>
       <c r="M45">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N45" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5317,11 +5604,11 @@
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5329,30 +5616,34 @@
       </c>
       <c r="M46">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N46" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
         <v>139</v>
       </c>
       <c r="E47" s="1">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -5361,11 +5652,11 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5373,30 +5664,34 @@
       </c>
       <c r="M47">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N47" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -5405,11 +5700,11 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5417,30 +5712,34 @@
       </c>
       <c r="M48">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N48" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -5449,11 +5748,11 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5461,10 +5760,14 @@
       </c>
       <c r="M49">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N49" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -5472,19 +5775,19 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
       <c r="E50" s="1">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -5493,11 +5796,11 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5507,10 +5810,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5522,26 +5829,26 @@
         <v>139</v>
       </c>
       <c r="E51" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5551,10 +5858,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5566,10 +5877,10 @@
         <v>139</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
@@ -5585,7 +5896,7 @@
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5595,10 +5906,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5610,26 +5925,26 @@
         <v>139</v>
       </c>
       <c r="E53" s="1">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5639,10 +5954,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -5654,10 +5973,10 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
@@ -5673,7 +5992,7 @@
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5683,10 +6002,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -5698,26 +6021,26 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5727,10 +6050,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -5742,10 +6069,10 @@
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>4</v>
@@ -5761,7 +6088,7 @@
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5771,41 +6098,45 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5815,8 +6146,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -5830,26 +6165,26 @@
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5859,8 +6194,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -5874,16 +6213,16 @@
         <v>139</v>
       </c>
       <c r="E59" s="1">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
@@ -5893,7 +6232,7 @@
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5903,8 +6242,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5918,26 +6261,26 @@
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5947,8 +6290,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -5962,7 +6309,7 @@
         <v>139</v>
       </c>
       <c r="E61" s="1">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -5981,7 +6328,7 @@
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5991,8 +6338,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -6000,16 +6351,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
         <v>4</v>
@@ -6021,11 +6372,11 @@
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6035,8 +6386,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -6044,13 +6399,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>139</v>
       </c>
       <c r="E63" s="1">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -6065,11 +6420,11 @@
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6079,8 +6434,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -6088,32 +6447,32 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
       </c>
       <c r="E64" s="1">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6123,8 +6482,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -6132,13 +6495,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>139</v>
       </c>
       <c r="E65" s="1">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -6155,20 +6518,24 @@
       <c r="J65" t="s">
         <v>6</v>
       </c>
-      <c r="K65" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      <c r="K65" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -6176,32 +6543,32 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>139</v>
       </c>
       <c r="E66" s="1">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6211,8 +6578,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -6220,19 +6591,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
         <v>139</v>
       </c>
       <c r="E67" s="1">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -6241,11 +6612,11 @@
         <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6255,8 +6626,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -6264,19 +6639,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
         <v>139</v>
       </c>
       <c r="E68" s="1">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -6285,11 +6660,11 @@
         <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6299,8 +6674,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -6314,38 +6693,378 @@
         <v>139</v>
       </c>
       <c r="E69" s="1">
+        <v>647</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L69">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="1">
+        <v>647</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L70">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1">
+        <v>648</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L71">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N71" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="1">
+        <v>655</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L72">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="1">
+        <v>656</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L73">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N73" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="1">
+        <v>656</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L74">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="1">
         <v>657</v>
       </c>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
         <v>34</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H75" t="s">
         <v>5</v>
       </c>
-      <c r="I69" t="s">
-        <v>6</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="I75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
         <v>51</v>
       </c>
-      <c r="K69" t="str">
+      <c r="K75" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L75">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N75" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" s="1">
+        <v>657</v>
+      </c>
+      <c r="F76" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
         <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
       </c>
-      <c r="L69">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="L76">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K60">
+  <conditionalFormatting sqref="K2:K66">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6472,16 +7191,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="5910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="279">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -846,6 +846,24 @@
   </si>
   <si>
     <t>See maps/location_shelf_to_location_library.json["UNC"]</t>
+  </si>
+  <si>
+    <t>bib_locations_hierarchical</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher-level (library, etc.) locations housing volumes/copies of the resource described in the bib record </t>
+  </si>
+  <si>
+    <t>Support for hierarchical location facet; polyhierarchy already existing in Endeca</t>
+  </si>
+  <si>
+    <t>Recommended: limit to physical places people can go -- Online and E-resource are NOT locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine best way to derive/represent data; I've provided something that seems to make sense to me... </t>
   </si>
 </sst>
 </file>
@@ -1093,14 +1111,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:T28" totalsRowShown="0">
-  <autoFilter ref="A1:T28">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="items"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:T29" totalsRowShown="0">
+  <autoFilter ref="A1:T29"/>
   <tableColumns count="20">
     <tableColumn id="2" name="field"/>
     <tableColumn id="1" name="provisional"/>
@@ -1132,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="field" dataDxfId="9"/>
     <tableColumn id="3" name="desc" dataDxfId="8"/>
@@ -1144,8 +1156,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N76" totalsRowShown="0">
-  <autoFilter ref="A1:N76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N77" totalsRowShown="0">
+  <autoFilter ref="A1:N77"/>
   <sortState ref="A2:N70">
     <sortCondition ref="A2:A70"/>
     <sortCondition ref="C2:C70"/>
@@ -1457,11 +1469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>254</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -2944,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -3136,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -3200,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -3262,6 +3274,61 @@
       <c r="T28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s">
+        <v>276</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" t="s">
+        <v>274</v>
+      </c>
+      <c r="S29" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3274,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,6 +3468,24 @@
       </c>
       <c r="C11" s="6"/>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3411,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,7 +3553,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -3476,30 +3561,13 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="1">
-        <v>999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="K2" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>circulation_countUNC999oi1=9 AND i2=1</v>
+        <v>bib_locations_hierarchicalUNC</v>
       </c>
       <c r="L2" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3507,7 +3575,7 @@
       </c>
       <c r="M2" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -3516,38 +3584,38 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="1">
-        <v>946</v>
+        <v>999</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedDUKE946b.</v>
+        <v>circulation_countUNC999oi1=9 AND i2=1</v>
       </c>
       <c r="L3" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3555,7 +3623,7 @@
       </c>
       <c r="M3" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -3573,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="1">
-        <v>909</v>
+        <v>946</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -3595,7 +3663,7 @@
       </c>
       <c r="K4" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCSU909a.</v>
+        <v>date_catalogedDUKE946b.</v>
       </c>
       <c r="L4" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3621,16 +3689,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1">
-        <v>999</v>
+        <v>909</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -3641,15 +3709,15 @@
       <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
-      </c>
-      <c r="L5">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="K5" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedNCSU909a.</v>
+      </c>
+      <c r="L5" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -3666,35 +3734,38 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="1">
+        <v>999</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCCU...</v>
-      </c>
-      <c r="L6" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
+      </c>
+      <c r="L6">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -3705,42 +3776,39 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1">
-        <v>999</v>
+        <v>186</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>date_catalogedNCCU...</v>
       </c>
       <c r="L7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -3753,7 +3821,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -3768,23 +3836,23 @@
         <v>999</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L8" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3816,23 +3884,23 @@
         <v>999</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I9" t="s">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3864,23 +3932,23 @@
         <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3897,7 +3965,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -3912,23 +3980,23 @@
         <v>999</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L11" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3945,7 +4013,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -3953,14 +4021,14 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="1">
         <v>999</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
         <v>158</v>
@@ -3972,11 +4040,11 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
       </c>
       <c r="L12" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4008,10 +4076,10 @@
         <v>999</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -4024,7 +4092,7 @@
       </c>
       <c r="K13" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L13" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4041,7 +4109,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -4056,23 +4124,23 @@
         <v>999</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L14" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4104,10 +4172,10 @@
         <v>999</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
         <v>265</v>
@@ -4120,7 +4188,7 @@
       </c>
       <c r="K15" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L15" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4137,7 +4205,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -4152,23 +4220,23 @@
         <v>999</v>
       </c>
       <c r="F16" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L16" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4185,7 +4253,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4193,14 +4261,14 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="1">
         <v>999</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>158</v>
@@ -4216,7 +4284,7 @@
       </c>
       <c r="K17" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L17" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4233,25 +4301,25 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -4262,17 +4330,17 @@
       <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="K18" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L18">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K18" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+      </c>
+      <c r="L18" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N18" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4293,7 +4361,7 @@
         <v>139</v>
       </c>
       <c r="E19" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -4312,7 +4380,7 @@
       </c>
       <c r="K19" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L19">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4341,7 +4409,7 @@
         <v>139</v>
       </c>
       <c r="E20" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
@@ -4360,7 +4428,7 @@
       </c>
       <c r="K20" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L20">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4389,7 +4457,7 @@
         <v>139</v>
       </c>
       <c r="E21" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -4408,7 +4476,7 @@
       </c>
       <c r="K21" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L21">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4437,7 +4505,7 @@
         <v>139</v>
       </c>
       <c r="E22" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -4456,7 +4524,7 @@
       </c>
       <c r="K22" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L22">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4485,7 +4553,7 @@
         <v>139</v>
       </c>
       <c r="E23" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -4504,7 +4572,7 @@
       </c>
       <c r="K23" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L23">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4533,7 +4601,7 @@
         <v>139</v>
       </c>
       <c r="E24" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
@@ -4552,7 +4620,7 @@
       </c>
       <c r="K24" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L24">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4575,19 +4643,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
       </c>
       <c r="E25" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -4596,11 +4664,11 @@
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K25" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L25">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4617,38 +4685,38 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>16</v>
+        <v>648</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K26" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L26">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4656,7 +4724,7 @@
       </c>
       <c r="M26">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4680,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -4689,14 +4757,14 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K27" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L27">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4725,26 +4793,26 @@
         <v>139</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K28" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L28">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4776,7 +4844,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
@@ -4785,14 +4853,14 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K29" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L29">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4821,26 +4889,26 @@
         <v>139</v>
       </c>
       <c r="E30" s="1">
-        <v>600</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K30" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L30">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4869,7 +4937,7 @@
         <v>139</v>
       </c>
       <c r="E31" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -4888,7 +4956,7 @@
       </c>
       <c r="K31" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L31">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4917,7 +4985,7 @@
         <v>139</v>
       </c>
       <c r="E32" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -4936,7 +5004,7 @@
       </c>
       <c r="K32" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L32">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4965,7 +5033,7 @@
         <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -4984,7 +5052,7 @@
       </c>
       <c r="K33" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L33">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5013,7 +5081,7 @@
         <v>139</v>
       </c>
       <c r="E34" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -5032,7 +5100,7 @@
       </c>
       <c r="K34" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L34">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5061,7 +5129,7 @@
         <v>139</v>
       </c>
       <c r="E35" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -5080,7 +5148,7 @@
       </c>
       <c r="K35" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L35">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5109,7 +5177,7 @@
         <v>139</v>
       </c>
       <c r="E36" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -5128,7 +5196,7 @@
       </c>
       <c r="K36" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L36">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5151,13 +5219,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>139</v>
       </c>
       <c r="E37" s="1">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -5172,11 +5240,11 @@
         <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K37" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L37">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5205,7 +5273,7 @@
         <v>139</v>
       </c>
       <c r="E38" s="1">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -5220,11 +5288,11 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L38">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5253,26 +5321,26 @@
         <v>139</v>
       </c>
       <c r="E39" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K39" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L39">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5307,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -5316,11 +5384,11 @@
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K40" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L40">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5355,7 +5423,7 @@
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
@@ -5364,11 +5432,11 @@
         <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K41" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L41">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5403,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -5412,11 +5480,11 @@
         <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5451,20 +5519,20 @@
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5496,23 +5564,23 @@
         <v>655</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5547,7 +5615,7 @@
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -5556,11 +5624,11 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5595,7 +5663,7 @@
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5604,11 +5672,11 @@
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5643,7 +5711,7 @@
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -5652,11 +5720,11 @@
         <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5685,13 +5753,13 @@
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -5700,11 +5768,11 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5733,10 +5801,10 @@
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -5752,7 +5820,7 @@
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5769,25 +5837,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
       <c r="E50" s="1">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -5796,11 +5864,11 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5808,7 +5876,7 @@
       </c>
       <c r="M50">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5829,7 +5897,7 @@
         <v>139</v>
       </c>
       <c r="E51" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -5848,7 +5916,7 @@
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5877,7 +5945,7 @@
         <v>139</v>
       </c>
       <c r="E52" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5896,7 +5964,7 @@
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5925,7 +5993,7 @@
         <v>139</v>
       </c>
       <c r="E53" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -5944,7 +6012,7 @@
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5973,7 +6041,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F54" t="s">
         <v>37</v>
@@ -5992,7 +6060,7 @@
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6021,7 +6089,7 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -6040,7 +6108,7 @@
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6069,7 +6137,7 @@
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -6088,7 +6156,7 @@
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6111,19 +6179,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
@@ -6132,11 +6200,11 @@
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6153,38 +6221,38 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6216,23 +6284,23 @@
         <v>600</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6261,26 +6329,26 @@
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6312,23 +6380,23 @@
         <v>610</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6357,26 +6425,26 @@
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6408,23 +6476,23 @@
         <v>611</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6453,26 +6521,26 @@
         <v>139</v>
       </c>
       <c r="E64" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6504,23 +6572,23 @@
         <v>630</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6549,16 +6617,16 @@
         <v>139</v>
       </c>
       <c r="E66" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
@@ -6568,7 +6636,7 @@
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6600,13 +6668,13 @@
         <v>650</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
@@ -6616,7 +6684,7 @@
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6645,7 +6713,7 @@
         <v>139</v>
       </c>
       <c r="E68" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -6664,7 +6732,7 @@
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6687,32 +6755,32 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
         <v>139</v>
       </c>
       <c r="E69" s="1">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6744,13 +6812,13 @@
         <v>647</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -6760,7 +6828,7 @@
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6789,7 +6857,7 @@
         <v>139</v>
       </c>
       <c r="E71" s="1">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
@@ -6804,11 +6872,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6837,7 +6905,7 @@
         <v>139</v>
       </c>
       <c r="E72" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F72" t="s">
         <v>41</v>
@@ -6852,15 +6920,15 @@
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>6</v>
-      </c>
-      <c r="K72" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>18</v>
+      </c>
+      <c r="K72" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -6885,13 +6953,13 @@
         <v>139</v>
       </c>
       <c r="E73" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -6900,15 +6968,15 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
-      </c>
-      <c r="K73" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>6</v>
+      </c>
+      <c r="K73" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -6936,7 +7004,7 @@
         <v>656</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -6948,11 +7016,11 @@
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6981,10 +7049,10 @@
         <v>139</v>
       </c>
       <c r="E75" s="1">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -6996,11 +7064,11 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7032,7 +7100,7 @@
         <v>657</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -7048,23 +7116,71 @@
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L76">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="1">
+        <v>657</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
         <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
       </c>
-      <c r="L76">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="N76" s="8" t="str">
+      <c r="L77">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N77" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K66">
+  <conditionalFormatting sqref="K3:K67">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="5910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="369">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -671,6 +671,9 @@
     <t>https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
@@ -863,7 +866,274 @@
     <t>Recommended: limit to physical places people can go -- Online and E-resource are NOT locations</t>
   </si>
   <si>
-    <t xml:space="preserve">Determine best way to derive/represent data; I've provided something that seems to make sense to me... </t>
+    <t>Determine best way to derive/represent data; I've provided something that seems to make sense to me and serves as an example of what we are doing now with polyhierarchy and "sublocations", that we need to still be able to do</t>
+  </si>
+  <si>
+    <t>jira ref</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-370</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/data-documentation/blob/master/argot/questions_issues/location.md</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-363</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-371</t>
+  </si>
+  <si>
+    <t>https://trlnmain.atlassian.net/browse/TD-151?jql=text%20~%20%22popular%22</t>
+  </si>
+  <si>
+    <t>creator_main</t>
+  </si>
+  <si>
+    <t>creator_add</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>other_name</t>
+  </si>
+  <si>
+    <t>undiff_name</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>item data</t>
+  </si>
+  <si>
+    <t>holdings data</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>author_facet</t>
+  </si>
+  <si>
+    <t>included_work_creator</t>
+  </si>
+  <si>
+    <t>related_work_creator</t>
+  </si>
+  <si>
+    <t>toc_work_creator</t>
+  </si>
+  <si>
+    <t>work_citation</t>
+  </si>
+  <si>
+    <t>included_work_citation</t>
+  </si>
+  <si>
+    <t>related_work_citation</t>
+  </si>
+  <si>
+    <t>undiff_work_citation</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>title_main</t>
+  </si>
+  <si>
+    <t>diff_format_citation</t>
+  </si>
+  <si>
+    <t>donor</t>
+  </si>
+  <si>
+    <t>diff_format_citation_label</t>
+  </si>
+  <si>
+    <t>included_work_citation_label</t>
+  </si>
+  <si>
+    <t>related_work_citation_label</t>
+  </si>
+  <si>
+    <t>undiff_work_citation_label</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Name Title</t>
+  </si>
+  <si>
+    <t>Table of Contents author index</t>
+  </si>
+  <si>
+    <t>Other Authors</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Main Author</t>
+  </si>
+  <si>
+    <t>Main Title</t>
+  </si>
+  <si>
+    <t>uniform_title</t>
+  </si>
+  <si>
+    <t>Uniform Title;;;Name Title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>In cataloging terms, the "main entry" author---the primary author that is recorded in a 1xx field. By definition, this should be a creator of the work described</t>
+  </si>
+  <si>
+    <t>Was separate in Endeca, some UIs displayed this author field, when available, in the brief record display. Copied/re-used to create work_citation</t>
+  </si>
+  <si>
+    <t>The role of the creator_main name in relation to the work described</t>
+  </si>
+  <si>
+    <t>Should be displayed, but not included in facet value. How to handle in index needs discussion.</t>
+  </si>
+  <si>
+    <t>Appears to be old practice for recording uniform title, instead of using separate 240. UNC doesn't have any records where uniform title info is in the 1xx AND a 240.</t>
+  </si>
+  <si>
+    <t>abcd(g)jqu</t>
+  </si>
+  <si>
+    <t>f(g)klnpt</t>
+  </si>
+  <si>
+    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
+  </si>
+  <si>
+    <t>abcd(g)(n)u</t>
+  </si>
+  <si>
+    <t>$g and/or $n included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
+  </si>
+  <si>
+    <t>f(g)kl(n)pt</t>
+  </si>
+  <si>
+    <t>$g included in uniform_title if it occurs AFTER a $t or $k</t>
+  </si>
+  <si>
+    <t>$g and/or $n included in uniform_title if it occurs AFTER a $t or $k</t>
+  </si>
+  <si>
+    <t>acde(g)(n)qu</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>creator_main_relator</t>
+  </si>
+  <si>
+    <t>creator_add_relator</t>
+  </si>
+  <si>
+    <t>contributor_relator</t>
+  </si>
+  <si>
+    <t>other_name_relator</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#e-and-4-and-in-x11-headings-j</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>$e = director OR $4 = drt</t>
+  </si>
+  <si>
+    <t>$e = editor OR $4 = edt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main author/creatorship is assumed when name is recorded in 1xx, and may not always be represented by explicit relator term/code. Director is a "contributor" role, not a "creator role". There is no good way to tell if "1xx Doe, John$edirector") really means "writer and director" or if the name *should* have been recorded in 7xx field because the person only was in a contributor role. We err on the side of treating it as if the name has two roles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main author/creatorship is assumed when name is recorded in 1xx, and may not always be represented by explicit relator term/code. Editor is a "contributor" role, not a "creator role". There is no good way to tell if "1xx Doe, John$eeditor") really means "author and editor," or if the name *should* have been recorded in 7xx field because the person only was in a contributor role. We err on the side of treating it as if the name has two roles. </t>
+  </si>
+  <si>
+    <t>Director of film/video</t>
+  </si>
+  <si>
+    <t>Used in UNC FilmFinder. Important access point for discovering film/video.</t>
+  </si>
+  <si>
+    <t>? brief record and above-the-fold full record, if no creator_main value; details in full record if there is a creator_main value ?</t>
+  </si>
+  <si>
+    <t>Editor of the described resource</t>
+  </si>
+  <si>
+    <t>Not supposed to be recorded as a main creator/author in a catalog record, however is used as filing/entry name in many citation styles. Recorded in a separate field, when possible, for use in improved citation builder features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No separate director_relator field because "director" is the known relator here. "Directors and Performers" facet in UNC FilmFinder is the Author facet (dim=10), relabeled. </t>
+  </si>
+  <si>
+    <t>No separate editor_relator field because editor is the known relator here</t>
+  </si>
+  <si>
+    <t>lower than creator/author</t>
+  </si>
+  <si>
+    <t>Consistent/controlled version of the work title</t>
+  </si>
+  <si>
+    <t>Retrieve/collocate works where title has been recorded differently on separate versions (different language title, wording/spelling changed, etc.)</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Main Uniform Title;;;Uniform Title;;;Journal Uniform Title</t>
+  </si>
+  <si>
+    <t>This should definitely be a separate searchable string in the title index, but unsure whether it needs to be displayed on its own -- it will be part of the work_citation field which is probably more suitable for display</t>
+  </si>
+  <si>
+    <t>derived from other field</t>
+  </si>
+  <si>
+    <t>creator_main -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>director -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>editor -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>(Author)</t>
+  </si>
+  <si>
+    <t>Creator and selected contributor names for narrowing down search results</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +1155,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -949,10 +1227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -965,11 +1244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1004,6 +1289,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1111,10 +1404,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:T29" totalsRowShown="0">
-  <autoFilter ref="A1:T29"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U56" totalsRowShown="0">
+  <autoFilter ref="A1:U56"/>
+  <tableColumns count="21">
     <tableColumn id="2" name="field"/>
+    <tableColumn id="22" name="category"/>
     <tableColumn id="1" name="provisional"/>
     <tableColumn id="3" name="local"/>
     <tableColumn id="18" name="parent"/>
@@ -1132,7 +1426,7 @@
     <tableColumn id="14" name="notes"/>
     <tableColumn id="15" name="implementation details"/>
     <tableColumn id="20" name="documentation"/>
-    <tableColumn id="16" name="issue ct" dataDxfId="12">
+    <tableColumn id="16" name="issue ct" dataDxfId="13">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="mapping ct">
@@ -1144,26 +1438,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:C13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="field" dataDxfId="9"/>
-    <tableColumn id="3" name="desc" dataDxfId="8"/>
-    <tableColumn id="4" name="doc" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="field" dataDxfId="10"/>
+    <tableColumn id="3" name="desc" dataDxfId="9"/>
+    <tableColumn id="4" name="doc" dataDxfId="8"/>
+    <tableColumn id="2" name="jira ref" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N77" totalsRowShown="0">
-  <autoFilter ref="A1:N77"/>
-  <sortState ref="A2:N70">
-    <sortCondition ref="A2:A70"/>
-    <sortCondition ref="C2:C70"/>
-    <sortCondition ref="D2:D70"/>
-    <sortCondition ref="B2:B70"/>
-    <sortCondition ref="E2:E70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N98" totalsRowShown="0">
+  <autoFilter ref="A1:N98"/>
+  <sortState ref="A2:N99">
+    <sortCondition ref="A2:A99"/>
+    <sortCondition ref="C2:C99"/>
+    <sortCondition ref="D2:D99"/>
+    <sortCondition ref="B2:B99"/>
+    <sortCondition ref="E2:E99"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="field"/>
@@ -1469,688 +1764,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="24" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
       <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>211</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>147</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>81</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
       <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
         <v>84</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>86</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>87</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>213</v>
       </c>
-      <c r="R2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2">
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
       <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>82</v>
       </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>213</v>
       </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3">
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>157</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
       <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
       <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
         <v>96</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>97</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>98</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>213</v>
       </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>157</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
       <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
         <v>101</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>102</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>103</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>213</v>
       </c>
-      <c r="R5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5">
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>157</v>
       </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
       <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
         <v>104</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>105</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
         <v>106</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>107</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>83</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>108</v>
       </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
       <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
         <v>109</v>
       </c>
-      <c r="R6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6">
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>157</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>111</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>112</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>113</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>114</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>191</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
         <v>212</v>
       </c>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7">
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>157</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
       <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
         <v>116</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>82</v>
       </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
         <v>117</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>118</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>86</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>119</v>
       </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
       <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>73</v>
       </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
       <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>82</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
         <v>121</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>122</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>86</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>157</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>203</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
       <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>125</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>126</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>202</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>201</v>
       </c>
-      <c r="P10" t="s">
-        <v>6</v>
-      </c>
       <c r="Q10" t="s">
         <v>6</v>
       </c>
       <c r="R10" t="s">
         <v>6</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>215</v>
-      </c>
       <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -2159,62 +2484,65 @@
         <v>41</v>
       </c>
       <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>159</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>194</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>160</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>161</v>
       </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
       <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
         <v>162</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>163</v>
       </c>
-      <c r="R11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>215</v>
-      </c>
       <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
         <v>172</v>
       </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>41</v>
@@ -2223,62 +2551,65 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
         <v>155</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>192</v>
       </c>
-      <c r="N12" t="s">
-        <v>41</v>
-      </c>
       <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
         <v>156</v>
       </c>
-      <c r="P12" t="s">
-        <v>41</v>
-      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="8">
+        <v>41</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>215</v>
-      </c>
       <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -2287,62 +2618,65 @@
         <v>41</v>
       </c>
       <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
         <v>159</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>193</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>198</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>199</v>
       </c>
-      <c r="N13" t="s">
-        <v>41</v>
-      </c>
       <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
         <v>200</v>
       </c>
-      <c r="P13" t="s">
-        <v>41</v>
-      </c>
       <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" t="s">
         <v>170</v>
       </c>
-      <c r="R13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="8">
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>215</v>
-      </c>
       <c r="E14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
         <v>41</v>
@@ -2351,126 +2685,132 @@
         <v>41</v>
       </c>
       <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
         <v>159</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>193</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>166</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>167</v>
       </c>
-      <c r="N14" t="s">
-        <v>41</v>
-      </c>
       <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
         <v>168</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>169</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>170</v>
       </c>
-      <c r="R14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="S14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>215</v>
-      </c>
       <c r="E15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" t="s">
         <v>172</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
       <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
         <v>159</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>193</v>
       </c>
-      <c r="L15" t="s">
-        <v>255</v>
-      </c>
       <c r="M15" t="s">
+        <v>256</v>
+      </c>
+      <c r="N15" t="s">
         <v>173</v>
       </c>
-      <c r="N15" t="s">
-        <v>41</v>
-      </c>
       <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s">
         <v>174</v>
       </c>
-      <c r="P15" t="s">
-        <v>6</v>
-      </c>
       <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
         <v>209</v>
       </c>
-      <c r="R15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="8">
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>41</v>
@@ -2479,120 +2819,126 @@
         <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
         <v>178</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>175</v>
       </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
       <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
         <v>176</v>
       </c>
-      <c r="P16" t="s">
-        <v>6</v>
-      </c>
       <c r="Q16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
         <v>179</v>
       </c>
-      <c r="R16" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="8">
+      <c r="S16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>215</v>
-      </c>
       <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
       <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
         <v>196</v>
       </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
       <c r="I17" t="s">
         <v>41</v>
       </c>
       <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
         <v>159</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>193</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>197</v>
       </c>
-      <c r="M17" t="s">
-        <v>242</v>
-      </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
         <v>207</v>
       </c>
-      <c r="R17" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="8">
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>215</v>
-      </c>
       <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -2607,56 +2953,59 @@
         <v>41</v>
       </c>
       <c r="L18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" t="s">
         <v>204</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>206</v>
       </c>
-      <c r="N18" t="s">
-        <v>41</v>
-      </c>
       <c r="O18" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="Q18" t="s">
         <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18" s="8">
+        <v>41</v>
+      </c>
+      <c r="S18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>215</v>
-      </c>
       <c r="E19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -2665,62 +3014,65 @@
         <v>41</v>
       </c>
       <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>193</v>
-      </c>
-      <c r="L19" t="s">
-        <v>217</v>
       </c>
       <c r="M19" t="s">
         <v>218</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="O19" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="Q19" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="R19" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="8">
+        <v>221</v>
+      </c>
+      <c r="S19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
@@ -2729,62 +3081,65 @@
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
         <v>86</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N20" t="s">
         <v>86</v>
       </c>
-      <c r="N20" t="s">
-        <v>41</v>
-      </c>
       <c r="O20" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Q20" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="F21" t="s">
         <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
         <v>41</v>
@@ -2799,13 +3154,13 @@
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
@@ -2814,233 +3169,245 @@
         <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R21" t="s">
         <v>6</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>225</v>
-      </c>
       <c r="E22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" t="s">
         <v>172</v>
       </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s">
         <v>241</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
+        <v>244</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s">
         <v>193</v>
       </c>
-      <c r="L22" t="s">
-        <v>240</v>
-      </c>
-      <c r="M22" t="s">
-        <v>243</v>
-      </c>
-      <c r="N22" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" t="s">
-        <v>244</v>
-      </c>
-      <c r="P22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="M23" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" t="s">
+        <v>170</v>
+      </c>
+      <c r="S23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="U23">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" t="s">
         <v>172</v>
       </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
         <v>193</v>
-      </c>
-      <c r="L23" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" t="s">
-        <v>246</v>
-      </c>
-      <c r="P23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>170</v>
-      </c>
-      <c r="R23" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" t="s">
-        <v>193</v>
-      </c>
-      <c r="L24" t="s">
-        <v>247</v>
       </c>
       <c r="M24" t="s">
         <v>248</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" t="s">
         <v>170</v>
       </c>
-      <c r="R24" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="8">
+      <c r="S24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>225</v>
-      </c>
       <c r="E25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -3055,13 +3422,13 @@
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
         <v>251</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
         <v>41</v>
@@ -3070,193 +3437,202 @@
         <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>225</v>
-      </c>
       <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
         <v>172</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
       <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
         <v>196</v>
       </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
         <v>193</v>
       </c>
-      <c r="L26" t="s">
-        <v>252</v>
-      </c>
       <c r="M26" t="s">
+        <v>253</v>
+      </c>
+      <c r="N26" t="s">
         <v>205</v>
       </c>
-      <c r="N26" t="s">
-        <v>41</v>
-      </c>
       <c r="O26" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="Q26" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R26" t="s">
         <v>6</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
         <v>226</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" t="s">
-        <v>256</v>
       </c>
       <c r="M27" t="s">
         <v>257</v>
       </c>
       <c r="N27" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="Q27" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
         <v>172</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
-        <v>232</v>
-      </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="M28" t="s">
         <v>235</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
         <v>237</v>
@@ -3265,70 +3641,1045 @@
         <v>238</v>
       </c>
       <c r="R28" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="8">
+        <v>239</v>
+      </c>
+      <c r="S28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>73</v>
       </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
         <v>82</v>
       </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
         <v>276</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>274</v>
-      </c>
-      <c r="S29" s="8">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s">
+        <v>275</v>
+      </c>
+      <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>2</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>325</v>
+      </c>
+      <c r="N30" t="s">
+        <v>326</v>
+      </c>
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>316</v>
+      </c>
+      <c r="T31" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>324</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>367</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" t="s">
+        <v>350</v>
+      </c>
+      <c r="N32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O32" t="s">
+        <v>357</v>
+      </c>
+      <c r="P32" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>355</v>
+      </c>
+      <c r="R32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>367</v>
+      </c>
+      <c r="K33" t="s">
+        <v>352</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" t="s">
+        <v>353</v>
+      </c>
+      <c r="N33" t="s">
+        <v>354</v>
+      </c>
+      <c r="O33" t="s">
+        <v>357</v>
+      </c>
+      <c r="P33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>356</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s">
+        <v>316</v>
+      </c>
+      <c r="T34" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s">
+        <v>316</v>
+      </c>
+      <c r="T35" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" t="s">
+        <v>318</v>
+      </c>
+      <c r="T36" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s">
+        <v>316</v>
+      </c>
+      <c r="T37" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>368</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" t="s">
+        <v>213</v>
+      </c>
+      <c r="S38" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" t="s">
+        <v>327</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" t="s">
+        <v>316</v>
+      </c>
+      <c r="T43" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" t="s">
+        <v>316</v>
+      </c>
+      <c r="T44" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" t="s">
+        <v>315</v>
+      </c>
+      <c r="T45" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" t="s">
+        <v>323</v>
+      </c>
+      <c r="T46" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" t="s">
+        <v>314</v>
+      </c>
+      <c r="T47" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" t="s">
+        <v>314</v>
+      </c>
+      <c r="T48" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" t="s">
+        <v>314</v>
+      </c>
+      <c r="T49" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" t="s">
+        <v>314</v>
+      </c>
+      <c r="T50" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" t="s">
+        <v>321</v>
+      </c>
+      <c r="T51" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" t="s">
+        <v>305</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>358</v>
+      </c>
+      <c r="N56" t="s">
+        <v>359</v>
+      </c>
+      <c r="O56" t="s">
+        <v>360</v>
+      </c>
+      <c r="P56" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>362</v>
+      </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S56" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +4704,7 @@
     <col min="2" max="2" width="127.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -3363,8 +4714,11 @@
       <c r="C1" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -3374,8 +4728,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3385,8 +4742,11 @@
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3396,8 +4756,11 @@
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -3407,8 +4770,11 @@
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -3418,8 +4784,11 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3429,8 +4798,11 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3440,71 +4812,101 @@
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>279</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3548,26 +4950,43 @@
         <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
       <c r="K2" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>bib_locations_hierarchicalUNC</v>
+        <v>author_facetGEN100abcd(g)jqu.</v>
       </c>
       <c r="L2" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3575,7 +4994,7 @@
       </c>
       <c r="M2" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -3584,38 +5003,38 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>365</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K3" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>circulation_countUNC999oi1=9 AND i2=1</v>
+        <v>author_facetGEN100abcd(g)jqu$e = director OR $4 = drt</v>
       </c>
       <c r="L3" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3623,7 +5042,7 @@
       </c>
       <c r="M3" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -3632,38 +5051,38 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1">
-        <v>946</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K4" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedDUKE946b.</v>
+        <v>author_facetGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
       </c>
       <c r="L4" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3680,38 +5099,38 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1">
-        <v>909</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCSU909a.</v>
+        <v>author_facetGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L5" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3728,44 +5147,44 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="str">
+        <v>41</v>
+      </c>
+      <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
-      </c>
-      <c r="L6">
+        <v>author_facetGEN111acde(g)(n)qu.</v>
+      </c>
+      <c r="L6" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -3776,39 +5195,42 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="E7" s="1">
+        <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCCU...</v>
+        <v>author_facetGEN700abcd(g)jqu$e = director OR $4 = drt</v>
       </c>
       <c r="L7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -3821,38 +5243,38 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1">
-        <v>999</v>
+        <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>author_facetGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
       </c>
       <c r="L8" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3869,38 +5291,38 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>999</v>
-      </c>
-      <c r="F9" t="s">
-        <v>164</v>
+        <v>710</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>author_facetGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3917,38 +5339,38 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="1">
         <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>circulation_countUNC999oi1=9 AND i2=1</v>
       </c>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -3956,7 +5378,7 @@
       </c>
       <c r="M10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -3965,38 +5387,38 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>creator_mainGEN100abcd(g)jqu.</v>
       </c>
       <c r="L11" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4013,38 +5435,38 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1">
-        <v>999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>164</v>
+        <v>110</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>creator_mainGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L12" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4061,38 +5483,38 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>54</v>
+      <c r="D13" t="s">
+        <v>139</v>
       </c>
       <c r="E13" s="1">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K13" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>creator_mainGEN111acde(g)(n)qu.</v>
       </c>
       <c r="L13" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4109,38 +5531,38 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>54</v>
+      <c r="D14" t="s">
+        <v>139</v>
       </c>
       <c r="E14" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>344</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>creator_main_relatorGEN100e4.</v>
       </c>
       <c r="L14" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4157,38 +5579,38 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
+      <c r="D15" t="s">
+        <v>139</v>
       </c>
       <c r="E15" s="1">
-        <v>999</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K15" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>creator_main_relatorGEN110e4.</v>
       </c>
       <c r="L15" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4205,38 +5627,38 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>54</v>
+      <c r="D16" t="s">
+        <v>139</v>
       </c>
       <c r="E16" s="1">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K16" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>creator_main_relatorGEN111j4.</v>
       </c>
       <c r="L16" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4253,7 +5675,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4261,30 +5683,30 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>54</v>
+      <c r="D17" t="s">
+        <v>183</v>
       </c>
       <c r="E17" s="1">
-        <v>999</v>
+        <v>946</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>date_catalogedDUKE946b.</v>
       </c>
       <c r="L17" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4301,7 +5723,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -4310,29 +5732,29 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1">
-        <v>999</v>
+        <v>909</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>date_catalogedNCSU909a.</v>
       </c>
       <c r="L18" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4349,38 +5771,38 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
       </c>
       <c r="L19">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -4388,7 +5810,7 @@
       </c>
       <c r="M19">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4397,46 +5819,43 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="1">
-        <v>610</v>
+        <v>186</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" t="str">
+        <v>56</v>
+      </c>
+      <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L20">
+        <v>date_catalogedNCCU...</v>
+      </c>
+      <c r="L20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4445,7 +5864,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -4457,34 +5876,34 @@
         <v>139</v>
       </c>
       <c r="E21" s="1">
-        <v>611</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" t="str">
+        <v>348</v>
+      </c>
+      <c r="K21" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L21">
+        <v>directorGEN100abcd(g)jqu$e = director OR $4 = drt</v>
+      </c>
+      <c r="L21" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4493,7 +5912,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -4505,34 +5924,34 @@
         <v>139</v>
       </c>
       <c r="E22" s="1">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="str">
+        <v>41</v>
+      </c>
+      <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L22">
+        <v>directorGEN700abcd(g)jqu$e = director OR $4 = drt</v>
+      </c>
+      <c r="L22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4541,7 +5960,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -4553,34 +5972,34 @@
         <v>139</v>
       </c>
       <c r="E23" s="1">
-        <v>650</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
+        <v>710</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" t="str">
+        <v>41</v>
+      </c>
+      <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L23">
+        <v>directorGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
+      </c>
+      <c r="L23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4589,7 +6008,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -4601,34 +6020,34 @@
         <v>139</v>
       </c>
       <c r="E24" s="1">
-        <v>651</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>347</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" t="str">
+        <v>349</v>
+      </c>
+      <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L24">
+        <v>editorGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
+      </c>
+      <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4637,7 +6056,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -4649,34 +6068,34 @@
         <v>139</v>
       </c>
       <c r="E25" s="1">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" t="str">
+        <v>41</v>
+      </c>
+      <c r="K25" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L25">
+        <v>editorGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
+      </c>
+      <c r="L25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4685,46 +6104,46 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1">
-        <v>648</v>
+        <v>999</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" t="str">
+        <v>6</v>
+      </c>
+      <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
-      </c>
-      <c r="L26">
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+      </c>
+      <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4733,46 +6152,46 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>16</v>
+        <v>999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" t="str">
+        <v>165</v>
+      </c>
+      <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
-      </c>
-      <c r="L27">
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+      </c>
+      <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4781,46 +6200,46 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>139</v>
+      <c r="D28" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>17</v>
+        <v>999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="str">
+        <v>6</v>
+      </c>
+      <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
-      </c>
-      <c r="L28">
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+      </c>
+      <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4829,46 +6248,46 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>139</v>
+      <c r="D29" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="1">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>33</v>
+        <v>999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
         <v>6</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
-      </c>
-      <c r="L29">
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4877,46 +6296,46 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>139</v>
+      <c r="D30" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E30" s="1">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>34</v>
+        <v>999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" t="str">
+        <v>6</v>
+      </c>
+      <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
-      </c>
-      <c r="L30">
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+      </c>
+      <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4925,25 +6344,25 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
-        <v>139</v>
+      <c r="D31" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -4954,17 +6373,17 @@
       <c r="J31" t="s">
         <v>6</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L31">
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -4973,25 +6392,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>139</v>
+      <c r="D32" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="1">
-        <v>610</v>
+        <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -5002,17 +6421,17 @@
       <c r="J32" t="s">
         <v>6</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L32">
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
+      </c>
+      <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5021,25 +6440,25 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1">
-        <v>611</v>
+        <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -5050,17 +6469,17 @@
       <c r="J33" t="s">
         <v>6</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L33">
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+      </c>
+      <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5069,28 +6488,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1">
-        <v>630</v>
+        <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I34" t="s">
         <v>6</v>
@@ -5098,17 +6517,17 @@
       <c r="J34" t="s">
         <v>6</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L34">
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+      </c>
+      <c r="L34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5117,46 +6536,46 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1">
-        <v>650</v>
+        <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L35">
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+      </c>
+      <c r="L35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5165,46 +6584,46 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1">
-        <v>651</v>
+        <v>999</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" t="str">
+        <v>271</v>
+      </c>
+      <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L36">
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5213,7 +6632,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -5225,10 +6644,10 @@
         <v>139</v>
       </c>
       <c r="E37" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
@@ -5244,7 +6663,7 @@
       </c>
       <c r="K37" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L37">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5252,7 +6671,7 @@
       </c>
       <c r="M37">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5261,22 +6680,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>139</v>
       </c>
       <c r="E38" s="1">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
@@ -5288,11 +6707,11 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K38" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L38">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5300,7 +6719,7 @@
       </c>
       <c r="M38">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5309,22 +6728,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>139</v>
       </c>
       <c r="E39" s="1">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
@@ -5336,11 +6755,11 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K39" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L39">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5348,7 +6767,7 @@
       </c>
       <c r="M39">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5357,38 +6776,38 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="1">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K40" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L40">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5396,7 +6815,7 @@
       </c>
       <c r="M40">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5405,38 +6824,38 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K41" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L41">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5444,7 +6863,7 @@
       </c>
       <c r="M41">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5453,38 +6872,38 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>139</v>
       </c>
       <c r="E42" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5492,7 +6911,7 @@
       </c>
       <c r="M42">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5501,13 +6920,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>139</v>
@@ -5516,23 +6935,23 @@
         <v>655</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5540,7 +6959,7 @@
       </c>
       <c r="M43">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5549,7 +6968,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -5561,26 +6980,26 @@
         <v>139</v>
       </c>
       <c r="E44" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5588,7 +7007,7 @@
       </c>
       <c r="M44">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5603,32 +7022,32 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>139</v>
       </c>
       <c r="E45" s="1">
-        <v>655</v>
-      </c>
-      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5651,32 +7070,32 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
         <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>655</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5699,32 +7118,32 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>139</v>
       </c>
       <c r="E47" s="1">
-        <v>655</v>
-      </c>
-      <c r="F47" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5747,32 +7166,32 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>655</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5795,19 +7214,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -5816,11 +7235,11 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5843,19 +7262,19 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
       <c r="E50" s="1">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -5864,11 +7283,11 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5885,7 +7304,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5897,10 +7316,10 @@
         <v>139</v>
       </c>
       <c r="E51" s="1">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
         <v>4</v>
@@ -5916,7 +7335,7 @@
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5924,7 +7343,7 @@
       </c>
       <c r="M51">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5933,7 +7352,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5945,10 +7364,10 @@
         <v>139</v>
       </c>
       <c r="E52" s="1">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
@@ -5964,7 +7383,7 @@
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5972,7 +7391,7 @@
       </c>
       <c r="M52">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5981,7 +7400,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5993,10 +7412,10 @@
         <v>139</v>
       </c>
       <c r="E53" s="1">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>4</v>
@@ -6012,7 +7431,7 @@
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6020,7 +7439,7 @@
       </c>
       <c r="M53">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6029,7 +7448,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -6041,10 +7460,10 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
@@ -6060,7 +7479,7 @@
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6068,7 +7487,7 @@
       </c>
       <c r="M54">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6077,7 +7496,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -6089,10 +7508,10 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
         <v>4</v>
@@ -6108,7 +7527,7 @@
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6116,7 +7535,7 @@
       </c>
       <c r="M55">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6125,22 +7544,22 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
         <v>4</v>
@@ -6152,11 +7571,11 @@
         <v>6</v>
       </c>
       <c r="J56" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6164,7 +7583,7 @@
       </c>
       <c r="M56">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6173,22 +7592,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
         <v>4</v>
@@ -6200,11 +7619,11 @@
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6212,7 +7631,7 @@
       </c>
       <c r="M57">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6221,7 +7640,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -6233,26 +7652,26 @@
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6260,7 +7679,7 @@
       </c>
       <c r="M58">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6269,38 +7688,38 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
       </c>
       <c r="E59" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6308,7 +7727,7 @@
       </c>
       <c r="M59">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6317,38 +7736,38 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6356,7 +7775,7 @@
       </c>
       <c r="M60">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6365,38 +7784,38 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>139</v>
       </c>
       <c r="E61" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6404,7 +7823,7 @@
       </c>
       <c r="M61">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6413,38 +7832,38 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6452,7 +7871,7 @@
       </c>
       <c r="M62">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6461,38 +7880,38 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>139</v>
       </c>
       <c r="E63" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6500,7 +7919,7 @@
       </c>
       <c r="M63">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6509,25 +7928,25 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
         <v>139</v>
       </c>
       <c r="E64" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
         <v>5</v>
@@ -6536,11 +7955,11 @@
         <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6548,7 +7967,7 @@
       </c>
       <c r="M64">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6557,38 +7976,38 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>139</v>
       </c>
       <c r="E65" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6596,7 +8015,7 @@
       </c>
       <c r="M65">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6605,25 +8024,25 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>139</v>
       </c>
       <c r="E66" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -6632,11 +8051,11 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6644,7 +8063,7 @@
       </c>
       <c r="M66">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6653,38 +8072,38 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>139</v>
       </c>
       <c r="E67" s="1">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I67" t="s">
         <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6692,7 +8111,7 @@
       </c>
       <c r="M67">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6701,25 +8120,25 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>139</v>
       </c>
       <c r="E68" s="1">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -6728,11 +8147,11 @@
         <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6740,7 +8159,7 @@
       </c>
       <c r="M68">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6749,7 +8168,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -6761,10 +8180,10 @@
         <v>139</v>
       </c>
       <c r="E69" s="1">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>4</v>
@@ -6780,7 +8199,7 @@
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6797,38 +8216,38 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
         <v>139</v>
       </c>
       <c r="E70" s="1">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6845,22 +8264,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
       </c>
       <c r="E71" s="1">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>4</v>
@@ -6872,11 +8291,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6893,22 +8312,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>139</v>
       </c>
       <c r="E72" s="1">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>4</v>
@@ -6920,11 +8339,11 @@
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K72" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6941,22 +8360,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>139</v>
       </c>
       <c r="E73" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>4</v>
@@ -6970,13 +8389,13 @@
       <c r="J73" t="s">
         <v>6</v>
       </c>
-      <c r="K73" s="8" t="str">
+      <c r="K73" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -6989,25 +8408,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>139</v>
       </c>
       <c r="E74" s="1">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -7016,11 +8435,11 @@
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7037,25 +8456,25 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
         <v>139</v>
       </c>
       <c r="E75" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -7064,11 +8483,11 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7085,7 +8504,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -7097,13 +8516,13 @@
         <v>139</v>
       </c>
       <c r="E76" s="1">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -7112,11 +8531,11 @@
         <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L76">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7139,32 +8558,32 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
         <v>139</v>
       </c>
       <c r="E77" s="1">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K77" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L77">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7179,9 +8598,1017 @@
         <v>y</v>
       </c>
     </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="1">
+        <v>600</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L78">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N78" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="1">
+        <v>610</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L79">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N79" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="1">
+        <v>610</v>
+      </c>
+      <c r="F80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L80">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N80" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1">
+        <v>611</v>
+      </c>
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L81">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N81" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="1">
+        <v>611</v>
+      </c>
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L82">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N82" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="1">
+        <v>630</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L83">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N83" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="1">
+        <v>630</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L84">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N84" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="1">
+        <v>650</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L85">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N85" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="1">
+        <v>650</v>
+      </c>
+      <c r="F86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L86">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N86" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="1">
+        <v>651</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L87">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N87" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="1">
+        <v>647</v>
+      </c>
+      <c r="F88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L88">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N88" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="1">
+        <v>647</v>
+      </c>
+      <c r="F89" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L89">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N89" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="1">
+        <v>648</v>
+      </c>
+      <c r="F90" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L90">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N90" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="1">
+        <v>655</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L91">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N91" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="1">
+        <v>656</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L92">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N92" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="1">
+        <v>656</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L93">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="1">
+        <v>657</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>51</v>
+      </c>
+      <c r="K94" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L94">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N94" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" s="1">
+        <v>657</v>
+      </c>
+      <c r="F95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L95">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N95" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>322</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="1">
+        <v>100</v>
+      </c>
+      <c r="F96" t="s">
+        <v>331</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>336</v>
+      </c>
+      <c r="J96" t="s">
+        <v>329</v>
+      </c>
+      <c r="K96" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
+      </c>
+      <c r="L96" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="1">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>335</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s">
+        <v>337</v>
+      </c>
+      <c r="J97" t="s">
+        <v>329</v>
+      </c>
+      <c r="K97" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+      </c>
+      <c r="L97" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="1">
+        <v>111</v>
+      </c>
+      <c r="F98" t="s">
+        <v>335</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>337</v>
+      </c>
+      <c r="J98" t="s">
+        <v>329</v>
+      </c>
+      <c r="K98" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
+      </c>
+      <c r="L98" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K67">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="K3:K66">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7196,7 +9623,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,7 +9748,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="375">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -848,9 +848,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>See maps/location_shelf_to_location_library.json["UNC"]</t>
-  </si>
-  <si>
     <t>bib_locations_hierarchical</t>
   </si>
   <si>
@@ -1134,6 +1131,27 @@
   </si>
   <si>
     <t>Creator and selected contributor names for narrowing down search results</t>
+  </si>
+  <si>
+    <t>i1=9 and i2=2</t>
+  </si>
+  <si>
+    <t>See https://github.com/trln/data-documentation/blob/master/argot/questions_issues/location.md#one-idea-for-data-mappingtransformation</t>
+  </si>
+  <si>
+    <t>derived from  holdings_location_shelf -- See https://github.com/trln/data-documentation/blob/master/argot/questions_issues/location.md#one-idea-for-data-mappingtransformation</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</t>
+  </si>
+  <si>
+    <t>hijkm</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</t>
+  </si>
+  <si>
+    <t>lz</t>
   </si>
 </sst>
 </file>
@@ -1266,16 +1284,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1289,6 +1297,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1451,8 +1469,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N98" totalsRowShown="0">
-  <autoFilter ref="A1:N98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N104" totalsRowShown="0">
+  <autoFilter ref="A1:N104"/>
   <sortState ref="A2:N99">
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="C2:C99"/>
@@ -1465,22 +1483,22 @@
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="6"/>
+    <tableColumn id="4" name="element/field" dataDxfId="5"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="5">
+    <tableColumn id="10" name="mapping_id" dataDxfId="4">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="3">
+    <tableColumn id="13" name="field issue ct" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="2">
+    <tableColumn id="14" name="field defined?" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1766,9 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1927,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1994,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2061,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2262,7 +2280,7 @@
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -2329,7 +2347,7 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -2396,7 +2414,7 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2460,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2527,7 +2545,7 @@
         <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2594,7 +2612,7 @@
         <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2661,7 +2679,7 @@
         <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2728,7 +2746,7 @@
         <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2862,7 +2880,7 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2923,7 +2941,7 @@
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2990,7 +3008,7 @@
         <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -3057,7 +3075,7 @@
         <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -3124,7 +3142,7 @@
         <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -3191,7 +3209,7 @@
         <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -3206,7 +3224,7 @@
         <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>41</v>
@@ -3250,7 +3268,7 @@
       </c>
       <c r="U22">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3258,7 +3276,7 @@
         <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -3273,7 +3291,7 @@
         <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -3317,7 +3335,7 @@
       </c>
       <c r="U23">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3325,7 +3343,7 @@
         <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -3340,7 +3358,7 @@
         <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -3384,7 +3402,7 @@
       </c>
       <c r="U24">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3392,7 +3410,7 @@
         <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -3451,7 +3469,7 @@
       </c>
       <c r="U25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3459,7 +3477,7 @@
         <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3474,7 +3492,7 @@
         <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>196</v>
@@ -3518,7 +3536,7 @@
       </c>
       <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3526,7 +3544,7 @@
         <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3585,7 +3603,7 @@
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3657,7 +3675,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -3684,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
         <v>82</v>
@@ -3693,16 +3711,16 @@
         <v>41</v>
       </c>
       <c r="M29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N29" t="s">
         <v>276</v>
       </c>
-      <c r="N29" t="s">
-        <v>277</v>
-      </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3715,10 +3733,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3736,31 +3754,31 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
+        <v>323</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>366</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
         <v>324</v>
       </c>
-      <c r="I30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" t="s">
-        <v>367</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>325</v>
       </c>
-      <c r="N30" t="s">
-        <v>326</v>
-      </c>
       <c r="O30" t="s">
         <v>6</v>
       </c>
       <c r="P30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
@@ -3776,10 +3794,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3791,7 +3809,7 @@
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3804,10 +3822,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3825,13 +3843,13 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I32" t="s">
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K32" t="s">
         <v>6</v>
@@ -3840,19 +3858,19 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
+        <v>349</v>
+      </c>
+      <c r="N32" t="s">
         <v>350</v>
       </c>
-      <c r="N32" t="s">
-        <v>351</v>
-      </c>
       <c r="O32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R32" t="s">
         <v>6</v>
@@ -3868,10 +3886,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3889,34 +3907,34 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I33" t="s">
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K33" t="s">
+        <v>351</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" t="s">
         <v>352</v>
       </c>
-      <c r="L33" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>353</v>
       </c>
-      <c r="N33" t="s">
-        <v>354</v>
-      </c>
       <c r="O33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R33" t="s">
         <v>6</v>
@@ -3932,10 +3950,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3947,7 +3965,7 @@
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3960,10 +3978,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3975,7 +3993,7 @@
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3988,10 +4006,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -4003,7 +4021,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4016,10 +4034,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -4031,7 +4049,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4044,10 +4062,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -4071,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
         <v>82</v>
@@ -4080,7 +4098,7 @@
         <v>6</v>
       </c>
       <c r="M38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N38" t="s">
         <v>6</v>
@@ -4089,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q38" t="s">
         <v>41</v>
@@ -4111,10 +4129,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -4147,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="M39" t="s">
+        <v>326</v>
+      </c>
+      <c r="N39" t="s">
         <v>327</v>
-      </c>
-      <c r="N39" t="s">
-        <v>328</v>
       </c>
       <c r="O39" t="s">
         <v>41</v>
@@ -4169,10 +4187,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -4197,10 +4215,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -4225,10 +4243,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -4253,10 +4271,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4268,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="P43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T43" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4281,10 +4299,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4296,7 +4314,7 @@
         <v>41</v>
       </c>
       <c r="P44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T44" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4309,10 +4327,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4324,7 +4342,7 @@
         <v>41</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T45" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4337,10 +4355,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -4352,7 +4370,7 @@
         <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T46" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4365,10 +4383,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -4380,7 +4398,7 @@
         <v>41</v>
       </c>
       <c r="P47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T47" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4393,10 +4411,10 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -4408,7 +4426,7 @@
         <v>41</v>
       </c>
       <c r="P48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T48" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4421,10 +4439,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -4436,7 +4454,7 @@
         <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T49" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4449,11 +4467,11 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" t="s">
         <v>304</v>
       </c>
-      <c r="B50" t="s">
-        <v>305</v>
-      </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4482,7 @@
         <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4477,10 +4495,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4492,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4505,10 +4523,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -4533,10 +4551,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -4561,10 +4579,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -4589,10 +4607,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -4617,10 +4635,10 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -4638,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I56" t="s">
         <v>41</v>
@@ -4653,19 +4671,19 @@
         <v>6</v>
       </c>
       <c r="M56" t="s">
+        <v>357</v>
+      </c>
+      <c r="N56" t="s">
         <v>358</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>359</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>360</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>361</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>362</v>
       </c>
       <c r="R56" t="s">
         <v>6</v>
@@ -4715,7 +4733,7 @@
         <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,7 +4747,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,7 +4845,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,30 +4878,30 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4897,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,7 +4973,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4970,16 +4988,16 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" t="s">
         <v>363</v>
-      </c>
-      <c r="I2" t="s">
-        <v>364</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -5003,7 +5021,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5018,16 +5036,16 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -5051,7 +5069,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -5066,16 +5084,16 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -5099,7 +5117,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5114,16 +5132,16 @@
         <v>110</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" t="s">
         <v>363</v>
-      </c>
-      <c r="I5" t="s">
-        <v>364</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
@@ -5147,7 +5165,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5162,16 +5180,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" t="s">
         <v>363</v>
-      </c>
-      <c r="I6" t="s">
-        <v>364</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
@@ -5195,7 +5213,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5210,16 +5228,16 @@
         <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
@@ -5243,7 +5261,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5258,16 +5276,16 @@
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
@@ -5291,7 +5309,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -5306,16 +5324,16 @@
         <v>710</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -5387,7 +5405,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5402,7 +5420,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -5411,7 +5429,7 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -5435,7 +5453,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5450,7 +5468,7 @@
         <v>110</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -5459,7 +5477,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -5483,7 +5501,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5498,7 +5516,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -5507,7 +5525,7 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
@@ -5531,7 +5549,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5546,7 +5564,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -5555,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
@@ -5579,7 +5597,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -5594,7 +5612,7 @@
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5603,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -5627,7 +5645,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -5642,7 +5660,7 @@
         <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -5651,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
@@ -5864,7 +5882,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5879,19 +5897,19 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K21" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5912,7 +5930,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5927,16 +5945,16 @@
         <v>700</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
@@ -5960,7 +5978,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5975,16 +5993,16 @@
         <v>710</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
@@ -6008,7 +6026,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -6023,19 +6041,19 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -6056,7 +6074,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -6071,16 +6089,16 @@
         <v>700</v>
       </c>
       <c r="F25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
@@ -6224,7 +6242,7 @@
         <v>266</v>
       </c>
       <c r="I28" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="J28" t="s">
         <v>6</v>
@@ -6272,7 +6290,7 @@
         <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
       <c r="J29" t="s">
         <v>6</v>
@@ -6320,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J30" t="s">
         <v>6</v>
@@ -6368,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J31" t="s">
         <v>6</v>
@@ -9464,7 +9482,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -9479,7 +9497,7 @@
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -9488,10 +9506,10 @@
         <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K96" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9512,7 +9530,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -9527,7 +9545,7 @@
         <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -9536,10 +9554,10 @@
         <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K97" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9560,7 +9578,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -9575,7 +9593,7 @@
         <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
@@ -9584,10 +9602,10 @@
         <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K98" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9602,13 +9620,298 @@
         <v>0</v>
       </c>
       <c r="N98" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="1">
+        <v>999</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>371</v>
+      </c>
+      <c r="H99" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
+      </c>
+      <c r="L99" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="1">
+        <v>999</v>
+      </c>
+      <c r="F100" t="s">
+        <v>184</v>
+      </c>
+      <c r="G100" t="s">
+        <v>368</v>
+      </c>
+      <c r="H100" t="s">
+        <v>362</v>
+      </c>
+      <c r="I100" t="s">
+        <v>370</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
+      </c>
+      <c r="L100" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="1">
+        <v>999</v>
+      </c>
+      <c r="F101" t="s">
+        <v>184</v>
+      </c>
+      <c r="G101" t="s">
+        <v>368</v>
+      </c>
+      <c r="H101" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>369</v>
+      </c>
+      <c r="K101" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
+      </c>
+      <c r="L101" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="1">
+        <v>999</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>368</v>
+      </c>
+      <c r="H102" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_record_idUNC999ai1=9 and i2=2</v>
+      </c>
+      <c r="L102" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="1">
+        <v>999</v>
+      </c>
+      <c r="F103" t="s">
+        <v>372</v>
+      </c>
+      <c r="G103" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+      </c>
+      <c r="L103" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" s="1">
+        <v>999</v>
+      </c>
+      <c r="F104" t="s">
+        <v>374</v>
+      </c>
+      <c r="G104" t="s">
+        <v>373</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+      </c>
+      <c r="L104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K66">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -9748,7 +10051,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="376">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1152,6 +1152,9 @@
   </si>
   <si>
     <t>lz</t>
+  </si>
+  <si>
+    <t>(i1=9 AND i2=2) AND $c &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -1471,12 +1474,12 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N104" totalsRowShown="0">
   <autoFilter ref="A1:N104"/>
-  <sortState ref="A2:N99">
-    <sortCondition ref="A2:A99"/>
-    <sortCondition ref="C2:C99"/>
-    <sortCondition ref="D2:D99"/>
-    <sortCondition ref="B2:B99"/>
-    <sortCondition ref="E2:E99"/>
+  <sortState ref="A2:N104">
+    <sortCondition ref="A2:A104"/>
+    <sortCondition ref="C2:C104"/>
+    <sortCondition ref="D2:D104"/>
+    <sortCondition ref="B2:B104"/>
+    <sortCondition ref="E2:E104"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="field"/>
@@ -4917,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6122,7 +6125,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -6137,23 +6140,23 @@
         <v>999</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6170,7 +6173,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -6185,23 +6188,23 @@
         <v>999</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="H27" t="s">
-        <v>5</v>
+        <v>362</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6226,30 +6229,27 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="1">
         <v>999</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
         <v>369</v>
       </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
       <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6274,30 +6274,30 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>999</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6322,30 +6322,30 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="1">
         <v>999</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>375</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
       </c>
       <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6370,30 +6370,30 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6418,30 +6418,30 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="1">
         <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
         <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6473,7 +6473,7 @@
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
         <v>158</v>
@@ -6485,11 +6485,11 @@
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
       </c>
       <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -6514,30 +6514,30 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="1">
         <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6562,30 +6562,30 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="1">
         <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H35" t="s">
         <v>266</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
       <c r="K35" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -6610,30 +6610,30 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1">
         <v>999</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6650,46 +6650,46 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>139</v>
+      <c r="D37" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F37" t="s">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J37" t="s">
         <v>6</v>
       </c>
-      <c r="K37" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L37">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K37" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L37" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N37" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6698,25 +6698,25 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>139</v>
+      <c r="D38" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E38" s="1">
-        <v>610</v>
+        <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -6727,17 +6727,17 @@
       <c r="J38" t="s">
         <v>6</v>
       </c>
-      <c r="K38" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L38">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K38" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
+      </c>
+      <c r="L38" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N38" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6746,25 +6746,25 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1">
-        <v>611</v>
+        <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
@@ -6775,17 +6775,17 @@
       <c r="J39" t="s">
         <v>6</v>
       </c>
-      <c r="K39" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L39">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K39" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+      </c>
+      <c r="L39" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N39" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6794,28 +6794,28 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1">
-        <v>630</v>
+        <v>999</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
@@ -6823,17 +6823,17 @@
       <c r="J40" t="s">
         <v>6</v>
       </c>
-      <c r="K40" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L40">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K40" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+      </c>
+      <c r="L40" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N40" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6842,46 +6842,46 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1">
-        <v>650</v>
+        <v>999</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="J41" t="s">
         <v>6</v>
       </c>
-      <c r="K41" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L41">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+      <c r="K41" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+      </c>
+      <c r="L41" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N41" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6890,46 +6890,46 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1">
-        <v>651</v>
+        <v>999</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L42">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="K42" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L42" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N42" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6950,7 +6950,7 @@
         <v>139</v>
       </c>
       <c r="E43" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6992,19 +6992,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>139</v>
       </c>
       <c r="E44" s="1">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -7013,11 +7013,11 @@
         <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -7046,26 +7046,26 @@
         <v>139</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>16</v>
+        <v>611</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
         <v>6</v>
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="M45">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -7094,26 +7094,26 @@
         <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>17</v>
+        <v>630</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="M46">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -7142,26 +7142,26 @@
         <v>139</v>
       </c>
       <c r="E47" s="1">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>33</v>
+        <v>650</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>6</v>
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="M47">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -7190,26 +7190,26 @@
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>34</v>
+        <v>651</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="M48">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -7238,10 +7238,10 @@
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="M49">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7274,25 +7274,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
       <c r="E50" s="1">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -7301,11 +7301,11 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="M50">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7334,26 +7334,26 @@
         <v>139</v>
       </c>
       <c r="E51" s="1">
-        <v>611</v>
-      </c>
-      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
         <v>6</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7382,26 +7382,26 @@
         <v>139</v>
       </c>
       <c r="E52" s="1">
-        <v>630</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7430,26 +7430,26 @@
         <v>139</v>
       </c>
       <c r="E53" s="1">
-        <v>650</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
         <v>6</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7478,26 +7478,26 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>651</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7526,7 +7526,7 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7568,13 +7568,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -7589,11 +7589,11 @@
         <v>6</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7616,13 +7616,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -7637,11 +7637,11 @@
         <v>6</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7664,32 +7664,32 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7712,32 +7712,32 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
       </c>
       <c r="E59" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7760,32 +7760,32 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>139</v>
@@ -7817,23 +7817,23 @@
         <v>655</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7862,26 +7862,26 @@
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7910,13 +7910,13 @@
         <v>139</v>
       </c>
       <c r="E63" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -7925,11 +7925,11 @@
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7961,23 +7961,23 @@
         <v>655</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8009,23 +8009,23 @@
         <v>655</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8057,23 +8057,23 @@
         <v>655</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8102,26 +8102,26 @@
         <v>139</v>
       </c>
       <c r="E67" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8150,26 +8150,26 @@
         <v>139</v>
       </c>
       <c r="E68" s="1">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8186,25 +8186,25 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
         <v>139</v>
       </c>
       <c r="E69" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -8213,11 +8213,11 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="M69">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8234,25 +8234,25 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>139</v>
       </c>
       <c r="E70" s="1">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -8261,11 +8261,11 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="M70">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8282,25 +8282,25 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
         <v>139</v>
       </c>
       <c r="E71" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -8309,11 +8309,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="M71">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8330,25 +8330,25 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>139</v>
       </c>
       <c r="E72" s="1">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -8357,11 +8357,11 @@
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K72" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="M72">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8378,25 +8378,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>139</v>
       </c>
       <c r="E73" s="1">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -8405,11 +8405,11 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K73" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="M73">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8426,25 +8426,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
         <v>139</v>
       </c>
       <c r="E74" s="1">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -8453,11 +8453,11 @@
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="M74">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8486,7 +8486,7 @@
         <v>139</v>
       </c>
       <c r="E75" s="1">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8528,19 +8528,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
         <v>139</v>
       </c>
       <c r="E76" s="1">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -8549,11 +8549,11 @@
         <v>6</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L76">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -8582,26 +8582,26 @@
         <v>139</v>
       </c>
       <c r="E77" s="1">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K77" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L77">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -8630,10 +8630,10 @@
         <v>139</v>
       </c>
       <c r="E78" s="1">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="K78" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L78">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -8678,26 +8678,26 @@
         <v>139</v>
       </c>
       <c r="E79" s="1">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K79" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L79">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -8726,10 +8726,10 @@
         <v>139</v>
       </c>
       <c r="E80" s="1">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>4</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="K80" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L80">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -8774,26 +8774,26 @@
         <v>139</v>
       </c>
       <c r="E81" s="1">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K81" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L81">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8810,25 +8810,25 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
         <v>139</v>
       </c>
       <c r="E82" s="1">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H82" t="s">
         <v>5</v>
@@ -8837,11 +8837,11 @@
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K82" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L82">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8870,10 +8870,10 @@
         <v>139</v>
       </c>
       <c r="E83" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>4</v>
@@ -8885,11 +8885,11 @@
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K83" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L83">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8918,7 +8918,7 @@
         <v>139</v>
       </c>
       <c r="E84" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="K84" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L84">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8966,10 +8966,10 @@
         <v>139</v>
       </c>
       <c r="E85" s="1">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
@@ -8981,11 +8981,11 @@
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K85" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L85">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9014,7 +9014,7 @@
         <v>139</v>
       </c>
       <c r="E86" s="1">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="K86" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L86">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9062,26 +9062,26 @@
         <v>139</v>
       </c>
       <c r="E87" s="1">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K87" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L87">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9104,32 +9104,32 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
         <v>139</v>
       </c>
       <c r="E88" s="1">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K88" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L88">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9152,32 +9152,32 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
         <v>139</v>
       </c>
       <c r="E89" s="1">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
         <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K89" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L89">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9200,13 +9200,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
         <v>139</v>
       </c>
       <c r="E90" s="1">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -9221,11 +9221,11 @@
         <v>6</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K90" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L90">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9248,22 +9248,22 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
         <v>139</v>
       </c>
       <c r="E91" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G91" t="s">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
@@ -9271,13 +9271,13 @@
       <c r="J91" t="s">
         <v>6</v>
       </c>
-      <c r="K91" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      <c r="K91" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L91">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9296,19 +9296,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="1">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
         <v>5</v>
@@ -9317,11 +9317,11 @@
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K92" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L92">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9344,19 +9344,19 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>139</v>
       </c>
       <c r="E93" s="1">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>5</v>
@@ -9365,11 +9365,11 @@
         <v>6</v>
       </c>
       <c r="J93" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K93" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L93">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9398,26 +9398,26 @@
         <v>139</v>
       </c>
       <c r="E94" s="1">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K94" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L94">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9446,13 +9446,13 @@
         <v>139</v>
       </c>
       <c r="E95" s="1">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
         <v>5</v>
@@ -9461,11 +9461,11 @@
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K95" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L95">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9482,46 +9482,46 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
         <v>139</v>
       </c>
       <c r="E96" s="1">
-        <v>100</v>
+        <v>648</v>
       </c>
       <c r="F96" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>335</v>
+        <v>6</v>
       </c>
       <c r="J96" t="s">
-        <v>328</v>
-      </c>
-      <c r="K96" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN100f(g)klnpt.</v>
-      </c>
-      <c r="L96" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K96" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L96">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N96" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9530,46 +9530,46 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
         <v>139</v>
       </c>
       <c r="E97" s="1">
-        <v>110</v>
+        <v>655</v>
       </c>
       <c r="F97" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>328</v>
+        <v>6</v>
       </c>
       <c r="K97" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
-      </c>
-      <c r="L97" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L97">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N97" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9578,46 +9578,46 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="1">
-        <v>111</v>
+        <v>656</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>328</v>
-      </c>
-      <c r="K98" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
-      </c>
-      <c r="L98" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="K98" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L98">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N98" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9626,46 +9626,46 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E99" s="1">
-        <v>999</v>
+        <v>656</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="H99" t="s">
         <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
-      </c>
-      <c r="K99" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
-      </c>
-      <c r="L99" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="K99" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L99">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N99" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9674,46 +9674,46 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E100" s="1">
-        <v>999</v>
+        <v>657</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
-      </c>
-      <c r="L100" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K100" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L100">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N100" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9722,43 +9722,46 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E101" s="1">
-        <v>999</v>
+        <v>657</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>369</v>
-      </c>
-      <c r="K101" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
-      </c>
-      <c r="L101" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>51</v>
+      </c>
+      <c r="K101" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L101">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N101" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9767,38 +9770,38 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E102" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="G102" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_record_idUNC999ai1=9 and i2=2</v>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
       </c>
       <c r="L102" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9815,38 +9818,38 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E103" s="1">
-        <v>999</v>
+        <v>110</v>
       </c>
       <c r="F103" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="G103" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="K103" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
       </c>
       <c r="L103" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9863,38 +9866,38 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E104" s="1">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F104" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="G104" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="K104" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
       </c>
       <c r="L104" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -1427,6 +1427,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U56" totalsRowShown="0">
   <autoFilter ref="A1:U56"/>
+  <sortState ref="A2:U56">
+    <sortCondition ref="A2:A56"/>
+  </sortState>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1787,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,10 +1881,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1893,40 +1896,40 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>213</v>
@@ -1934,33 +1937,33 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -1972,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
@@ -1981,108 +1984,99 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3">
+        <v>274</v>
+      </c>
+      <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>2</v>
       </c>
       <c r="U3">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="S4" t="s">
         <v>6</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
       <c r="U4">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2093,130 +2087,52 @@
       <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
       <c r="P5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5">
+        <v>315</v>
+      </c>
+      <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
-      </c>
       <c r="P6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6">
+        <v>41</v>
+      </c>
+      <c r="T6" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2227,49 +2143,10 @@
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
       <c r="P7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7">
+        <v>315</v>
+      </c>
+      <c r="T7" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -2280,13 +2157,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -2294,51 +2171,12 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
-      </c>
       <c r="P8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8">
+        <v>41</v>
+      </c>
+      <c r="T8" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -2347,77 +2185,71 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>157</v>
-      </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="Q9" t="s">
         <v>41</v>
       </c>
-      <c r="R9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9">
+      <c r="T9" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2429,59 +2261,53 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="N10" t="s">
-        <v>202</v>
+        <v>327</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10">
+        <v>41</v>
+      </c>
+      <c r="T10" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2490,116 +2316,77 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="S11" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U11">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O12" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="T12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2607,66 +2394,27 @@
       </c>
       <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" t="s">
-        <v>199</v>
-      </c>
-      <c r="O13" t="s">
         <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2674,65 +2422,62 @@
       </c>
       <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="Q14" t="s">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="R14" t="s">
-        <v>170</v>
-      </c>
-      <c r="S14" t="s">
         <v>6</v>
       </c>
       <c r="T14" s="8">
@@ -2741,66 +2486,27 @@
       </c>
       <c r="U14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" t="s">
-        <v>256</v>
-      </c>
-      <c r="N15" t="s">
-        <v>173</v>
-      </c>
-      <c r="O15" t="s">
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" t="s">
-        <v>209</v>
-      </c>
-      <c r="S15" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2808,82 +2514,79 @@
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="K16" t="s">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>353</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="Q16" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="R16" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" t="s">
         <v>6</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2892,10 +2595,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -2904,28 +2607,34 @@
         <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="L17" t="s">
         <v>193</v>
       </c>
       <c r="M17" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="N17" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>254</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
       </c>
       <c r="S17" t="s">
         <v>6</v>
@@ -2941,10 +2650,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2953,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -2965,34 +2674,34 @@
         <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="O18" t="s">
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="Q18" t="s">
         <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="S18" t="s">
         <v>6</v>
@@ -3003,15 +2712,15 @@
       </c>
       <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -3020,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
@@ -3032,34 +2741,34 @@
         <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="L19" t="s">
         <v>193</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="N19" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Q19" t="s">
         <v>41</v>
       </c>
       <c r="R19" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="S19" t="s">
         <v>6</v>
@@ -3070,57 +2779,57 @@
       </c>
       <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="Q20" t="s">
         <v>41</v>
@@ -3133,34 +2842,34 @@
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>41</v>
@@ -3178,10 +2887,10 @@
         <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
@@ -3204,7 +2913,7 @@
       </c>
       <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3276,61 +2985,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" t="s">
-        <v>193</v>
-      </c>
-      <c r="M23" t="s">
-        <v>198</v>
-      </c>
-      <c r="N23" t="s">
-        <v>246</v>
-      </c>
-      <c r="O23" t="s">
         <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>170</v>
-      </c>
-      <c r="S23" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3338,66 +3008,27 @@
       </c>
       <c r="U23">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="s">
-        <v>242</v>
-      </c>
-      <c r="L24" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" t="s">
-        <v>248</v>
-      </c>
-      <c r="N24" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" t="s">
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" t="s">
-        <v>170</v>
-      </c>
-      <c r="S24" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3405,66 +3036,27 @@
       </c>
       <c r="U24">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s">
-        <v>252</v>
-      </c>
-      <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3472,15 +3064,15 @@
       </c>
       <c r="U25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3489,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
@@ -3501,34 +3093,28 @@
         <v>196</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s">
         <v>193</v>
       </c>
       <c r="M26" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="S26" t="s">
         <v>6</v>
@@ -3544,10 +3130,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3556,46 +3142,46 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q27" t="s">
         <v>41</v>
       </c>
       <c r="R27" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s">
         <v>6</v>
@@ -3606,149 +3192,158 @@
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="L28" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="M28" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="Q28" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="R28" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="S28" t="s">
         <v>6</v>
       </c>
       <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>200</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" t="s">
+        <v>170</v>
+      </c>
+      <c r="S29" t="s">
+        <v>6</v>
       </c>
       <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -3757,34 +3352,40 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
         <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="M30" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>169</v>
+      </c>
+      <c r="R30" t="s">
+        <v>170</v>
+      </c>
+      <c r="S30" t="s">
+        <v>6</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3792,27 +3393,66 @@
       </c>
       <c r="U30">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" t="s">
+        <v>256</v>
+      </c>
+      <c r="N31" t="s">
+        <v>173</v>
+      </c>
+      <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>315</v>
+        <v>174</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>209</v>
+      </c>
+      <c r="S31" t="s">
+        <v>6</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3820,62 +3460,65 @@
       </c>
       <c r="U31">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
         <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="N32" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="Q32" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="R32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s">
         <v>6</v>
       </c>
       <c r="T32" s="8">
@@ -3884,62 +3527,65 @@
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>352</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s">
-        <v>353</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="Q33" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" t="s">
         <v>6</v>
       </c>
       <c r="T33" s="8">
@@ -3948,27 +3594,66 @@
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" t="s">
+        <v>218</v>
+      </c>
+      <c r="N34" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" t="s">
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>220</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" t="s">
+        <v>221</v>
+      </c>
+      <c r="S34" t="s">
+        <v>6</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3976,31 +3661,70 @@
       </c>
       <c r="U34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
+        <v>222</v>
+      </c>
+      <c r="N35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>315</v>
+        <v>224</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" t="s">
+        <v>6</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4009,10 +3733,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -4023,10 +3747,49 @@
       <c r="E36" t="s">
         <v>41</v>
       </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" t="s">
+        <v>114</v>
+      </c>
+      <c r="N36" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
       <c r="P36" t="s">
-        <v>317</v>
-      </c>
-      <c r="T36" s="8">
+        <v>111</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" t="s">
+        <v>212</v>
+      </c>
+      <c r="S36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4037,7 +3800,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
         <v>295</v>
@@ -4065,7 +3828,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s">
         <v>295</v>
@@ -4079,47 +3842,8 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>318</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" t="s">
-        <v>367</v>
-      </c>
-      <c r="N38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" t="s">
-        <v>6</v>
-      </c>
       <c r="P38" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" t="s">
-        <v>213</v>
-      </c>
-      <c r="S38" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4127,15 +3851,15 @@
       </c>
       <c r="U38">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -4146,38 +3870,8 @@
       <c r="E39" t="s">
         <v>41</v>
       </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" t="s">
-        <v>326</v>
-      </c>
-      <c r="N39" t="s">
-        <v>327</v>
-      </c>
-      <c r="O39" t="s">
-        <v>41</v>
-      </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4185,15 +3879,15 @@
       </c>
       <c r="U39">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -4218,7 +3912,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
         <v>295</v>
@@ -4233,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4246,26 +3940,65 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
+      <c r="F42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>233</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" t="s">
+        <v>235</v>
+      </c>
+      <c r="N42" t="s">
+        <v>236</v>
+      </c>
+      <c r="O42" t="s">
+        <v>41</v>
+      </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>237</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>238</v>
+      </c>
+      <c r="R42" t="s">
+        <v>239</v>
+      </c>
+      <c r="S42" t="s">
+        <v>6</v>
       </c>
       <c r="T42" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4274,10 +4007,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4288,24 +4021,63 @@
       <c r="E43" t="s">
         <v>41</v>
       </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" t="s">
+        <v>97</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
       <c r="P43" t="s">
-        <v>315</v>
-      </c>
-      <c r="T43" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R43" t="s">
+        <v>213</v>
+      </c>
+      <c r="S43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4316,24 +4088,63 @@
       <c r="E44" t="s">
         <v>41</v>
       </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" t="s">
+        <v>92</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
       <c r="P44" t="s">
-        <v>315</v>
-      </c>
-      <c r="T44" s="8">
+        <v>93</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>94</v>
+      </c>
+      <c r="R44" t="s">
+        <v>213</v>
+      </c>
+      <c r="S44" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4344,24 +4155,63 @@
       <c r="E45" t="s">
         <v>41</v>
       </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>82</v>
+      </c>
+      <c r="L45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
       <c r="P45" t="s">
-        <v>314</v>
-      </c>
-      <c r="T45" s="8">
+        <v>103</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>99</v>
+      </c>
+      <c r="R45" t="s">
+        <v>213</v>
+      </c>
+      <c r="S45" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -4372,10 +4222,46 @@
       <c r="E46" t="s">
         <v>41</v>
       </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" t="s">
+        <v>202</v>
+      </c>
       <c r="P46" t="s">
-        <v>322</v>
-      </c>
-      <c r="T46" s="8">
+        <v>201</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4386,10 +4272,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -4400,27 +4286,66 @@
       <c r="E47" t="s">
         <v>41</v>
       </c>
+      <c r="F47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L47" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" t="s">
+        <v>85</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
       <c r="P47" t="s">
-        <v>313</v>
-      </c>
-      <c r="T47" s="8">
+        <v>87</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>88</v>
+      </c>
+      <c r="R47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S47" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -4428,12 +4353,51 @@
       <c r="E48" t="s">
         <v>41</v>
       </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
       <c r="P48" t="s">
-        <v>313</v>
-      </c>
-      <c r="T48" s="8">
+        <v>119</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>41</v>
+      </c>
+      <c r="R48" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4442,13 +4406,13 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -4456,12 +4420,51 @@
       <c r="E49" t="s">
         <v>41</v>
       </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
       <c r="P49" t="s">
-        <v>313</v>
-      </c>
-      <c r="T49" s="8">
+        <v>87</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4470,10 +4473,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4485,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4498,10 +4501,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4513,7 +4516,7 @@
         <v>41</v>
       </c>
       <c r="P51" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4526,10 +4529,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -4541,7 +4544,7 @@
         <v>41</v>
       </c>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="T52" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s">
         <v>304</v>
@@ -4569,7 +4572,7 @@
         <v>41</v>
       </c>
       <c r="P53" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="T53" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4582,7 +4585,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
         <v>304</v>
@@ -4610,10 +4613,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -4624,8 +4627,47 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>357</v>
+      </c>
+      <c r="N55" t="s">
+        <v>358</v>
+      </c>
+      <c r="O55" t="s">
+        <v>359</v>
+      </c>
       <c r="P55" t="s">
-        <v>41</v>
+        <v>360</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>361</v>
+      </c>
+      <c r="R55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" t="s">
+        <v>6</v>
       </c>
       <c r="T55" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4633,15 +4675,15 @@
       </c>
       <c r="U55">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -4652,47 +4694,8 @@
       <c r="E56" t="s">
         <v>41</v>
       </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" t="s">
-        <v>312</v>
-      </c>
-      <c r="I56" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" t="s">
-        <v>357</v>
-      </c>
-      <c r="N56" t="s">
-        <v>358</v>
-      </c>
-      <c r="O56" t="s">
-        <v>359</v>
-      </c>
       <c r="P56" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>361</v>
-      </c>
-      <c r="R56" t="s">
-        <v>6</v>
-      </c>
-      <c r="S56" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="T56" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4700,7 +4703,7 @@
       </c>
       <c r="U56">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4920,9 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="379">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -902,9 +902,6 @@
     <t>other_name</t>
   </si>
   <si>
-    <t>undiff_name</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -938,9 +935,6 @@
     <t>related_work_citation</t>
   </si>
   <si>
-    <t>undiff_work_citation</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -962,9 +956,6 @@
     <t>related_work_citation_label</t>
   </si>
   <si>
-    <t>undiff_work_citation_label</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -1118,15 +1109,6 @@
     <t>derived from other field</t>
   </si>
   <si>
-    <t>creator_main -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
-    <t>director -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
-    <t>editor -&gt; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
     <t>(Author)</t>
   </si>
   <si>
@@ -1155,6 +1137,33 @@
   </si>
   <si>
     <t>(i1=9 AND i2=2) AND $c &gt; 0</t>
+  </si>
+  <si>
+    <t>i2=2</t>
+  </si>
+  <si>
+    <t>i2!=2 AND (NO $e OR $4) AND (NO $t OR $k)</t>
+  </si>
+  <si>
+    <t>(analytical authors)</t>
+  </si>
+  <si>
+    <t>(unqualified name-only personal names)</t>
+  </si>
+  <si>
+    <t>i2!=2 AND (NO $t OR $k) AND (relator_category.include?('creator'))</t>
+  </si>
+  <si>
+    <t>relator category: look up $e/$4 values in argot/maps/_relator_categories.json ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>(creators not part of name-title entries)</t>
+  </si>
+  <si>
+    <t>(editors and directors)</t>
+  </si>
+  <si>
+    <t>i2!=2 AND (NO $t OR $k) AND ($e = (editor OR editor of compilation OR director OR film director) OR $4 = (edt OR edc OR drt OR fmd))</t>
   </si>
 </sst>
 </file>
@@ -1287,6 +1296,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1300,16 +1319,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1425,8 +1434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U56" totalsRowShown="0">
-  <autoFilter ref="A1:U56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
+  <autoFilter ref="A1:U53"/>
   <sortState ref="A2:U56">
     <sortCondition ref="A2:A56"/>
   </sortState>
@@ -1475,36 +1484,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N104" totalsRowShown="0">
-  <autoFilter ref="A1:N104"/>
-  <sortState ref="A2:N104">
-    <sortCondition ref="A2:A104"/>
-    <sortCondition ref="C2:C104"/>
-    <sortCondition ref="D2:D104"/>
-    <sortCondition ref="B2:B104"/>
-    <sortCondition ref="E2:E104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N103" totalsRowShown="0">
+  <autoFilter ref="A1:N103"/>
+  <sortState ref="A2:N103">
+    <sortCondition ref="A2:A103"/>
+    <sortCondition ref="C2:C103"/>
+    <sortCondition ref="D2:D103"/>
+    <sortCondition ref="B2:B103"/>
+    <sortCondition ref="E2:E103"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="5"/>
+    <tableColumn id="4" name="element/field" dataDxfId="6"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="4">
+    <tableColumn id="10" name="mapping_id" dataDxfId="5">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="2">
+    <tableColumn id="13" name="field issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="1">
+    <tableColumn id="14" name="field defined?" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1788,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,10 +1890,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1908,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
@@ -1917,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -1926,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
@@ -1943,7 +1952,7 @@
       </c>
       <c r="U2">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2076,7 +2085,7 @@
         <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2088,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2101,10 +2110,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2132,7 +2141,7 @@
         <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2144,7 +2153,7 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T7" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2157,10 +2166,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2188,7 +2197,7 @@
         <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2206,13 +2215,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2221,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O9" t="s">
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q9" t="s">
         <v>41</v>
@@ -2246,10 +2255,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2282,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O10" t="s">
         <v>41</v>
@@ -2371,10 +2380,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2386,7 +2395,7 @@
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2399,10 +2408,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2430,7 +2439,7 @@
         <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2448,13 +2457,13 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -2463,19 +2472,19 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R14" t="s">
         <v>6</v>
@@ -2491,10 +2500,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2506,7 +2515,7 @@
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2522,7 +2531,7 @@
         <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2540,34 +2549,34 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L16" t="s">
         <v>6</v>
       </c>
       <c r="M16" t="s">
+        <v>349</v>
+      </c>
+      <c r="N16" t="s">
+        <v>350</v>
+      </c>
+      <c r="O16" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q16" t="s">
         <v>352</v>
-      </c>
-      <c r="N16" t="s">
-        <v>353</v>
-      </c>
-      <c r="O16" t="s">
-        <v>356</v>
-      </c>
-      <c r="P16" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>355</v>
       </c>
       <c r="R16" t="s">
         <v>6</v>
@@ -2586,7 +2595,7 @@
         <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2653,7 +2662,7 @@
         <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2720,7 +2729,7 @@
         <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2787,7 +2796,7 @@
         <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2854,7 +2863,7 @@
         <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2921,7 +2930,7 @@
         <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2985,10 +2994,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -3000,7 +3009,7 @@
         <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3013,10 +3022,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -3041,10 +3050,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -3056,7 +3065,7 @@
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3072,7 +3081,7 @@
         <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3133,7 +3142,7 @@
         <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3200,7 +3209,7 @@
         <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3267,7 +3276,7 @@
         <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3334,7 +3343,7 @@
         <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3401,7 +3410,7 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3468,7 +3477,7 @@
         <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3535,7 +3544,7 @@
         <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -3602,7 +3611,7 @@
         <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3669,7 +3678,7 @@
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -3803,7 +3812,7 @@
         <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -3815,7 +3824,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3828,10 +3837,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3856,11 +3865,11 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" t="s">
         <v>302</v>
       </c>
-      <c r="B39" t="s">
-        <v>304</v>
-      </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3884,10 +3893,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -3912,10 +3921,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3927,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4010,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4077,7 +4086,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4144,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4211,7 +4220,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -4275,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -4342,7 +4351,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -4409,7 +4418,7 @@
         <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -4473,10 +4482,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4488,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4501,10 +4510,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4516,7 +4525,7 @@
         <v>41</v>
       </c>
       <c r="P51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4529,10 +4538,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -4543,8 +4552,47 @@
       <c r="E52" t="s">
         <v>41</v>
       </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" t="s">
+        <v>354</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>356</v>
+      </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>357</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>358</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" t="s">
+        <v>6</v>
       </c>
       <c r="T52" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4552,15 +4600,15 @@
       </c>
       <c r="U52">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -4572,136 +4620,13 @@
         <v>41</v>
       </c>
       <c r="P53" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="T53" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U53">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>41</v>
-      </c>
-      <c r="P54" t="s">
-        <v>41</v>
-      </c>
-      <c r="T54" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>321</v>
-      </c>
-      <c r="B55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>312</v>
-      </c>
-      <c r="I55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" t="s">
-        <v>357</v>
-      </c>
-      <c r="N55" t="s">
-        <v>358</v>
-      </c>
-      <c r="O55" t="s">
-        <v>359</v>
-      </c>
-      <c r="P55" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>361</v>
-      </c>
-      <c r="R55" t="s">
-        <v>6</v>
-      </c>
-      <c r="S55" t="s">
-        <v>6</v>
-      </c>
-      <c r="T55" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>41</v>
-      </c>
-      <c r="P56" t="s">
-        <v>322</v>
-      </c>
-      <c r="T56" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U56">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4921,14 +4846,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4977,7 +4905,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4992,16 +4920,16 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -5025,7 +4953,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5037,26 +4965,26 @@
         <v>139</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN100abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>author_facetGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L3" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5073,7 +5001,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -5085,26 +5013,26 @@
         <v>139</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
-        <v>346</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>author_facetGEN111acde(g)(n)qu.</v>
       </c>
       <c r="L4" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5121,7 +5049,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5133,26 +5061,26 @@
         <v>139</v>
       </c>
       <c r="E5" s="1">
-        <v>110</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>332</v>
+        <v>700</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN110abcd(g)(n)u.</v>
+        <v>author_facetGEN700abcd(g)jqui2=2</v>
       </c>
       <c r="L5" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5169,7 +5097,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5181,26 +5109,26 @@
         <v>139</v>
       </c>
       <c r="E6" s="1">
-        <v>111</v>
+        <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN111acde(g)(n)qu.</v>
+        <v>author_facetGEN700abcd(g)jqui2!=2 AND (NO $e OR $4) AND (NO $t OR $k)</v>
       </c>
       <c r="L6" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5217,7 +5145,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5232,23 +5160,23 @@
         <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="H7" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN700abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>author_facetGEN700abcd(g)jqui2!=2 AND (NO $t OR $k) AND (relator_category.include?('creator'))</v>
       </c>
       <c r="L7" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5265,7 +5193,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5280,23 +5208,23 @@
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="H8" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>213</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>author_facetGEN700abcd(g)jqui2!=2 AND (NO $t OR $k) AND ($e = (editor OR editor of compilation OR director OR film director) OR $4 = (edt OR edc OR drt OR fmd))</v>
       </c>
       <c r="L8" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5313,38 +5241,38 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="1">
-        <v>710</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>332</v>
+        <v>999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>345</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>author_facetGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
+        <v>circulation_countUNC999oi1=9 AND i2=1</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5352,7 +5280,7 @@
       </c>
       <c r="M9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5361,38 +5289,38 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
       </c>
       <c r="E10" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>circulation_countUNC999oi1=9 AND i2=1</v>
+        <v>creator_mainGEN100abcd(g)jqu.</v>
       </c>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5400,7 +5328,7 @@
       </c>
       <c r="M10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5421,9 +5349,9 @@
         <v>139</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>329</v>
       </c>
       <c r="G11" t="s">
@@ -5433,14 +5361,14 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN100abcd(g)jqu.</v>
+        <v>creator_mainGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L11" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5469,10 +5397,10 @@
         <v>139</v>
       </c>
       <c r="E12" s="1">
-        <v>110</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>332</v>
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>334</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -5481,14 +5409,14 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN110abcd(g)(n)u.</v>
+        <v>creator_mainGEN111acde(g)(n)qu.</v>
       </c>
       <c r="L12" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5505,7 +5433,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5517,26 +5445,26 @@
         <v>139</v>
       </c>
       <c r="E13" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN111acde(g)(n)qu.</v>
+        <v>creator_main_relatorGEN100e4.</v>
       </c>
       <c r="L13" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5553,7 +5481,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5565,10 +5493,10 @@
         <v>139</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -5577,14 +5505,14 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN100e4.</v>
+        <v>creator_main_relatorGEN110e4.</v>
       </c>
       <c r="L14" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5601,7 +5529,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -5613,10 +5541,10 @@
         <v>139</v>
       </c>
       <c r="E15" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5625,14 +5553,14 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN110e4.</v>
+        <v>creator_main_relatorGEN111j4.</v>
       </c>
       <c r="L15" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5649,22 +5577,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1">
-        <v>111</v>
+        <v>946</v>
       </c>
       <c r="F16" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -5673,14 +5601,14 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K16" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN111j4.</v>
+        <v>date_catalogedDUKE946b.</v>
       </c>
       <c r="L16" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5706,13 +5634,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" s="1">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -5728,7 +5656,7 @@
       </c>
       <c r="K17" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedDUKE946b.</v>
+        <v>date_catalogedNCSU909a.</v>
       </c>
       <c r="L17" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5754,16 +5682,16 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1">
-        <v>909</v>
+        <v>999</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -5774,15 +5702,15 @@
       <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCSU909a.</v>
-      </c>
-      <c r="L18" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="K18" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
+      </c>
+      <c r="L18">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5799,38 +5727,35 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1">
-        <v>999</v>
+        <v>186</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
-      </c>
-      <c r="L19">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="K19" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedNCCU...</v>
+      </c>
+      <c r="L19" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5841,39 +5766,42 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>328</v>
+      </c>
+      <c r="J20" t="s">
+        <v>344</v>
       </c>
       <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCCU...</v>
+        <v>directorGEN100abcd(g)jqu$e = director OR $4 = drt</v>
       </c>
       <c r="L20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -5898,26 +5826,26 @@
         <v>139</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J21" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="K21" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN100abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>directorGEN700abcd(g)jqu$e = director OR $4 = drt</v>
       </c>
       <c r="L21" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5946,26 +5874,26 @@
         <v>139</v>
       </c>
       <c r="E22" s="1">
-        <v>700</v>
-      </c>
-      <c r="F22" t="s">
+        <v>710</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>329</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN700abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>directorGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
       </c>
       <c r="L22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5982,7 +5910,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5994,26 +5922,26 @@
         <v>139</v>
       </c>
       <c r="E23" s="1">
-        <v>710</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>332</v>
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
+        <v>editorGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
       </c>
       <c r="L23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6042,26 +5970,26 @@
         <v>139</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J24" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>editorGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
       </c>
       <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6078,38 +6006,38 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1">
-        <v>700</v>
+        <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="G25" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6126,7 +6054,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -6141,23 +6069,23 @@
         <v>999</v>
       </c>
       <c r="F26" t="s">
-        <v>372</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6174,7 +6102,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -6192,20 +6120,17 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>370</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
+        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6222,7 +6147,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6237,20 +6162,23 @@
         <v>999</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="G28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>369</v>
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
       </c>
       <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
+        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6267,7 +6195,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6282,10 +6210,10 @@
         <v>999</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -6298,7 +6226,7 @@
       </c>
       <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
       </c>
       <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6315,7 +6243,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6333,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -6346,7 +6274,7 @@
       </c>
       <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
+        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6363,7 +6291,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6378,23 +6306,23 @@
         <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6411,7 +6339,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6426,23 +6354,23 @@
         <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
         <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
       </c>
       <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6459,7 +6387,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6467,30 +6395,30 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1">
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
         <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I33" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6522,23 +6450,23 @@
         <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="H34" t="s">
         <v>266</v>
       </c>
       <c r="I34" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6555,7 +6483,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6570,23 +6498,23 @@
         <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
       <c r="K35" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6618,23 +6546,23 @@
         <v>999</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J36" t="s">
         <v>6</v>
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6651,7 +6579,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6666,23 +6594,23 @@
         <v>999</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="J37" t="s">
         <v>6</v>
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6699,7 +6627,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6707,14 +6635,14 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="1">
         <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
         <v>158</v>
@@ -6730,7 +6658,7 @@
       </c>
       <c r="K38" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
       </c>
       <c r="L38" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6747,7 +6675,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -6762,13 +6690,13 @@
         <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -6778,7 +6706,7 @@
       </c>
       <c r="K39" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L39" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6810,23 +6738,23 @@
         <v>999</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I40" t="s">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="J40" t="s">
         <v>6</v>
       </c>
       <c r="K40" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L40" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6858,23 +6786,23 @@
         <v>999</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="K41" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L41" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6891,46 +6819,46 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1">
-        <v>999</v>
+        <v>600</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>271</v>
-      </c>
-      <c r="K42" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
-      </c>
-      <c r="L42" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K42" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L42">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N42" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6951,7 +6879,7 @@
         <v>139</v>
       </c>
       <c r="E43" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -6970,7 +6898,7 @@
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6999,7 +6927,7 @@
         <v>139</v>
       </c>
       <c r="E44" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -7018,7 +6946,7 @@
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7047,7 +6975,7 @@
         <v>139</v>
       </c>
       <c r="E45" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
@@ -7066,7 +6994,7 @@
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7095,7 +7023,7 @@
         <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -7114,7 +7042,7 @@
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7143,7 +7071,7 @@
         <v>139</v>
       </c>
       <c r="E47" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
@@ -7162,7 +7090,7 @@
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7191,7 +7119,7 @@
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
@@ -7210,7 +7138,7 @@
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7233,19 +7161,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -7254,11 +7182,11 @@
         <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7275,38 +7203,38 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>139</v>
       </c>
       <c r="E50" s="1">
-        <v>648</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7314,7 +7242,7 @@
       </c>
       <c r="M50">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7338,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -7347,14 +7275,14 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7383,26 +7311,26 @@
         <v>139</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7434,7 +7362,7 @@
         <v>8</v>
       </c>
       <c r="F53">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
@@ -7443,14 +7371,14 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7479,26 +7407,26 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>34</v>
+        <v>600</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7527,7 +7455,7 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -7546,7 +7474,7 @@
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7575,7 +7503,7 @@
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -7594,7 +7522,7 @@
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7623,7 +7551,7 @@
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -7642,7 +7570,7 @@
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7671,7 +7599,7 @@
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -7690,7 +7618,7 @@
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7719,7 +7647,7 @@
         <v>139</v>
       </c>
       <c r="E59" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -7738,7 +7666,7 @@
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7767,7 +7695,7 @@
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -7786,7 +7714,7 @@
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7809,13 +7737,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>139</v>
       </c>
       <c r="E61" s="1">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -7830,11 +7758,11 @@
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7863,7 +7791,7 @@
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -7878,11 +7806,11 @@
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7911,26 +7839,26 @@
         <v>139</v>
       </c>
       <c r="E63" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7965,7 +7893,7 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -7974,11 +7902,11 @@
         <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8013,7 +7941,7 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
@@ -8022,11 +7950,11 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8061,7 +7989,7 @@
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
@@ -8070,11 +7998,11 @@
         <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8109,20 +8037,20 @@
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8154,23 +8082,23 @@
         <v>655</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8205,7 +8133,7 @@
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -8214,11 +8142,11 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8253,7 +8181,7 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -8262,11 +8190,11 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8301,7 +8229,7 @@
         <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -8310,11 +8238,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8343,13 +8271,13 @@
         <v>139</v>
       </c>
       <c r="E72" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -8358,11 +8286,11 @@
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K72" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8391,10 +8319,10 @@
         <v>139</v>
       </c>
       <c r="E73" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -8410,7 +8338,7 @@
       </c>
       <c r="K73" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8427,25 +8355,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>139</v>
       </c>
       <c r="E74" s="1">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -8454,11 +8382,11 @@
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8466,7 +8394,7 @@
       </c>
       <c r="M74">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8487,7 +8415,7 @@
         <v>139</v>
       </c>
       <c r="E75" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -8506,7 +8434,7 @@
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8535,7 +8463,7 @@
         <v>139</v>
       </c>
       <c r="E76" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
@@ -8554,7 +8482,7 @@
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L76">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8583,7 +8511,7 @@
         <v>139</v>
       </c>
       <c r="E77" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -8602,7 +8530,7 @@
       </c>
       <c r="K77" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L77">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8631,7 +8559,7 @@
         <v>139</v>
       </c>
       <c r="E78" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -8650,7 +8578,7 @@
       </c>
       <c r="K78" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L78">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8679,7 +8607,7 @@
         <v>139</v>
       </c>
       <c r="E79" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -8698,7 +8626,7 @@
       </c>
       <c r="K79" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L79">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8727,7 +8655,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
@@ -8746,7 +8674,7 @@
       </c>
       <c r="K80" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L80">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8769,19 +8697,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
         <v>139</v>
       </c>
       <c r="E81" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F81" t="s">
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
         <v>5</v>
@@ -8790,11 +8718,11 @@
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K81" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L81">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8811,38 +8739,38 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
         <v>139</v>
       </c>
       <c r="E82" s="1">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K82" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L82">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8874,23 +8802,23 @@
         <v>600</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K83" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L83">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8919,26 +8847,26 @@
         <v>139</v>
       </c>
       <c r="E84" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K84" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L84">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8970,23 +8898,23 @@
         <v>610</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K85" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L85">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9015,26 +8943,26 @@
         <v>139</v>
       </c>
       <c r="E86" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K86" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L86">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9066,23 +8994,23 @@
         <v>611</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K87" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L87">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9111,26 +9039,26 @@
         <v>139</v>
       </c>
       <c r="E88" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K88" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L88">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9162,23 +9090,23 @@
         <v>630</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
         <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K89" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L89">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9207,16 +9135,16 @@
         <v>139</v>
       </c>
       <c r="E90" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
@@ -9226,7 +9154,7 @@
       </c>
       <c r="K90" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L90">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9258,13 +9186,13 @@
         <v>650</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
@@ -9274,7 +9202,7 @@
       </c>
       <c r="K91" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L91">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9303,7 +9231,7 @@
         <v>139</v>
       </c>
       <c r="E92" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -9322,7 +9250,7 @@
       </c>
       <c r="K92" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L92">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9345,32 +9273,32 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
         <v>139</v>
       </c>
       <c r="E93" s="1">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G93" t="s">
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
       </c>
       <c r="J93" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K93" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L93">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9402,13 +9330,13 @@
         <v>647</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
@@ -9418,7 +9346,7 @@
       </c>
       <c r="K94" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L94">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9447,7 +9375,7 @@
         <v>139</v>
       </c>
       <c r="E95" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9462,11 +9390,11 @@
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K95" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L95">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9495,7 +9423,7 @@
         <v>139</v>
       </c>
       <c r="E96" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F96" t="s">
         <v>41</v>
@@ -9510,15 +9438,15 @@
         <v>6</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>6</v>
+      </c>
+      <c r="K96" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L96">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9543,13 +9471,13 @@
         <v>139</v>
       </c>
       <c r="E97" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
         <v>5</v>
@@ -9558,15 +9486,15 @@
         <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>6</v>
-      </c>
-      <c r="K97" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>50</v>
+      </c>
+      <c r="K97" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L97">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9594,7 +9522,7 @@
         <v>656</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9606,11 +9534,11 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K98" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L98">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9639,10 +9567,10 @@
         <v>139</v>
       </c>
       <c r="E99" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9654,11 +9582,11 @@
         <v>6</v>
       </c>
       <c r="J99" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K99" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L99">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9690,7 +9618,7 @@
         <v>657</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9706,7 +9634,7 @@
       </c>
       <c r="K100" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L100">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9723,46 +9651,46 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
         <v>139</v>
       </c>
       <c r="E101" s="1">
-        <v>657</v>
+        <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
-      </c>
-      <c r="K101" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
-      </c>
-      <c r="L101">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="K101" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
+      </c>
+      <c r="L101" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N101" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9771,7 +9699,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -9783,10 +9711,10 @@
         <v>139</v>
       </c>
       <c r="E102" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F102" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9795,14 +9723,14 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J102" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN100f(g)klnpt.</v>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
       </c>
       <c r="L102" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9819,7 +9747,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -9831,10 +9759,10 @@
         <v>139</v>
       </c>
       <c r="E103" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F103" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
@@ -9843,14 +9771,14 @@
         <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J103" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K103" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
       </c>
       <c r="L103" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9865,57 +9793,9 @@
         <v>y</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>139</v>
-      </c>
-      <c r="E104" s="1">
-        <v>111</v>
-      </c>
-      <c r="F104" t="s">
-        <v>334</v>
-      </c>
-      <c r="G104" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>336</v>
-      </c>
-      <c r="J104" t="s">
-        <v>328</v>
-      </c>
-      <c r="K104" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
-      </c>
-      <c r="L104" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="8" t="str">
-        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K66">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  <conditionalFormatting sqref="K3:K65">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10055,7 +9935,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="381">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1154,9 +1154,6 @@
     <t>i2!=2 AND (NO $t OR $k) AND (relator_category.include?('creator'))</t>
   </si>
   <si>
-    <t>relator category: look up $e/$4 values in argot/maps/_relator_categories.json ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
     <t>(creators not part of name-title entries)</t>
   </si>
   <si>
@@ -1164,6 +1161,15 @@
   </si>
   <si>
     <t>i2!=2 AND (NO $t OR $k) AND ($e = (editor OR editor of compilation OR director OR film director) OR $4 = (edt OR edc OR drt OR fmd))</t>
+  </si>
+  <si>
+    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>$g and/or $n included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; relator category: look up $e/$4 values in argot/maps/_relator_categories.json ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
   </si>
 </sst>
 </file>
@@ -1185,6 +1191,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1296,16 +1303,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1319,6 +1316,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1498,22 +1505,22 @@
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="6"/>
+    <tableColumn id="4" name="element/field" dataDxfId="5"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="5">
+    <tableColumn id="10" name="mapping_id" dataDxfId="4">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="3">
+    <tableColumn id="13" name="field issue ct" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="2">
+    <tableColumn id="14" name="field defined?" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4849,7 +4856,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,7 +4936,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4977,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -5025,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -5073,7 +5080,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="J5" t="s">
         <v>372</v>
@@ -5121,7 +5128,7 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="J6" t="s">
         <v>373</v>
@@ -5169,10 +5176,10 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J7" t="s">
         <v>375</v>
-      </c>
-      <c r="J7" t="s">
-        <v>376</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5211,16 +5218,16 @@
         <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="J8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9795,7 +9802,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K65">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -9935,7 +9942,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="382">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1013,24 +1013,12 @@
     <t>f(g)klnpt</t>
   </si>
   <si>
-    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
-  </si>
-  <si>
     <t>abcd(g)(n)u</t>
   </si>
   <si>
-    <t>$g and/or $n included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
-  </si>
-  <si>
     <t>f(g)kl(n)pt</t>
   </si>
   <si>
-    <t>$g included in uniform_title if it occurs AFTER a $t or $k</t>
-  </si>
-  <si>
-    <t>$g and/or $n included in uniform_title if it occurs AFTER a $t or $k</t>
-  </si>
-  <si>
     <t>acde(g)(n)qu</t>
   </si>
   <si>
@@ -1163,13 +1151,28 @@
     <t>i2!=2 AND (NO $t OR $k) AND ($e = (editor OR editor of compilation OR director OR film director) OR $4 = (edt OR edc OR drt OR fmd))</t>
   </si>
   <si>
-    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
-    <t>$g and/or $n included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
-  </si>
-  <si>
-    <t>subfield g included in creator_main if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; relator category: look up $e/$4 values in argot/maps/_relator_categories.json ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+    <t>subfield g included if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>$g and/or $n included if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>subfield g included if there is NO $t or $k, or if it occurs BEFORE any $t/$k present ;;; relator category: look up $e/$4 values in argot/maps/_relator_categories.json ;;; https://github.com/trln/data-documentation/blob/master/argot/processing_rules_and_procedures.md#all-fields-that-become-facet-values</t>
+  </si>
+  <si>
+    <t>subfield g included if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
+  </si>
+  <si>
+    <t>$g and/or $n included if there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
+  </si>
+  <si>
+    <t>$g and/or $n included there is NO $t or $k, or if it occurs BEFORE any $t/$k present</t>
+  </si>
+  <si>
+    <t>$g included if it occurs AFTER a $t or $k</t>
+  </si>
+  <si>
+    <t>$g and/or $n included if it occurs AFTER a $t or $k</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>294</v>
@@ -2173,7 +2176,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
         <v>294</v>
@@ -2228,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>294</v>
@@ -2470,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -2479,19 +2482,19 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P14" t="s">
         <v>313</v>
       </c>
       <c r="Q14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="R14" t="s">
         <v>6</v>
@@ -2562,28 +2565,28 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L16" t="s">
         <v>6</v>
       </c>
       <c r="M16" t="s">
+        <v>345</v>
+      </c>
+      <c r="N16" t="s">
+        <v>346</v>
+      </c>
+      <c r="O16" t="s">
         <v>349</v>
-      </c>
-      <c r="N16" t="s">
-        <v>350</v>
-      </c>
-      <c r="O16" t="s">
-        <v>353</v>
       </c>
       <c r="P16" t="s">
         <v>312</v>
       </c>
       <c r="Q16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R16" t="s">
         <v>6</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s">
         <v>294</v>
@@ -4581,19 +4584,19 @@
         <v>6</v>
       </c>
       <c r="M52" t="s">
+        <v>350</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>352</v>
+      </c>
+      <c r="P52" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q52" t="s">
         <v>354</v>
-      </c>
-      <c r="N52" t="s">
-        <v>355</v>
-      </c>
-      <c r="O52" t="s">
-        <v>356</v>
-      </c>
-      <c r="P52" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>358</v>
       </c>
       <c r="R52" t="s">
         <v>6</v>
@@ -4855,9 +4858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4936,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4975,7 +4976,7 @@
         <v>110</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4984,7 +4985,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -5023,7 +5024,7 @@
         <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -5032,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -5074,16 +5075,16 @@
         <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5122,16 +5123,16 @@
         <v>326</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5170,16 +5171,16 @@
         <v>326</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5218,16 +5219,16 @@
         <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5320,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -5359,7 +5360,7 @@
         <v>110</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -5368,7 +5369,7 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -5407,7 +5408,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -5416,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -5440,7 +5441,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5455,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -5464,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
@@ -5488,7 +5489,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5503,7 +5504,7 @@
         <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -5512,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
@@ -5536,7 +5537,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -5551,7 +5552,7 @@
         <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5560,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -5791,16 +5792,16 @@
         <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="J20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5839,13 +5840,13 @@
         <v>326</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
@@ -5884,16 +5885,16 @@
         <v>710</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
@@ -5935,16 +5936,16 @@
         <v>326</v>
       </c>
       <c r="G23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5983,13 +5984,13 @@
         <v>326</v>
       </c>
       <c r="G24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
@@ -6028,10 +6029,10 @@
         <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -6079,13 +6080,13 @@
         <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H26" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -6127,13 +6128,13 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -6169,10 +6170,10 @@
         <v>999</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -6220,7 +6221,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -6268,7 +6269,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -6418,7 +6419,7 @@
         <v>266</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J33" t="s">
         <v>6</v>
@@ -6466,7 +6467,7 @@
         <v>266</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
@@ -6514,7 +6515,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
@@ -6562,7 +6563,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
         <v>6</v>
@@ -9682,7 +9683,7 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="J101" t="s">
         <v>325</v>
@@ -9721,7 +9722,7 @@
         <v>110</v>
       </c>
       <c r="F102" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9730,7 +9731,7 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J102" t="s">
         <v>325</v>
@@ -9769,7 +9770,7 @@
         <v>111</v>
       </c>
       <c r="F103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
@@ -9778,7 +9779,7 @@
         <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J103" t="s">
         <v>325</v>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -1043,12 +1043,6 @@
     <t>j4</t>
   </si>
   <si>
-    <t>$e = director OR $4 = drt</t>
-  </si>
-  <si>
-    <t>$e = editor OR $4 = edt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main author/creatorship is assumed when name is recorded in 1xx, and may not always be represented by explicit relator term/code. Director is a "contributor" role, not a "creator role". There is no good way to tell if "1xx Doe, John$edirector") really means "writer and director" or if the name *should* have been recorded in 7xx field because the person only was in a contributor role. We err on the side of treating it as if the name has two roles. </t>
   </si>
   <si>
@@ -1173,6 +1167,12 @@
   </si>
   <si>
     <t>$g and/or $n included if it occurs AFTER a $t or $k</t>
+  </si>
+  <si>
+    <t>$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</t>
+  </si>
+  <si>
+    <t>$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -2231,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -2482,19 +2482,19 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P14" t="s">
         <v>313</v>
       </c>
       <c r="Q14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R14" t="s">
         <v>6</v>
@@ -2565,28 +2565,28 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K16" t="s">
+        <v>342</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>343</v>
+      </c>
+      <c r="N16" t="s">
         <v>344</v>
       </c>
-      <c r="L16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" t="s">
-        <v>346</v>
-      </c>
       <c r="O16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P16" t="s">
         <v>312</v>
       </c>
       <c r="Q16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R16" t="s">
         <v>6</v>
@@ -4584,19 +4584,19 @@
         <v>6</v>
       </c>
       <c r="M52" t="s">
+        <v>348</v>
+      </c>
+      <c r="N52" t="s">
+        <v>349</v>
+      </c>
+      <c r="O52" t="s">
         <v>350</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>351</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>352</v>
-      </c>
-      <c r="P52" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>354</v>
       </c>
       <c r="R52" t="s">
         <v>6</v>
@@ -4858,7 +4858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4937,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4985,7 +4987,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -5033,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -5075,16 +5077,16 @@
         <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5123,16 +5125,16 @@
         <v>326</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5171,16 +5173,16 @@
         <v>326</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5219,16 +5221,16 @@
         <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5321,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -5369,7 +5371,7 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -5417,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -5792,20 +5794,20 @@
         <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN100abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>directorGEN100abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5840,20 +5842,20 @@
         <v>326</v>
       </c>
       <c r="G21" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN700abcd(g)jqu$e = director OR $4 = drt</v>
+        <v>directorGEN700abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L21" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5888,20 +5890,20 @@
         <v>328</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN710abcd(g)(n)u$e = director OR $4 = drt</v>
+        <v>directorGEN710abcd(g)(n)u$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5936,20 +5938,20 @@
         <v>326</v>
       </c>
       <c r="G23" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN100abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>editorGEN100abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5984,20 +5986,20 @@
         <v>326</v>
       </c>
       <c r="G24" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN700abcd(g)jqu$e = editor OR $4 = edt</v>
+        <v>editorGEN700abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6029,10 +6031,10 @@
         <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -6080,13 +6082,13 @@
         <v>184</v>
       </c>
       <c r="G26" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" t="s">
         <v>358</v>
-      </c>
-      <c r="H26" t="s">
-        <v>355</v>
-      </c>
-      <c r="I26" t="s">
-        <v>360</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -6128,13 +6130,13 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -6170,10 +6172,10 @@
         <v>999</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -6221,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -6269,7 +6271,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -6419,7 +6421,7 @@
         <v>266</v>
       </c>
       <c r="I33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J33" t="s">
         <v>6</v>
@@ -6467,7 +6469,7 @@
         <v>266</v>
       </c>
       <c r="I34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
@@ -6515,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
@@ -6563,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
         <v>6</v>
@@ -9683,7 +9685,7 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J101" t="s">
         <v>325</v>
@@ -9731,7 +9733,7 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J102" t="s">
         <v>325</v>
@@ -9779,7 +9781,7 @@
         <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J103" t="s">
         <v>325</v>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="373">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -554,30 +554,6 @@
     <t>ItemNotes</t>
   </si>
   <si>
-    <t>Used to sort by popularity</t>
-  </si>
-  <si>
-    <t>Circulation Level</t>
-  </si>
-  <si>
-    <t>circulation_count</t>
-  </si>
-  <si>
-    <t>Total of circulation counts for all items attached to bibliographic record</t>
-  </si>
-  <si>
-    <t>SUM of circulation count for items attached to bib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do we plan on keeping Sort by Popularity function? It doesn't work well at all. </t>
-  </si>
-  <si>
-    <t>SUM of this value across all attached item records</t>
-  </si>
-  <si>
-    <t>calculated</t>
-  </si>
-  <si>
     <t>DUKE</t>
   </si>
   <si>
@@ -879,9 +855,6 @@
   </si>
   <si>
     <t>https://trlnmain.atlassian.net/browse/TD-371</t>
-  </si>
-  <si>
-    <t>https://trlnmain.atlassian.net/browse/TD-151?jql=text%20~%20%22popular%22</t>
   </si>
   <si>
     <t>creator_main</t>
@@ -1271,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1282,8 +1255,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1295,6 +1266,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1319,16 +1300,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1444,8 +1415,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
-  <autoFilter ref="A1:U53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U52" totalsRowShown="0">
+  <autoFilter ref="A1:U52"/>
   <sortState ref="A2:U56">
     <sortCondition ref="A2:A56"/>
   </sortState>
@@ -1481,8 +1452,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="field" dataDxfId="10"/>
     <tableColumn id="3" name="desc" dataDxfId="9"/>
@@ -1494,8 +1465,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N103" totalsRowShown="0">
-  <autoFilter ref="A1:N103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N102" totalsRowShown="0">
+  <autoFilter ref="A1:N102"/>
   <sortState ref="A2:N103">
     <sortCondition ref="A2:A103"/>
     <sortCondition ref="C2:C103"/>
@@ -1508,22 +1479,22 @@
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="5"/>
+    <tableColumn id="4" name="element/field" dataDxfId="6"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="4">
+    <tableColumn id="10" name="mapping_id" dataDxfId="5">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="2">
+    <tableColumn id="13" name="field issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="1">
+    <tableColumn id="14" name="field defined?" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1807,11 +1778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1809,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -1847,10 +1818,10 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>70</v>
@@ -1889,7 +1860,7 @@
         <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
         <v>147</v>
@@ -1900,10 +1871,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1927,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
@@ -1936,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -1945,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="S2" t="s">
         <v>6</v>
@@ -1967,7 +1938,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1994,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
@@ -2003,16 +1974,16 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2025,77 +1996,38 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
       <c r="P4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2107,7 +2039,7 @@
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2120,10 +2052,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2135,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="T6" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2148,10 +2080,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2163,7 +2095,7 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="T7" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2176,10 +2108,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2190,7 +2122,40 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
       <c r="P8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q8" t="s">
         <v>41</v>
       </c>
       <c r="T8" s="8">
@@ -2199,15 +2164,15 @@
       </c>
       <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2225,13 +2190,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2240,18 +2205,15 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="O9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q9" t="s">
         <v>41</v>
       </c>
       <c r="T9" s="8">
@@ -2265,135 +2227,105 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="8">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" t="s">
-        <v>83</v>
-      </c>
       <c r="P11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11">
+        <v>301</v>
+      </c>
+      <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U11">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2405,7 +2337,7 @@
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="T12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2418,10 +2350,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2432,8 +2364,44 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>311</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>345</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>331</v>
+      </c>
+      <c r="N13" t="s">
+        <v>332</v>
+      </c>
+      <c r="O13" t="s">
+        <v>338</v>
+      </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>304</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>336</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
       </c>
       <c r="T13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2441,15 +2409,15 @@
       </c>
       <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2460,44 +2428,8 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>320</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>354</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
-        <v>340</v>
-      </c>
-      <c r="N14" t="s">
-        <v>341</v>
-      </c>
-      <c r="O14" t="s">
-        <v>347</v>
-      </c>
       <c r="P14" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>345</v>
-      </c>
-      <c r="R14" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2505,15 +2437,15 @@
       </c>
       <c r="U14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2524,8 +2456,44 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" t="s">
+        <v>333</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" t="s">
+        <v>335</v>
+      </c>
+      <c r="O15" t="s">
+        <v>338</v>
+      </c>
       <c r="P15" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>337</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6</v>
       </c>
       <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2533,62 +2501,65 @@
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="N16" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="Q16" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
         <v>6</v>
       </c>
       <c r="T16" s="8">
@@ -2597,15 +2568,15 @@
       </c>
       <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2614,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>172</v>
@@ -2623,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
@@ -2632,28 +2603,28 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="Q17" t="s">
         <v>41</v>
       </c>
       <c r="R17" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="S17" t="s">
         <v>6</v>
@@ -2669,10 +2640,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2681,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
         <v>172</v>
@@ -2699,22 +2670,22 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="s">
+        <v>240</v>
+      </c>
+      <c r="N18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s">
         <v>242</v>
-      </c>
-      <c r="L18" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s">
-        <v>246</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" t="s">
-        <v>247</v>
       </c>
       <c r="Q18" t="s">
         <v>41</v>
@@ -2736,10 +2707,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2748,46 +2719,46 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q19" t="s">
         <v>41</v>
       </c>
       <c r="R19" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="S19" t="s">
         <v>6</v>
@@ -2803,10 +2774,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2815,40 +2786,40 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
         <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="N20" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
         <v>41</v>
@@ -2870,10 +2841,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2882,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
         <v>172</v>
@@ -2894,28 +2865,28 @@
         <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="Q21" t="s">
         <v>41</v>
@@ -2937,7 +2908,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
         <v>293</v>
@@ -2946,52 +2917,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" t="s">
-        <v>242</v>
-      </c>
-      <c r="L22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M22" t="s">
-        <v>241</v>
-      </c>
-      <c r="N22" t="s">
-        <v>244</v>
-      </c>
-      <c r="O22" t="s">
         <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2999,15 +2931,15 @@
       </c>
       <c r="U22">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -3019,7 +2951,7 @@
         <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3032,10 +2964,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -3047,7 +2979,7 @@
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3060,22 +2992,55 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>208</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="s">
+        <v>189</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>312</v>
+        <v>199</v>
+      </c>
+      <c r="S25" t="s">
+        <v>6</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3083,15 +3048,15 @@
       </c>
       <c r="U25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3100,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
@@ -3109,31 +3074,37 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
         <v>196</v>
       </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M26" t="s">
-        <v>197</v>
-      </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>254</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" t="s">
+        <v>41</v>
       </c>
       <c r="S26" t="s">
         <v>6</v>
@@ -3144,15 +3115,15 @@
       </c>
       <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3161,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -3179,28 +3150,28 @@
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="N27" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="S27" t="s">
         <v>6</v>
@@ -3211,15 +3182,15 @@
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3228,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -3249,25 +3220,25 @@
         <v>159</v>
       </c>
       <c r="L28" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q28" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s">
         <v>6</v>
@@ -3278,15 +3249,15 @@
       </c>
       <c r="U28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3295,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -3316,22 +3287,22 @@
         <v>159</v>
       </c>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M29" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="Q29" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="R29" t="s">
         <v>170</v>
@@ -3350,10 +3321,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3362,19 +3333,19 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
       <c r="H30" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>41</v>
@@ -3383,25 +3354,25 @@
         <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q30" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="S30" t="s">
         <v>6</v>
@@ -3412,15 +3383,15 @@
       </c>
       <c r="U30">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3429,46 +3400,46 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
         <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="N31" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R31" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s">
         <v>6</v>
@@ -3484,25 +3455,25 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
         <v>41</v>
@@ -3514,28 +3485,28 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
         <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Q32" t="s">
         <v>41</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S32" t="s">
         <v>6</v>
@@ -3546,30 +3517,30 @@
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
@@ -3581,28 +3552,28 @@
         <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="Q33" t="s">
         <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="S33" t="s">
         <v>6</v>
@@ -3613,137 +3584,137 @@
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s">
         <v>216</v>
       </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s">
-        <v>159</v>
-      </c>
-      <c r="L34" t="s">
-        <v>193</v>
-      </c>
-      <c r="M34" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" t="s">
-        <v>219</v>
-      </c>
-      <c r="O34" t="s">
-        <v>41</v>
-      </c>
-      <c r="P34" t="s">
-        <v>220</v>
-      </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="S34" t="s">
         <v>6</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" t="s">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="N35" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="Q35" t="s">
         <v>41</v>
       </c>
       <c r="R35" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="S35" t="s">
         <v>6</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3752,10 +3723,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3766,49 +3737,10 @@
       <c r="E36" t="s">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" t="s">
-        <v>114</v>
-      </c>
-      <c r="N36" t="s">
-        <v>191</v>
-      </c>
-      <c r="O36" t="s">
-        <v>83</v>
-      </c>
       <c r="P36" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" t="s">
-        <v>212</v>
-      </c>
-      <c r="S36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T36">
+        <v>303</v>
+      </c>
+      <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -3819,10 +3751,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -3834,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3847,10 +3779,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3862,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3875,10 +3807,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -3890,7 +3822,7 @@
         <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3903,10 +3835,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -3918,7 +3850,7 @@
         <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3931,26 +3863,65 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
       </c>
+      <c r="F41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" t="s">
+        <v>226</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" t="s">
+        <v>227</v>
+      </c>
+      <c r="N41" t="s">
+        <v>228</v>
+      </c>
+      <c r="O41" t="s">
+        <v>41</v>
+      </c>
       <c r="P41" t="s">
-        <v>312</v>
+        <v>229</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>230</v>
+      </c>
+      <c r="R41" t="s">
+        <v>231</v>
+      </c>
+      <c r="S41" t="s">
+        <v>6</v>
       </c>
       <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3959,77 +3930,77 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="N42" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="O42" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="Q42" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="R42" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="S42" t="s">
         <v>6</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
       <c r="U42">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4053,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
         <v>82</v>
@@ -4062,41 +4033,41 @@
         <v>41</v>
       </c>
       <c r="M43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O43" t="s">
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R43" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="S43" t="s">
         <v>6</v>
       </c>
       <c r="T43">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4120,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
         <v>82</v>
@@ -4129,41 +4100,41 @@
         <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="O44" t="s">
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Q44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R44" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="S44" t="s">
         <v>6</v>
       </c>
       <c r="T44">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4181,56 +4152,53 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="N45" t="s">
-        <v>102</v>
-      </c>
-      <c r="O45" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="P45" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="Q45" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="R45" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="S45" t="s">
         <v>6</v>
       </c>
       <c r="T45">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -4248,56 +4216,59 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="N46" t="s">
-        <v>202</v>
+        <v>85</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="Q46" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="R46" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="S46" t="s">
         <v>6</v>
       </c>
       <c r="T46">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -4318,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="K47" t="s">
         <v>82</v>
@@ -4327,22 +4298,22 @@
         <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="N47" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="O47" t="s">
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="Q47" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="R47" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="S47" t="s">
         <v>6</v>
@@ -4353,15 +4324,15 @@
       </c>
       <c r="U47">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -4385,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
         <v>82</v>
@@ -4394,16 +4365,16 @@
         <v>41</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N48" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O48" t="s">
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q48" t="s">
         <v>41</v>
@@ -4425,13 +4396,13 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -4439,51 +4410,12 @@
       <c r="E49" t="s">
         <v>41</v>
       </c>
-      <c r="F49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" t="s">
-        <v>82</v>
-      </c>
-      <c r="L49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" t="s">
-        <v>121</v>
-      </c>
-      <c r="N49" t="s">
-        <v>122</v>
-      </c>
-      <c r="O49" t="s">
-        <v>86</v>
-      </c>
       <c r="P49" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s">
-        <v>6</v>
-      </c>
-      <c r="S49" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49">
+        <v>308</v>
+      </c>
+      <c r="T49" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4492,10 +4424,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4507,7 +4439,7 @@
         <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4520,10 +4452,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4534,8 +4466,47 @@
       <c r="E51" t="s">
         <v>41</v>
       </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" t="s">
+        <v>339</v>
+      </c>
+      <c r="N51" t="s">
+        <v>340</v>
+      </c>
+      <c r="O51" t="s">
+        <v>341</v>
+      </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>342</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>343</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S51" t="s">
+        <v>6</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4543,15 +4514,15 @@
       </c>
       <c r="U51">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -4562,81 +4533,14 @@
       <c r="E52" t="s">
         <v>41</v>
       </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>309</v>
-      </c>
-      <c r="I52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" t="s">
-        <v>348</v>
-      </c>
-      <c r="N52" t="s">
-        <v>349</v>
-      </c>
-      <c r="O52" t="s">
-        <v>350</v>
-      </c>
       <c r="P52" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>352</v>
-      </c>
-      <c r="R52" t="s">
-        <v>6</v>
-      </c>
-      <c r="S52" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="T52" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>299</v>
-      </c>
-      <c r="B53" t="s">
-        <v>302</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>41</v>
-      </c>
-      <c r="P53" t="s">
-        <v>319</v>
-      </c>
-      <c r="T53" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U53">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4651,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4674,7 +4578,7 @@
         <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,8 +4591,8 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>280</v>
+      <c r="D2" s="10" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,25 +4680,25 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>180</v>
+      <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>284</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -4805,44 +4709,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>282</v>
+      <c r="D12" s="11" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4856,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,12 +4800,12 @@
         <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4930,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -4939,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4963,7 +4853,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4977,8 +4867,8 @@
       <c r="E3" s="1">
         <v>110</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>328</v>
+      <c r="F3" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4987,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -5011,7 +4901,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -5026,7 +4916,7 @@
         <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -5035,7 +4925,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -5059,7 +4949,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5074,19 +4964,19 @@
         <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5107,7 +4997,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5122,19 +5012,19 @@
         <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5155,7 +5045,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5170,19 +5060,19 @@
         <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5203,7 +5093,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5218,19 +5108,19 @@
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J8" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5251,38 +5141,38 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>circulation_countUNC999oi1=9 AND i2=1</v>
+        <v>creator_mainGEN100abcd(g)jqu.</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5290,7 +5180,7 @@
       </c>
       <c r="M9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -5299,7 +5189,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -5311,10 +5201,10 @@
         <v>139</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>326</v>
+        <v>110</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -5323,14 +5213,14 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN100abcd(g)jqu.</v>
+        <v>creator_mainGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5347,7 +5237,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5359,10 +5249,10 @@
         <v>139</v>
       </c>
       <c r="E11" s="1">
-        <v>110</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>328</v>
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>321</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -5371,14 +5261,14 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN110abcd(g)(n)u.</v>
+        <v>creator_mainGEN111acde(g)(n)qu.</v>
       </c>
       <c r="L11" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5395,7 +5285,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5407,26 +5297,26 @@
         <v>139</v>
       </c>
       <c r="E12" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN111acde(g)(n)qu.</v>
+        <v>creator_main_relatorGEN100e4.</v>
       </c>
       <c r="L12" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5443,7 +5333,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5455,10 +5345,10 @@
         <v>139</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -5467,14 +5357,14 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN100e4.</v>
+        <v>creator_main_relatorGEN110e4.</v>
       </c>
       <c r="L13" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5491,7 +5381,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5503,10 +5393,10 @@
         <v>139</v>
       </c>
       <c r="E14" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -5515,14 +5405,14 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN110e4.</v>
+        <v>creator_main_relatorGEN111j4.</v>
       </c>
       <c r="L14" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5539,22 +5429,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1">
-        <v>111</v>
+        <v>946</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5563,14 +5453,14 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K15" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN111j4.</v>
+        <v>date_catalogedDUKE946b.</v>
       </c>
       <c r="L15" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5596,13 +5486,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -5618,7 +5508,7 @@
       </c>
       <c r="K16" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedDUKE946b.</v>
+        <v>date_catalogedNCSU909a.</v>
       </c>
       <c r="L16" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5644,16 +5534,16 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1">
-        <v>909</v>
+        <v>999</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -5664,15 +5554,15 @@
       <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCSU909a.</v>
-      </c>
-      <c r="L17" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="K17" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
+      </c>
+      <c r="L17">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5689,38 +5579,35 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1">
-        <v>999</v>
+        <v>178</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
-      </c>
-      <c r="L18">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="K18" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedNCCU...</v>
+      </c>
+      <c r="L18" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5731,39 +5618,42 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>366</v>
+      </c>
+      <c r="J19" t="s">
+        <v>329</v>
       </c>
       <c r="K19" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCCU...</v>
+        <v>directorGEN100abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L19" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -5776,7 +5666,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -5788,26 +5678,26 @@
         <v>139</v>
       </c>
       <c r="E20" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F20" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN100abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
+        <v>directorGEN700abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5824,7 +5714,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5836,26 +5726,26 @@
         <v>139</v>
       </c>
       <c r="E21" s="1">
-        <v>700</v>
-      </c>
-      <c r="F21" t="s">
-        <v>326</v>
+        <v>710</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN700abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
+        <v>directorGEN710abcd(g)(n)u$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L21" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5872,7 +5762,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5884,26 +5774,26 @@
         <v>139</v>
       </c>
       <c r="E22" s="1">
-        <v>710</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>328</v>
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>317</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN710abcd(g)(n)u$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
+        <v>editorGEN100abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5920,7 +5810,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5932,26 +5822,26 @@
         <v>139</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G23" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN100abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
+        <v>editorGEN700abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5968,38 +5858,38 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1">
-        <v>700</v>
+        <v>999</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="H24" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN700abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
+        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6016,7 +5906,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -6031,23 +5921,23 @@
         <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6064,7 +5954,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -6079,23 +5969,20 @@
         <v>999</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
+        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
       </c>
       <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6112,7 +5999,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -6127,20 +6014,23 @@
         <v>999</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>353</v>
       </c>
       <c r="G27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>357</v>
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
+        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6157,7 +6047,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6172,10 +6062,10 @@
         <v>999</v>
       </c>
       <c r="F28" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -6188,7 +6078,7 @@
       </c>
       <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
       </c>
       <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6205,7 +6095,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6223,7 +6113,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -6236,7 +6126,7 @@
       </c>
       <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
+        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6253,7 +6143,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6268,23 +6158,23 @@
         <v>999</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
+        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6301,7 +6191,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6316,23 +6206,23 @@
         <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
         <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>item_due_dateUNC999di1=9 AND i2=1</v>
       </c>
       <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6349,7 +6239,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6357,30 +6247,30 @@
       <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="1">
         <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
         <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6397,7 +6287,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6412,23 +6302,23 @@
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J33" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6445,7 +6335,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -6460,23 +6350,23 @@
         <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
       </c>
       <c r="L34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6493,7 +6383,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6508,23 +6398,23 @@
         <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
       <c r="K35" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6541,7 +6431,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -6556,23 +6446,23 @@
         <v>999</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="J36" t="s">
         <v>6</v>
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>item_noteUNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6589,7 +6479,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6597,14 +6487,14 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="1">
         <v>999</v>
       </c>
       <c r="F37" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
         <v>158</v>
@@ -6620,7 +6510,7 @@
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>item_record_idUNC999ii1=9 AND i2=1</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6637,7 +6527,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6652,13 +6542,13 @@
         <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="H38" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
@@ -6668,7 +6558,7 @@
       </c>
       <c r="K38" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L38" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6700,23 +6590,23 @@
         <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I39" t="s">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="J39" t="s">
         <v>6</v>
       </c>
       <c r="K39" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L39" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6748,23 +6638,23 @@
         <v>999</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I40" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>6</v>
+        <v>263</v>
       </c>
       <c r="K40" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L40" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6781,46 +6671,46 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1">
-        <v>999</v>
+        <v>600</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
-      </c>
-      <c r="K41" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
-      </c>
-      <c r="L41" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K41" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
+      </c>
+      <c r="L41">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N41" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6841,7 +6731,7 @@
         <v>139</v>
       </c>
       <c r="E42" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
@@ -6860,7 +6750,7 @@
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6889,7 +6779,7 @@
         <v>139</v>
       </c>
       <c r="E43" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -6908,7 +6798,7 @@
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6937,7 +6827,7 @@
         <v>139</v>
       </c>
       <c r="E44" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -6956,7 +6846,7 @@
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6985,7 +6875,7 @@
         <v>139</v>
       </c>
       <c r="E45" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
@@ -7004,7 +6894,7 @@
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7033,7 +6923,7 @@
         <v>139</v>
       </c>
       <c r="E46" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -7052,7 +6942,7 @@
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7081,7 +6971,7 @@
         <v>139</v>
       </c>
       <c r="E47" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
@@ -7100,7 +6990,7 @@
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7123,19 +7013,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F48" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -7144,11 +7034,11 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7165,38 +7055,38 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="1">
-        <v>648</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7204,7 +7094,7 @@
       </c>
       <c r="M49">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7228,7 +7118,7 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -7237,14 +7127,14 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7273,26 +7163,26 @@
         <v>139</v>
       </c>
       <c r="E51" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7324,7 +7214,7 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
@@ -7333,14 +7223,14 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7369,26 +7259,26 @@
         <v>139</v>
       </c>
       <c r="E53" s="1">
-        <v>8</v>
-      </c>
-      <c r="F53">
-        <v>34</v>
+        <v>600</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7417,7 +7307,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -7436,7 +7326,7 @@
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7465,7 +7355,7 @@
         <v>139</v>
       </c>
       <c r="E55" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -7484,7 +7374,7 @@
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7513,7 +7403,7 @@
         <v>139</v>
       </c>
       <c r="E56" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -7532,7 +7422,7 @@
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7561,7 +7451,7 @@
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -7580,7 +7470,7 @@
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7609,7 +7499,7 @@
         <v>139</v>
       </c>
       <c r="E58" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -7628,7 +7518,7 @@
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7657,7 +7547,7 @@
         <v>139</v>
       </c>
       <c r="E59" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -7676,7 +7566,7 @@
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7699,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -7720,11 +7610,11 @@
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7753,7 +7643,7 @@
         <v>139</v>
       </c>
       <c r="E61" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -7768,11 +7658,11 @@
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7801,26 +7691,26 @@
         <v>139</v>
       </c>
       <c r="E62" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7855,7 +7745,7 @@
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
@@ -7864,11 +7754,11 @@
         <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7903,7 +7793,7 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -7912,11 +7802,11 @@
         <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7951,7 +7841,7 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
@@ -7960,11 +7850,11 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7999,20 +7889,20 @@
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8044,23 +7934,23 @@
         <v>655</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8095,7 +7985,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -8104,11 +7994,11 @@
         <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8143,7 +8033,7 @@
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -8152,11 +8042,11 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8191,7 +8081,7 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -8200,11 +8090,11 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8233,13 +8123,13 @@
         <v>139</v>
       </c>
       <c r="E71" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -8248,11 +8138,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8281,10 +8171,10 @@
         <v>139</v>
       </c>
       <c r="E72" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
         <v>34</v>
@@ -8300,7 +8190,7 @@
       </c>
       <c r="K72" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8317,25 +8207,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>139</v>
       </c>
       <c r="E73" s="1">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -8344,11 +8234,11 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K73" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8356,7 +8246,7 @@
       </c>
       <c r="M73">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8377,7 +8267,7 @@
         <v>139</v>
       </c>
       <c r="E74" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -8396,7 +8286,7 @@
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8425,7 +8315,7 @@
         <v>139</v>
       </c>
       <c r="E75" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -8444,7 +8334,7 @@
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8473,7 +8363,7 @@
         <v>139</v>
       </c>
       <c r="E76" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
@@ -8492,7 +8382,7 @@
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L76">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8521,7 +8411,7 @@
         <v>139</v>
       </c>
       <c r="E77" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -8540,7 +8430,7 @@
       </c>
       <c r="K77" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L77">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8569,7 +8459,7 @@
         <v>139</v>
       </c>
       <c r="E78" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -8588,7 +8478,7 @@
       </c>
       <c r="K78" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L78">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8617,7 +8507,7 @@
         <v>139</v>
       </c>
       <c r="E79" s="1">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -8636,7 +8526,7 @@
       </c>
       <c r="K79" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L79">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8659,19 +8549,19 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
         <v>139</v>
       </c>
       <c r="E80" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
@@ -8680,11 +8570,11 @@
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K80" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L80">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8701,38 +8591,38 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
         <v>139</v>
       </c>
       <c r="E81" s="1">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K81" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L81">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8764,23 +8654,23 @@
         <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K82" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L82">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8809,26 +8699,26 @@
         <v>139</v>
       </c>
       <c r="E83" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K83" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L83">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8860,23 +8750,23 @@
         <v>610</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="K84" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L84">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8905,26 +8795,26 @@
         <v>139</v>
       </c>
       <c r="E85" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="K85" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L85">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8956,23 +8846,23 @@
         <v>611</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K86" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L86">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9001,26 +8891,26 @@
         <v>139</v>
       </c>
       <c r="E87" s="1">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K87" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L87">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9052,23 +8942,23 @@
         <v>630</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K88" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L88">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9097,16 +8987,16 @@
         <v>139</v>
       </c>
       <c r="E89" s="1">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
         <v>6</v>
@@ -9116,7 +9006,7 @@
       </c>
       <c r="K89" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L89">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9148,13 +9038,13 @@
         <v>650</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
@@ -9164,7 +9054,7 @@
       </c>
       <c r="K90" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L90">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9193,7 +9083,7 @@
         <v>139</v>
       </c>
       <c r="E91" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -9212,7 +9102,7 @@
       </c>
       <c r="K91" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L91">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9235,32 +9125,32 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="1">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G92" t="s">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K92" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L92">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9292,13 +9182,13 @@
         <v>647</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
@@ -9308,7 +9198,7 @@
       </c>
       <c r="K93" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L93">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9337,7 +9227,7 @@
         <v>139</v>
       </c>
       <c r="E94" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9352,11 +9242,11 @@
         <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K94" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L94">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9385,7 +9275,7 @@
         <v>139</v>
       </c>
       <c r="E95" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9400,15 +9290,15 @@
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>6</v>
+      </c>
+      <c r="K95" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L95">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9433,13 +9323,13 @@
         <v>139</v>
       </c>
       <c r="E96" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H96" t="s">
         <v>5</v>
@@ -9448,15 +9338,15 @@
         <v>6</v>
       </c>
       <c r="J96" t="s">
-        <v>6</v>
-      </c>
-      <c r="K96" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>50</v>
+      </c>
+      <c r="K96" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L96">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9484,7 +9374,7 @@
         <v>656</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9496,11 +9386,11 @@
         <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K97" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L97">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9529,10 +9419,10 @@
         <v>139</v>
       </c>
       <c r="E98" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9544,11 +9434,11 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K98" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L98">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9580,7 +9470,7 @@
         <v>657</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9596,7 +9486,7 @@
       </c>
       <c r="K99" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L99">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9613,46 +9503,46 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
         <v>139</v>
       </c>
       <c r="E100" s="1">
-        <v>657</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
-      </c>
-      <c r="K100" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
-      </c>
-      <c r="L100">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="K100" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
+      </c>
+      <c r="L100" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N100" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9661,7 +9551,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -9673,10 +9563,10 @@
         <v>139</v>
       </c>
       <c r="E101" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F101" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -9685,14 +9575,14 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J101" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K101" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN100f(g)klnpt.</v>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
       </c>
       <c r="L101" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9709,7 +9599,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -9721,10 +9611,10 @@
         <v>139</v>
       </c>
       <c r="E102" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9733,14 +9623,14 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J102" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
       </c>
       <c r="L102" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9755,57 +9645,9 @@
         <v>y</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E103" s="1">
-        <v>111</v>
-      </c>
-      <c r="F103" t="s">
-        <v>329</v>
-      </c>
-      <c r="G103" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" t="s">
-        <v>379</v>
-      </c>
-      <c r="J103" t="s">
-        <v>325</v>
-      </c>
-      <c r="K103" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
-      </c>
-      <c r="L103" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N103" s="8" t="str">
-        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
-        <v>y</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K65">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="K3:K64">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -9819,7 +9661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9931,7 +9773,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -9940,7 +9782,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="369">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -473,27 +474,6 @@
     <t>issue ct</t>
   </si>
   <si>
-    <t>item_due_date</t>
-  </si>
-  <si>
-    <t>item_record_id</t>
-  </si>
-  <si>
-    <t>item_call_number</t>
-  </si>
-  <si>
-    <t>item_status</t>
-  </si>
-  <si>
-    <t>item_type</t>
-  </si>
-  <si>
-    <t>holdings_record_id</t>
-  </si>
-  <si>
-    <t>holdings_call_number</t>
-  </si>
-  <si>
     <t>Unique identifier for an item record in host institution's ILS. Could be record number or barcode.</t>
   </si>
   <si>
@@ -527,21 +507,12 @@
     <t>Will be blank if item is NOT checked out</t>
   </si>
   <si>
-    <t>Shelving location code for item</t>
-  </si>
-  <si>
     <t>Inform user what section/area of stacks to go to in order to find the item</t>
   </si>
   <si>
     <t>Location_property</t>
   </si>
   <si>
-    <t>CODE, not display value</t>
-  </si>
-  <si>
-    <t>Map to readable label for display</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -590,18 +561,12 @@
     <t>Status: Due #{date}</t>
   </si>
   <si>
-    <t>item_note</t>
-  </si>
-  <si>
     <t>call number</t>
   </si>
   <si>
     <t>Full call number from item record (classification number + shelving cutter + shelf marks + volume/copy designators)</t>
   </si>
   <si>
-    <t>Library building/branch/larger location in which the shelving location is found</t>
-  </si>
-  <si>
     <t>Inform user what library building or main section/area to go to in order to find the item</t>
   </si>
   <si>
@@ -629,15 +594,9 @@
     <t>Call Number</t>
   </si>
   <si>
-    <t>item_classification_scheme</t>
-  </si>
-  <si>
     <t>An item may have more than one item note. They should be displayed in order.</t>
   </si>
   <si>
-    <t>Empty if not checked out</t>
-  </si>
-  <si>
     <t>documentation</t>
   </si>
   <si>
@@ -656,9 +615,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>item_requestable</t>
-  </si>
-  <si>
     <t>Status of individual item</t>
   </si>
   <si>
@@ -668,39 +624,15 @@
     <t>Statuses</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop/agree upon a standard set of statuses, and how they map to bib_availability value? </t>
-  </si>
-  <si>
     <t>Type/format for individual item</t>
   </si>
   <si>
-    <t>Do we need this in Argot/Argon? Will any features use it? Not sure if any do in Endeca.</t>
-  </si>
-  <si>
     <t>ItemTypes</t>
   </si>
   <si>
-    <t>Placeholder for possibility of representing this in data/index instead of on-the-fly</t>
-  </si>
-  <si>
     <t>holdings</t>
   </si>
   <si>
-    <t>holdings_note</t>
-  </si>
-  <si>
-    <t>item_location_library</t>
-  </si>
-  <si>
-    <t>item_location_shelf</t>
-  </si>
-  <si>
-    <t>holdings_location_library</t>
-  </si>
-  <si>
-    <t>holdings_location_shelf</t>
-  </si>
-  <si>
     <t>resource_type</t>
   </si>
   <si>
@@ -749,9 +681,6 @@
     <t>SerialHoldingsSummary &gt; Library</t>
   </si>
   <si>
-    <t>Shelving location code for items covered by the holdings statement</t>
-  </si>
-  <si>
     <t>Inform user what section/area of stacks to go to in order to find the items covered by holdings statement</t>
   </si>
   <si>
@@ -770,9 +699,6 @@
     <t>SerialHoldingsSummary &gt; Call #</t>
   </si>
   <si>
-    <t>holdings_summary</t>
-  </si>
-  <si>
     <t>Public notes from the item record</t>
   </si>
   <si>
@@ -824,39 +750,18 @@
     <t>f</t>
   </si>
   <si>
-    <t>bib_locations_hierarchical</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t xml:space="preserve">Higher-level (library, etc.) locations housing volumes/copies of the resource described in the bib record </t>
   </si>
   <si>
-    <t>Support for hierarchical location facet; polyhierarchy already existing in Endeca</t>
-  </si>
-  <si>
-    <t>Recommended: limit to physical places people can go -- Online and E-resource are NOT locations</t>
-  </si>
-  <si>
-    <t>Determine best way to derive/represent data; I've provided something that seems to make sense to me and serves as an example of what we are doing now with polyhierarchy and "sublocations", that we need to still be able to do</t>
-  </si>
-  <si>
     <t>jira ref</t>
   </si>
   <si>
     <t>https://trlnmain.atlassian.net/browse/TD-370</t>
   </si>
   <si>
-    <t>https://github.com/trln/data-documentation/blob/master/argot/questions_issues/location.md</t>
-  </si>
-  <si>
-    <t>https://trlnmain.atlassian.net/browse/TD-363</t>
-  </si>
-  <si>
-    <t>https://trlnmain.atlassian.net/browse/TD-371</t>
-  </si>
-  <si>
     <t>creator_main</t>
   </si>
   <si>
@@ -1146,6 +1051,90 @@
   </si>
   <si>
     <t>$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</t>
+  </si>
+  <si>
+    <t>call_no (holdings)</t>
+  </si>
+  <si>
+    <t>loc_b (holdings)</t>
+  </si>
+  <si>
+    <t>loc_n (holdings)</t>
+  </si>
+  <si>
+    <t>rec_id (holdings)</t>
+  </si>
+  <si>
+    <t>summary (holdings)</t>
+  </si>
+  <si>
+    <t>notes (holdings)</t>
+  </si>
+  <si>
+    <t>Broad location: Library building/branch/larger location in which the shelving location is found</t>
+  </si>
+  <si>
+    <t>Narrow location: Area of library, shelving location, etc. code for items covered by the holdings statement</t>
+  </si>
+  <si>
+    <t>ILS code. Do not translate to human-readable label in MARC-to-Argot</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/data-documentation/blob/master/argot/examples/holdings.md</t>
+  </si>
+  <si>
+    <t>call_no (items)</t>
+  </si>
+  <si>
+    <t>cn_scheme (items)</t>
+  </si>
+  <si>
+    <t>due_date (items)</t>
+  </si>
+  <si>
+    <t>loc_b (items)</t>
+  </si>
+  <si>
+    <t>loc_n (items)</t>
+  </si>
+  <si>
+    <t>notes (items)</t>
+  </si>
+  <si>
+    <t>rec_id (items)</t>
+  </si>
+  <si>
+    <t>status (items)</t>
+  </si>
+  <si>
+    <t>type (items)</t>
+  </si>
+  <si>
+    <t>Narrow location: Area of library, shelving location code for item</t>
+  </si>
+  <si>
+    <t>Only populated if item status = Checked out</t>
+  </si>
+  <si>
+    <t>Output human-readable status. Institution-specific status messages are output at item level. These will be mapped to a standardized, central set of broader "status" categories for use outside individual item display</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/data-documentation/blob/master/argot/examples/items.md</t>
+  </si>
+  <si>
+    <t>Currently defined as single value. Have asked Adam if it is ever multivalued for NCSU -- 2017-10-25</t>
+  </si>
+  <si>
+    <t>Slack DM</t>
+  </si>
+  <si>
+    <t>location_facet</t>
+  </si>
+  <si>
+    <t>Support for abstract, polyhierarchical location facet. Facet limits/excludes BIB records.</t>
+  </si>
+  <si>
+    <t>Create documentation in this repo</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,6 +1165,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1244,7 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1256,10 +1251,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,11 +1412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U52" totalsRowShown="0">
-  <autoFilter ref="A1:U52"/>
-  <sortState ref="A2:U56">
-    <sortCondition ref="A2:A56"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U51" totalsRowShown="0">
+  <autoFilter ref="A1:U51"/>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1452,8 +1446,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="field" dataDxfId="10"/>
     <tableColumn id="3" name="desc" dataDxfId="9"/>
@@ -1778,11 +1772,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="1" ySplit="15" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1809,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -1818,10 +1818,10 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>70</v>
@@ -1860,7 +1860,7 @@
         <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="T1" t="s">
         <v>147</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
@@ -1907,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -1916,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="S2" t="s">
         <v>6</v>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
@@ -1974,20 +1974,29 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N3" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>266</v>
+        <v>240</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
       </c>
       <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -1996,10 +2005,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2011,7 +2020,7 @@
         <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2024,10 +2033,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2052,10 +2061,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2067,7 +2076,7 @@
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="T6" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2080,10 +2089,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2108,10 +2117,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2129,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I8" t="s">
         <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -2144,16 +2153,16 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="O8" t="s">
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Q8" t="s">
         <v>41</v>
@@ -2169,10 +2178,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2205,10 +2214,10 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="N9" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="O9" t="s">
         <v>41</v>
@@ -2242,7 +2251,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -2294,10 +2303,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2309,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2322,10 +2331,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2350,10 +2359,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2365,19 +2374,19 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -2386,19 +2395,19 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="N13" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="O13" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="P13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" t="s">
         <v>304</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>336</v>
       </c>
       <c r="R13" t="s">
         <v>6</v>
@@ -2414,10 +2423,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2429,7 +2438,7 @@
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2442,10 +2451,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2457,40 +2466,40 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="K15" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="N15" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="O15" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="P15" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Q15" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="R15" t="s">
         <v>6</v>
@@ -2506,10 +2515,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2518,16 +2527,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -2536,22 +2545,22 @@
         <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" t="s">
         <v>185</v>
       </c>
-      <c r="M16" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" t="s">
-        <v>197</v>
-      </c>
       <c r="O16" t="s">
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="Q16" t="s">
         <v>41</v>
@@ -2560,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2573,10 +2582,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2585,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -2603,31 +2612,31 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="N17" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="Q17" t="s">
         <v>41</v>
       </c>
       <c r="R17" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="S17" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2640,10 +2649,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2652,49 +2661,49 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N18" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s">
         <v>218</v>
       </c>
-      <c r="F18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>234</v>
-      </c>
-      <c r="L18" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" t="s">
-        <v>240</v>
-      </c>
-      <c r="N18" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" t="s">
-        <v>242</v>
-      </c>
       <c r="Q18" t="s">
         <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="S18" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2707,10 +2716,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2719,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
@@ -2737,22 +2746,22 @@
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="Q19" t="s">
         <v>41</v>
@@ -2761,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2774,10 +2783,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2786,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -2798,7 +2807,7 @@
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -2810,10 +2819,10 @@
         <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
@@ -2828,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="S20" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2841,10 +2850,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2853,10 +2862,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
@@ -2871,22 +2880,22 @@
         <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="Q21" t="s">
         <v>41</v>
@@ -2895,7 +2904,7 @@
         <v>6</v>
       </c>
       <c r="S21" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2908,10 +2917,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2923,7 +2932,7 @@
         <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2936,10 +2945,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2964,10 +2973,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2979,7 +2988,7 @@
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2992,10 +3001,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -3004,16 +3013,16 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
         <v>41</v>
@@ -3022,25 +3031,25 @@
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
         <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="S25" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3053,10 +3062,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3065,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
@@ -3089,16 +3098,16 @@
         <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="Q26" t="s">
         <v>41</v>
@@ -3107,7 +3116,7 @@
         <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3120,10 +3129,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3132,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
@@ -3150,31 +3159,31 @@
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="N27" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q27" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="R27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S27" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3187,10 +3196,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3199,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -3217,31 +3226,31 @@
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="N28" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="S28" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3254,10 +3263,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3266,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -3284,31 +3293,31 @@
         <v>41</v>
       </c>
       <c r="K29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" t="s">
+        <v>360</v>
+      </c>
+      <c r="N29" t="s">
         <v>159</v>
       </c>
-      <c r="L29" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" t="s">
-        <v>166</v>
-      </c>
-      <c r="N29" t="s">
-        <v>167</v>
-      </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q29" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3321,10 +3330,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3333,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -3351,31 +3360,31 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="N30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Q30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R30" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="S30" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3388,10 +3397,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3400,10 +3409,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
@@ -3424,16 +3433,16 @@
         <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
@@ -3442,7 +3451,7 @@
         <v>41</v>
       </c>
       <c r="S31" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3455,25 +3464,25 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>41</v>
@@ -3485,31 +3494,31 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="Q32" t="s">
         <v>41</v>
       </c>
       <c r="R32" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="S32" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3517,15 +3526,15 @@
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3534,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
         <v>2</v>
@@ -3552,102 +3561,102 @@
         <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="Q33" t="s">
         <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="S33" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T33" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M34" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="N34" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S34" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3656,10 +3665,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3670,49 +3679,10 @@
       <c r="E35" t="s">
         <v>41</v>
       </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" t="s">
-        <v>114</v>
-      </c>
-      <c r="N35" t="s">
-        <v>183</v>
-      </c>
-      <c r="O35" t="s">
-        <v>83</v>
-      </c>
       <c r="P35" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" t="s">
-        <v>204</v>
-      </c>
-      <c r="S35" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35">
+        <v>271</v>
+      </c>
+      <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -3723,10 +3693,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3738,7 +3708,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3751,10 +3721,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -3766,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3779,10 +3749,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3794,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3807,10 +3777,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -3822,7 +3792,7 @@
         <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3835,26 +3805,65 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>204</v>
+      </c>
+      <c r="N40" t="s">
+        <v>205</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
+      </c>
       <c r="P40" t="s">
-        <v>303</v>
+        <v>206</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>207</v>
+      </c>
+      <c r="R40" t="s">
+        <v>208</v>
+      </c>
+      <c r="S40" t="s">
+        <v>6</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3863,77 +3872,77 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="N41" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="O41" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="Q41" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="R41" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="S41" t="s">
         <v>6</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
       <c r="U41">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3945,7 +3954,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
@@ -3957,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s">
         <v>82</v>
@@ -3966,41 +3975,41 @@
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O42" t="s">
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R42" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="S42" t="s">
         <v>6</v>
       </c>
       <c r="T42">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4012,7 +4021,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -4024,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
         <v>82</v>
@@ -4033,41 +4042,41 @@
         <v>41</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N43" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="O43" t="s">
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Q43" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R43" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="S43" t="s">
         <v>6</v>
       </c>
       <c r="T43">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4079,62 +4088,59 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="I44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="M44" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="N44" t="s">
-        <v>102</v>
-      </c>
-      <c r="O44" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="P44" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="Q44" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="R44" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="S44" t="s">
         <v>6</v>
       </c>
       <c r="T44">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4146,62 +4152,65 @@
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>194</v>
+        <v>85</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="Q45" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="R45" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="S45" t="s">
         <v>6</v>
       </c>
       <c r="T45">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -4210,7 +4219,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
@@ -4222,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="K46" t="s">
         <v>82</v>
@@ -4231,22 +4240,22 @@
         <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="N46" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="O46" t="s">
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="Q46" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="S46" t="s">
         <v>6</v>
@@ -4257,15 +4266,15 @@
       </c>
       <c r="U46">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -4277,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
@@ -4289,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s">
         <v>82</v>
@@ -4298,16 +4307,16 @@
         <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N47" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O47" t="s">
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q47" t="s">
         <v>41</v>
@@ -4329,13 +4338,13 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -4343,51 +4352,12 @@
       <c r="E48" t="s">
         <v>41</v>
       </c>
-      <c r="F48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" t="s">
-        <v>121</v>
-      </c>
-      <c r="N48" t="s">
-        <v>122</v>
-      </c>
-      <c r="O48" t="s">
-        <v>86</v>
-      </c>
       <c r="P48" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s">
-        <v>6</v>
-      </c>
-      <c r="S48" t="s">
-        <v>6</v>
-      </c>
-      <c r="T48">
+        <v>276</v>
+      </c>
+      <c r="T48" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4396,10 +4366,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -4411,7 +4381,7 @@
         <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="T49" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4424,10 +4394,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4438,8 +4408,47 @@
       <c r="E50" t="s">
         <v>41</v>
       </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>268</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" t="s">
+        <v>307</v>
+      </c>
+      <c r="N50" t="s">
+        <v>308</v>
+      </c>
+      <c r="O50" t="s">
+        <v>309</v>
+      </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>310</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>311</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" t="s">
+        <v>6</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4447,15 +4456,15 @@
       </c>
       <c r="U50">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4466,81 +4475,14 @@
       <c r="E51" t="s">
         <v>41</v>
       </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>300</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" t="s">
-        <v>339</v>
-      </c>
-      <c r="N51" t="s">
-        <v>340</v>
-      </c>
-      <c r="O51" t="s">
-        <v>341</v>
-      </c>
       <c r="P51" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>343</v>
-      </c>
-      <c r="R51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S51" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P52" t="s">
-        <v>310</v>
-      </c>
-      <c r="T52" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U52">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4555,11 +4497,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4578,7 +4521,7 @@
         <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,14 +4623,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>215</v>
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
@@ -4695,10 +4638,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -4708,32 +4651,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="A11" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4748,9 +4673,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4800,12 +4726,12 @@
         <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4820,7 +4746,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -4829,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4853,7 +4779,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4867,8 +4793,8 @@
       <c r="E3" s="1">
         <v>110</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>319</v>
+      <c r="F3" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4877,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -4901,7 +4827,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4916,7 +4842,7 @@
         <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -4925,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -4949,7 +4875,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4964,19 +4890,19 @@
         <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -4997,7 +4923,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5012,19 +4938,19 @@
         <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5045,7 +4971,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5060,19 +4986,19 @@
         <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5093,7 +5019,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5108,19 +5034,19 @@
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5141,7 +5067,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -5156,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -5165,7 +5091,7 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -5189,7 +5115,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -5203,8 +5129,8 @@
       <c r="E10" s="1">
         <v>110</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>319</v>
+      <c r="F10" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -5213,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -5237,7 +5163,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5252,7 +5178,7 @@
         <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -5261,7 +5187,7 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -5285,7 +5211,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5300,7 +5226,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -5309,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -5333,7 +5259,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5348,7 +5274,7 @@
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -5357,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
@@ -5381,7 +5307,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5396,7 +5322,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -5405,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
@@ -5438,13 +5364,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1">
         <v>946</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5486,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1">
         <v>909</v>
@@ -5582,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -5618,7 +5544,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -5633,19 +5559,19 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="K19" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5666,7 +5592,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -5681,16 +5607,16 @@
         <v>700</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -5714,7 +5640,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5728,17 +5654,17 @@
       <c r="E21" s="1">
         <v>710</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>319</v>
+      <c r="F21" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
@@ -5762,7 +5688,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5777,19 +5703,19 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5810,7 +5736,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5825,16 +5751,16 @@
         <v>700</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
@@ -5858,7 +5784,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -5873,10 +5799,10 @@
         <v>999</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
@@ -5889,7 +5815,7 @@
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_call_numberUNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>call_no (holdings)UNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5906,7 +5832,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -5921,23 +5847,23 @@
         <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="I25" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_libraryUNC999bi1=9 and i2=2</v>
+        <v>loc_b (holdings)UNC999bi1=9 and i2=2</v>
       </c>
       <c r="L25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5954,7 +5880,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -5969,20 +5895,20 @@
         <v>999</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_location_shelfUNC999bi1=9 and i2=2</v>
+        <v>loc_n (holdings)UNC999bi1=9 and i2=2</v>
       </c>
       <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5999,7 +5925,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -6014,10 +5940,10 @@
         <v>999</v>
       </c>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="G27" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
@@ -6030,7 +5956,7 @@
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_noteUNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>notes (holdings)UNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6047,7 +5973,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6065,7 +5991,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -6078,7 +6004,7 @@
       </c>
       <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_record_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
+        <v>rec_id (holdings)UNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
       </c>
       <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6095,7 +6021,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6113,7 +6039,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -6126,7 +6052,7 @@
       </c>
       <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>holdings_summaryUNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
+        <v>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6143,7 +6069,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6158,23 +6084,23 @@
         <v>999</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_call_numberUNC999qvci1=9 AND i2=1</v>
+        <v>call_no (items)UNC999qvci1=9 AND i2=1</v>
       </c>
       <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6191,7 +6117,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6206,10 +6132,10 @@
         <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -6218,11 +6144,11 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_due_dateUNC999di1=9 AND i2=1</v>
+        <v>due_date (items)UNC999di1=9 AND i2=1</v>
       </c>
       <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6239,7 +6165,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6254,23 +6180,23 @@
         <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="I32" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999li1=9 AND i2=1</v>
+        <v>loc_b (items)UNC999li1=9 AND i2=1</v>
       </c>
       <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6287,7 +6213,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6302,23 +6228,23 @@
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_libraryUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>loc_b (items)UNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6335,7 +6261,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -6350,23 +6276,23 @@
         <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999li1=9 AND i2=1</v>
+        <v>loc_n (items)UNC999li1=9 AND i2=1</v>
       </c>
       <c r="L34" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6383,7 +6309,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6398,23 +6324,23 @@
         <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
       </c>
       <c r="K35" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_location_shelfUNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>loc_n (items)UNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L35" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6431,7 +6357,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -6449,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -6462,7 +6388,7 @@
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_noteUNC999ni1=9 AND i2=1</v>
+        <v>notes (items)UNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6479,7 +6405,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6494,10 +6420,10 @@
         <v>999</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -6510,7 +6436,7 @@
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_record_idUNC999ii1=9 AND i2=1</v>
+        <v>rec_id (items)UNC999ii1=9 AND i2=1</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6527,7 +6453,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6542,13 +6468,13 @@
         <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
@@ -6558,7 +6484,7 @@
       </c>
       <c r="K38" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>status (items)UNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L38" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6575,7 +6501,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -6590,23 +6516,23 @@
         <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="I39" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
         <v>6</v>
       </c>
       <c r="K39" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>status (items)UNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L39" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6623,7 +6549,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -6641,20 +6567,20 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="K40" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_statusUNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>status (items)UNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L40" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9503,7 +9429,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -9518,7 +9444,7 @@
         <v>100</v>
       </c>
       <c r="F100" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="G100" t="s">
         <v>6</v>
@@ -9527,10 +9453,10 @@
         <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="J100" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="K100" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9551,7 +9477,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -9566,7 +9492,7 @@
         <v>110</v>
       </c>
       <c r="F101" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -9575,10 +9501,10 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="J101" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="K101" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9599,7 +9525,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -9614,7 +9540,7 @@
         <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9623,10 +9549,10 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="J102" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -9661,9 +9587,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9773,7 +9700,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -9782,7 +9709,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="371">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1135,6 +1134,12 @@
   </si>
   <si>
     <t>Create documentation in this repo</t>
+  </si>
+  <si>
+    <t>Array of holdings elements, each representing a holdings record attached to the bib. Each holdings element is an an escaped JSON string</t>
+  </si>
+  <si>
+    <t>Array of item elements, each representing an item record attached to the bib. Each item element is an an escaped JSON string</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1417,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U51" totalsRowShown="0">
-  <autoFilter ref="A1:U51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
+  <autoFilter ref="A1:U53"/>
+  <sortState ref="A2:U51">
+    <sortCondition ref="A1:A51"/>
+  </sortState>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1772,17 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" ySplit="15" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,10 +1940,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1950,77 +1952,110 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="N3" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Q3" t="s">
         <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" t="s">
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>187</v>
+      </c>
+      <c r="S4" t="s">
+        <v>363</v>
       </c>
       <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2028,27 +2063,66 @@
       </c>
       <c r="U4">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" t="s">
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>229</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>363</v>
       </c>
       <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2061,7 +2135,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
@@ -2089,7 +2163,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>253</v>
@@ -2117,7 +2191,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>253</v>
@@ -2131,41 +2205,8 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>313</v>
-      </c>
-      <c r="K8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>280</v>
-      </c>
-      <c r="N8" t="s">
-        <v>281</v>
-      </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
       <c r="P8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="T8" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2173,12 +2214,12 @@
       </c>
       <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>253</v>
@@ -2192,36 +2233,6 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s">
-        <v>282</v>
-      </c>
-      <c r="N9" t="s">
-        <v>283</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
       <c r="P9" t="s">
         <v>41</v>
       </c>
@@ -2231,82 +2242,76 @@
       </c>
       <c r="U9">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="Q10" t="s">
         <v>41</v>
       </c>
-      <c r="R10" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10">
+      <c r="T10" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2317,8 +2322,38 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N11" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2326,43 +2361,82 @@
       </c>
       <c r="U11">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
       </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
       <c r="P12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" s="8">
+        <v>108</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2373,44 +2447,8 @@
       <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>313</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
-        <v>299</v>
-      </c>
-      <c r="N13" t="s">
-        <v>300</v>
-      </c>
-      <c r="O13" t="s">
-        <v>306</v>
-      </c>
       <c r="P13" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>304</v>
-      </c>
-      <c r="R13" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="T13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2418,15 +2456,15 @@
       </c>
       <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2438,7 +2476,7 @@
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2451,7 +2489,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
         <v>253</v>
@@ -2466,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -2481,25 +2519,25 @@
         <v>313</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O15" t="s">
         <v>306</v>
       </c>
       <c r="P15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R15" t="s">
         <v>6</v>
@@ -2510,66 +2548,27 @@
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>211</v>
-      </c>
-      <c r="L16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" t="s">
-        <v>221</v>
-      </c>
-      <c r="N16" t="s">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s">
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2577,15 +2576,15 @@
       </c>
       <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2594,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -2606,37 +2605,37 @@
         <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="N17" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="R17" t="s">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="S17" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2649,61 +2648,58 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="N18" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="R18" t="s">
-        <v>349</v>
-      </c>
-      <c r="S18" t="s">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2711,66 +2707,27 @@
       </c>
       <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" t="s">
-        <v>224</v>
-      </c>
-      <c r="N19" t="s">
-        <v>225</v>
-      </c>
-      <c r="O19" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2778,66 +2735,27 @@
       </c>
       <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" t="s">
-        <v>219</v>
-      </c>
-      <c r="N20" t="s">
-        <v>220</v>
-      </c>
-      <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
         <v>41</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" t="s">
-        <v>350</v>
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2845,66 +2763,27 @@
       </c>
       <c r="U20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" t="s">
-        <v>211</v>
-      </c>
-      <c r="L21" t="s">
-        <v>175</v>
-      </c>
-      <c r="M21" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2912,27 +2791,66 @@
       </c>
       <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>370</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s">
+        <v>363</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2945,22 +2863,61 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>369</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
+      </c>
       <c r="P23" t="s">
         <v>41</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" t="s">
+        <v>350</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2973,10 +2930,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2987,10 +2944,49 @@
       <c r="E24" t="s">
         <v>41</v>
       </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
       <c r="P24" t="s">
-        <v>271</v>
-      </c>
-      <c r="T24" s="8">
+        <v>111</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" t="s">
+        <v>190</v>
+      </c>
+      <c r="S24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -3001,10 +2997,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -3013,43 +3009,49 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
         <v>175</v>
       </c>
       <c r="M25" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>216</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" t="s">
+        <v>349</v>
       </c>
       <c r="S25" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3062,7 +3064,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B26" t="s">
         <v>251</v>
@@ -3077,7 +3079,7 @@
         <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
@@ -3092,28 +3094,28 @@
         <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="Q26" t="s">
         <v>41</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="S26" t="s">
         <v>363</v>
@@ -3124,15 +3126,15 @@
       </c>
       <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -3141,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
@@ -3153,37 +3155,37 @@
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="N27" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="Q27" t="s">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="R27" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="S27" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="T27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3196,7 +3198,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B28" t="s">
         <v>251</v>
@@ -3232,16 +3234,16 @@
         <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="N28" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
@@ -3263,10 +3265,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3275,65 +3277,65 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="Q29" t="s">
         <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3342,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
         <v>162</v>
@@ -3360,31 +3362,31 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
         <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
       </c>
       <c r="R30" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="S30" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3397,7 +3399,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
         <v>251</v>
@@ -3415,40 +3417,40 @@
         <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="N31" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
       </c>
       <c r="R31" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="S31" t="s">
         <v>363</v>
@@ -3464,61 +3466,22 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" t="s">
-        <v>175</v>
-      </c>
-      <c r="M32" t="s">
-        <v>195</v>
-      </c>
-      <c r="N32" t="s">
-        <v>196</v>
-      </c>
-      <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" t="s">
-        <v>362</v>
-      </c>
-      <c r="S32" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3526,70 +3489,31 @@
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" t="s">
-        <v>198</v>
-      </c>
-      <c r="N33" t="s">
-        <v>86</v>
-      </c>
-      <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="T33" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3598,89 +3522,128 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>6</v>
-      </c>
-      <c r="T34">
+        <v>350</v>
+      </c>
+      <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>149</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s">
+        <v>363</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3688,15 +3651,15 @@
       </c>
       <c r="U35">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3708,7 +3671,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3721,7 +3684,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>261</v>
@@ -3736,7 +3699,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3749,10 +3712,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3764,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3777,26 +3740,65 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
+      </c>
       <c r="P39" t="s">
-        <v>271</v>
+        <v>206</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>207</v>
+      </c>
+      <c r="R39" t="s">
+        <v>208</v>
+      </c>
+      <c r="S39" t="s">
+        <v>6</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3805,69 +3807,69 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="M40" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N40" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O40" t="s">
         <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q40" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="S40" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4338,22 +4340,61 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" t="s">
+        <v>211</v>
+      </c>
+      <c r="L48" t="s">
+        <v>175</v>
+      </c>
+      <c r="M48" t="s">
+        <v>210</v>
+      </c>
+      <c r="N48" t="s">
+        <v>213</v>
+      </c>
+      <c r="O48" t="s">
         <v>41</v>
       </c>
       <c r="P48" t="s">
-        <v>276</v>
+        <v>214</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>41</v>
+      </c>
+      <c r="R48" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" t="s">
+        <v>350</v>
       </c>
       <c r="T48" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4361,15 +4402,15 @@
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -4381,7 +4422,7 @@
         <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="T49" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4394,10 +4435,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4408,47 +4449,8 @@
       <c r="E50" t="s">
         <v>41</v>
       </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>268</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" t="s">
-        <v>307</v>
-      </c>
-      <c r="N50" t="s">
-        <v>308</v>
-      </c>
-      <c r="O50" t="s">
-        <v>309</v>
-      </c>
       <c r="P50" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>311</v>
-      </c>
-      <c r="R50" t="s">
-        <v>6</v>
-      </c>
-      <c r="S50" t="s">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4456,33 +4458,167 @@
       </c>
       <c r="U50">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" t="s">
+        <v>198</v>
+      </c>
+      <c r="N51" t="s">
+        <v>86</v>
+      </c>
+      <c r="O51" t="s">
         <v>41</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>199</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S51" t="s">
+        <v>363</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>268</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" t="s">
+        <v>307</v>
+      </c>
+      <c r="N52" t="s">
+        <v>308</v>
+      </c>
+      <c r="O52" t="s">
+        <v>309</v>
+      </c>
+      <c r="P52" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>311</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" t="s">
+        <v>278</v>
+      </c>
+      <c r="T53" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4502,7 +4638,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4676,7 +4811,6 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9590,7 +9724,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -1418,10 +1418,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
-  <autoFilter ref="A1:U53"/>
-  <sortState ref="A2:U51">
-    <sortCondition ref="A1:A51"/>
-  </sortState>
+  <autoFilter ref="A1:U53">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="holdings data"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1783,8 +1786,8 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U23" sqref="U23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>264</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>354</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>355</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>366</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>356</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>294</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>357</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>358</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>262</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>359</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="369">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>loc_n (holdings)</t>
   </si>
   <si>
-    <t>rec_id (holdings)</t>
-  </si>
-  <si>
     <t>summary (holdings)</t>
   </si>
   <si>
@@ -1100,9 +1097,6 @@
     <t>notes (items)</t>
   </si>
   <si>
-    <t>rec_id (items)</t>
-  </si>
-  <si>
     <t>status (items)</t>
   </si>
   <si>
@@ -1121,12 +1115,6 @@
     <t>https://github.com/trln/data-documentation/blob/master/argot/examples/items.md</t>
   </si>
   <si>
-    <t>Currently defined as single value. Have asked Adam if it is ever multivalued for NCSU -- 2017-10-25</t>
-  </si>
-  <si>
-    <t>Slack DM</t>
-  </si>
-  <si>
     <t>location_facet</t>
   </si>
   <si>
@@ -1140,6 +1128,12 @@
   </si>
   <si>
     <t>Array of item elements, each representing an item record attached to the bib. Each item element is an an escaped JSON string</t>
+  </si>
+  <si>
+    <t>holdings_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1259,7 +1253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1418,13 +1411,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
-  <autoFilter ref="A1:U53">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="holdings data"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U53"/>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1457,8 +1444,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="field" dataDxfId="10"/>
     <tableColumn id="3" name="desc" dataDxfId="9"/>
@@ -1787,7 +1774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -1997,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2008,9 +1995,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>251</v>
@@ -2058,7 +2045,7 @@
         <v>187</v>
       </c>
       <c r="S4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2069,9 +2056,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>251</v>
@@ -2125,7 +2112,7 @@
         <v>41</v>
       </c>
       <c r="S5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2136,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -2164,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>293</v>
       </c>
@@ -2192,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -2220,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -2248,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -2309,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -2367,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2434,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -2462,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -2490,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -2554,7 +2541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>264</v>
       </c>
@@ -2582,9 +2569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -2632,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="Q17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R17" t="s">
         <v>156</v>
       </c>
       <c r="S17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2649,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -2713,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -2741,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -2769,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -2797,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -2835,7 +2822,7 @@
         <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N22" t="s">
         <v>6</v>
@@ -2853,7 +2840,7 @@
         <v>41</v>
       </c>
       <c r="S22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2902,7 +2889,7 @@
         <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N23" t="s">
         <v>6</v>
@@ -2920,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2931,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3036,7 +3023,7 @@
         <v>175</v>
       </c>
       <c r="M25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N25" t="s">
         <v>215</v>
@@ -3051,10 +3038,10 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
+        <v>348</v>
+      </c>
+      <c r="S25" t="s">
         <v>349</v>
-      </c>
-      <c r="S25" t="s">
-        <v>350</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3065,9 +3052,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
         <v>251</v>
@@ -3103,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="M26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N26" t="s">
         <v>179</v>
@@ -3118,10 +3105,10 @@
         <v>41</v>
       </c>
       <c r="R26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3170,7 +3157,7 @@
         <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N27" t="s">
         <v>217</v>
@@ -3185,10 +3172,10 @@
         <v>41</v>
       </c>
       <c r="R27" t="s">
+        <v>348</v>
+      </c>
+      <c r="S27" t="s">
         <v>349</v>
-      </c>
-      <c r="S27" t="s">
-        <v>350</v>
       </c>
       <c r="T27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3199,9 +3186,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
         <v>251</v>
@@ -3237,7 +3224,7 @@
         <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N28" t="s">
         <v>159</v>
@@ -3252,10 +3239,10 @@
         <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3266,9 +3253,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -3307,7 +3294,7 @@
         <v>241</v>
       </c>
       <c r="N29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
@@ -3335,7 +3322,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B30" t="s">
         <v>252</v>
@@ -3389,7 +3376,7 @@
         <v>6</v>
       </c>
       <c r="S30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3400,9 +3387,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B31" t="s">
         <v>251</v>
@@ -3456,7 +3443,7 @@
         <v>188</v>
       </c>
       <c r="S31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3467,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -3495,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>294</v>
       </c>
@@ -3525,7 +3512,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
         <v>252</v>
@@ -3579,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3590,9 +3577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
         <v>251</v>
@@ -3646,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="S35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3657,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -3685,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -3713,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -3741,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -3808,9 +3795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
         <v>251</v>
@@ -3861,10 +3848,10 @@
         <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="S40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3875,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4009,7 +3996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4076,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -4140,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4207,7 +4194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -4274,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4343,7 +4330,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" t="s">
         <v>252</v>
@@ -4397,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="S48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T48" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4408,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>262</v>
       </c>
@@ -4436,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>257</v>
       </c>
@@ -4464,9 +4451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s">
         <v>251</v>
@@ -4520,18 +4507,18 @@
         <v>6</v>
       </c>
       <c r="S51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -4598,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -4636,10 +4623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,42 +4748,28 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,7 +4785,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6062,7 +6035,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -6110,7 +6083,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6141,7 +6114,7 @@
       </c>
       <c r="K28" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>rec_id (holdings)UNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
+        <v>holdings_idUNC999a(i1=9 AND i2=2) AND $c &gt; 0</v>
       </c>
       <c r="L28" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6158,7 +6131,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6206,7 +6179,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6254,7 +6227,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6302,7 +6275,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6350,7 +6323,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6398,7 +6371,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -6446,7 +6419,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6494,7 +6467,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -6542,7 +6515,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6573,7 +6546,7 @@
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>rec_id (items)UNC999ii1=9 AND i2=1</v>
+        <v>item_idUNC999ii1=9 AND i2=1</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6590,7 +6563,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6638,7 +6611,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -6686,7 +6659,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="379">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -197,9 +197,6 @@
     <t>i1=0 AND i2=0</t>
   </si>
   <si>
-    <t>Convert to whatever standard date format you decide is best for this field. Note: It is expected that this field will be empty in provisional or on-the-fly records.</t>
-  </si>
-  <si>
     <t>source data format</t>
   </si>
   <si>
@@ -713,9 +710,6 @@
     <t>field defined?</t>
   </si>
   <si>
-    <t>qvc</t>
-  </si>
-  <si>
     <t>Class Schemes</t>
   </si>
   <si>
@@ -965,9 +959,6 @@
     <t>This should definitely be a separate searchable string in the title index, but unsure whether it needs to be displayed on its own -- it will be part of the work_citation field which is probably more suitable for display</t>
   </si>
   <si>
-    <t>derived from other field</t>
-  </si>
-  <si>
     <t>(Author)</t>
   </si>
   <si>
@@ -1134,6 +1125,45 @@
   </si>
   <si>
     <t>item_id</t>
+  </si>
+  <si>
+    <t>copy_no (items)</t>
+  </si>
+  <si>
+    <t>vol (items)</t>
+  </si>
+  <si>
+    <t>Volume indicator/designator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell volumes of serials/sets/etc apart. Sort items? </t>
+  </si>
+  <si>
+    <t>Copy number</t>
+  </si>
+  <si>
+    <t>Differentiate multiple copies of the same volume. Sort items?</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i1=9 AND i2=1 AND value != '1'</t>
+  </si>
+  <si>
+    <t>If necessary, convert to ISO 8601 date/timestamp format</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>call_no (holdings)UNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
 </sst>
 </file>
@@ -1272,16 +1302,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1295,6 +1315,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1410,8 +1440,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U53" totalsRowShown="0">
-  <autoFilter ref="A1:U53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U55" totalsRowShown="0">
+  <autoFilter ref="A1:U55"/>
+  <sortState ref="A2:U55">
+    <sortCondition ref="A1:A55"/>
+  </sortState>
   <tableColumns count="21">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1457,36 +1490,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N102" totalsRowShown="0">
-  <autoFilter ref="A1:N102"/>
-  <sortState ref="A2:N103">
-    <sortCondition ref="A2:A103"/>
-    <sortCondition ref="C2:C103"/>
-    <sortCondition ref="D2:D103"/>
-    <sortCondition ref="B2:B103"/>
-    <sortCondition ref="E2:E103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N104" totalsRowShown="0">
+  <autoFilter ref="A1:N104"/>
+  <sortState ref="A2:N104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="6"/>
+    <tableColumn id="4" name="element/field" dataDxfId="5"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="5">
+    <tableColumn id="10" name="mapping_id" dataDxfId="4">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="3">
+    <tableColumn id="13" name="field issue ct" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="2">
+    <tableColumn id="14" name="field defined?" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1495,8 +1524,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="mappingID"/>
     <tableColumn id="2" name="element"/>
@@ -1770,11 +1799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,75 +1827,75 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>80</v>
-      </c>
       <c r="S1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1890,16 +1919,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
@@ -1908,13 +1937,13 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
         <v>6</v>
@@ -1930,10 +1959,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1942,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -1960,23 +1989,23 @@
         <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
         <v>221</v>
       </c>
-      <c r="N3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>222</v>
-      </c>
       <c r="Q3" t="s">
         <v>41</v>
       </c>
@@ -1984,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="T3" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -1997,10 +2026,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2009,43 +2038,43 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" t="s">
         <v>177</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4" t="s">
-        <v>178</v>
-      </c>
       <c r="N4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4" t="s">
         <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T4" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2058,10 +2087,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2070,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -2094,16 +2123,16 @@
         <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
@@ -2112,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="S5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T5" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2125,10 +2154,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2140,7 +2169,7 @@
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T6" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2153,10 +2182,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -2181,22 +2210,61 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>370</v>
+      </c>
+      <c r="N8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O8" t="s">
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>358</v>
       </c>
       <c r="T8" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2204,15 +2272,15 @@
       </c>
       <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2224,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T9" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2237,10 +2305,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2251,40 +2319,7 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" t="s">
-        <v>280</v>
-      </c>
-      <c r="N10" t="s">
-        <v>281</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6</v>
-      </c>
       <c r="P10" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" t="s">
         <v>41</v>
       </c>
       <c r="T10" s="8">
@@ -2293,15 +2328,15 @@
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2319,13 +2354,13 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -2334,15 +2369,18 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="8">
@@ -2356,105 +2394,135 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
       <c r="G12" t="s">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>109</v>
-      </c>
-      <c r="S12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12">
+        <v>41</v>
+      </c>
+      <c r="T12" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
       <c r="P13" t="s">
-        <v>269</v>
-      </c>
-      <c r="T13" s="8">
+        <v>107</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2466,7 +2534,7 @@
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2479,10 +2547,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2493,44 +2561,8 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>279</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>299</v>
-      </c>
-      <c r="N15" t="s">
-        <v>300</v>
-      </c>
-      <c r="O15" t="s">
-        <v>306</v>
-      </c>
       <c r="P15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>304</v>
-      </c>
-      <c r="R15" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2538,15 +2570,15 @@
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2557,8 +2589,44 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>297</v>
+      </c>
+      <c r="N16" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16" t="s">
+        <v>304</v>
+      </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2566,12 +2634,12 @@
       </c>
       <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>251</v>
@@ -2580,52 +2648,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M17" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" t="s">
-        <v>154</v>
-      </c>
-      <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R17" t="s">
-        <v>156</v>
-      </c>
-      <c r="S17" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2633,63 +2662,66 @@
       </c>
       <c r="U17">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="N18" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="Q18" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="R18" t="s">
-        <v>6</v>
+        <v>155</v>
+      </c>
+      <c r="S18" t="s">
+        <v>358</v>
       </c>
       <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2697,15 +2729,15 @@
       </c>
       <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2715,37 +2747,112 @@
       </c>
       <c r="E19" t="s">
         <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>300</v>
+      </c>
+      <c r="N19" t="s">
+        <v>301</v>
+      </c>
+      <c r="O19" t="s">
+        <v>304</v>
       </c>
       <c r="P19" t="s">
         <v>269</v>
       </c>
+      <c r="Q19" t="s">
+        <v>303</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
       <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
       </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>362</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
       <c r="P20" t="s">
         <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
+        <v>346</v>
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2758,22 +2865,61 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>346</v>
       </c>
       <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2781,66 +2927,27 @@
       </c>
       <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" t="s">
-        <v>366</v>
-      </c>
-      <c r="N22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" t="s">
-        <v>41</v>
-      </c>
       <c r="P22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2853,61 +2960,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" t="s">
-        <v>365</v>
-      </c>
-      <c r="N23" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>41</v>
-      </c>
       <c r="P23" t="s">
         <v>41</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>41</v>
-      </c>
-      <c r="S23" t="s">
-        <v>349</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2920,10 +2988,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2934,49 +3002,10 @@
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O24" t="s">
-        <v>83</v>
-      </c>
       <c r="P24" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" t="s">
-        <v>190</v>
-      </c>
-      <c r="S24" t="s">
-        <v>6</v>
-      </c>
-      <c r="T24">
+        <v>269</v>
+      </c>
+      <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -2987,10 +3016,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2999,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -3011,37 +3040,37 @@
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>346</v>
+        <v>147</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3054,10 +3083,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -3066,49 +3095,49 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
       <c r="H26" t="s">
         <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="Q26" t="s">
         <v>41</v>
       </c>
       <c r="R26" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3116,82 +3145,82 @@
       </c>
       <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s">
-        <v>347</v>
+        <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="O27" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="Q27" t="s">
         <v>41</v>
       </c>
       <c r="R27" t="s">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="S27" t="s">
-        <v>349</v>
-      </c>
-      <c r="T27" s="8">
+        <v>6</v>
+      </c>
+      <c r="T27">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3200,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -3212,37 +3241,37 @@
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S28" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3250,15 +3279,15 @@
       </c>
       <c r="U28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3267,65 +3296,65 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="N29" t="s">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="Q29" t="s">
         <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3334,49 +3363,49 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
       </c>
       <c r="R30" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="S30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3389,10 +3418,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3401,49 +3430,49 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
       </c>
       <c r="R31" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="S31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3451,31 +3480,70 @@
       </c>
       <c r="U31">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
       </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>239</v>
+      </c>
+      <c r="N32" t="s">
+        <v>360</v>
+      </c>
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>238</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s">
+        <v>6</v>
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3484,22 +3552,61 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" t="s">
+        <v>223</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>225</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" t="s">
+        <v>346</v>
       </c>
       <c r="T33" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3507,15 +3614,15 @@
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3524,49 +3631,49 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" t="s">
+        <v>222</v>
+      </c>
+      <c r="N34" t="s">
         <v>162</v>
       </c>
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" t="s">
-        <v>219</v>
-      </c>
-      <c r="N34" t="s">
-        <v>220</v>
-      </c>
       <c r="O34" t="s">
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="S34" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3579,7 +3686,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
         <v>251</v>
@@ -3588,52 +3695,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" t="s">
-        <v>148</v>
-      </c>
-      <c r="N35" t="s">
-        <v>174</v>
-      </c>
-      <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" t="s">
-        <v>41</v>
-      </c>
-      <c r="S35" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3641,15 +3709,15 @@
       </c>
       <c r="U35">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3661,7 +3729,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3674,22 +3742,22 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s">
         <v>267</v>
-      </c>
-      <c r="B37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" t="s">
-        <v>41</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3702,10 +3770,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3717,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3730,65 +3798,26 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
-      <c r="F39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I39" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" t="s">
-        <v>203</v>
-      </c>
-      <c r="L39" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" t="s">
-        <v>204</v>
-      </c>
-      <c r="N39" t="s">
-        <v>205</v>
-      </c>
-      <c r="O39" t="s">
-        <v>41</v>
-      </c>
       <c r="P39" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>207</v>
-      </c>
-      <c r="R39" t="s">
-        <v>208</v>
-      </c>
-      <c r="S39" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3797,144 +3826,144 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="G40" t="s">
-        <v>2</v>
-      </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s">
         <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q40" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="R40" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="S40" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M41" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="Q41" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="R41" t="s">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="S41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41">
+        <v>358</v>
+      </c>
+      <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3946,62 +3975,62 @@
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S42" t="s">
         <v>6</v>
       </c>
       <c r="T42">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4013,62 +4042,62 @@
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
         <v>41</v>
       </c>
       <c r="M43" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N43" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Q43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="R43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S43" t="s">
         <v>6</v>
       </c>
       <c r="T43">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4080,59 +4109,62 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N44" t="s">
-        <v>182</v>
+        <v>101</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="Q44" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="R44" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S44" t="s">
         <v>6</v>
       </c>
       <c r="T44">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4144,65 +4176,62 @@
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="I45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="N45" t="s">
-        <v>85</v>
-      </c>
-      <c r="O45" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="P45" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="Q45" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="R45" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="S45" t="s">
         <v>6</v>
       </c>
       <c r="T45">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -4211,43 +4240,43 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s">
         <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="N46" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="s">
         <v>86</v>
       </c>
-      <c r="P46" t="s">
-        <v>119</v>
-      </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="R46" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S46" t="s">
         <v>6</v>
@@ -4258,15 +4287,15 @@
       </c>
       <c r="U46">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -4278,37 +4307,37 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
         <v>2</v>
       </c>
       <c r="J47" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" t="s">
         <v>81</v>
       </c>
-      <c r="K47" t="s">
-        <v>82</v>
-      </c>
       <c r="L47" t="s">
         <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="Q47" t="s">
         <v>41</v>
@@ -4330,52 +4359,52 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
         <v>3</v>
       </c>
-      <c r="E48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" t="s">
-        <v>2</v>
-      </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N48" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="O48" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="Q48" t="s">
         <v>41</v>
@@ -4384,35 +4413,74 @@
         <v>6</v>
       </c>
       <c r="S48" t="s">
-        <v>349</v>
-      </c>
-      <c r="T48" s="8">
+        <v>6</v>
+      </c>
+      <c r="T48">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s">
+        <v>210</v>
+      </c>
+      <c r="L49" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" t="s">
+        <v>209</v>
+      </c>
+      <c r="N49" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" t="s">
         <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>213</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" t="s">
+        <v>346</v>
       </c>
       <c r="T49" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4420,15 +4488,15 @@
       </c>
       <c r="U49">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4440,7 +4508,7 @@
         <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="T50" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4453,7 +4521,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
         <v>251</v>
@@ -4462,52 +4530,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" t="s">
-        <v>86</v>
-      </c>
-      <c r="M51" t="s">
-        <v>198</v>
-      </c>
-      <c r="N51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O51" t="s">
         <v>41</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>41</v>
-      </c>
-      <c r="R51" t="s">
-        <v>6</v>
-      </c>
-      <c r="S51" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="T51" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4520,28 +4549,28 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s">
         <v>41</v>
@@ -4550,31 +4579,31 @@
         <v>41</v>
       </c>
       <c r="K52" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="L52" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="M52" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="N52" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="O52" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="P52" t="s">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="Q52" t="s">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="R52" t="s">
         <v>6</v>
       </c>
       <c r="S52" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="T52" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4582,15 +4611,15 @@
       </c>
       <c r="U52">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -4601,14 +4630,148 @@
       <c r="E53" t="s">
         <v>41</v>
       </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" t="s">
+        <v>305</v>
+      </c>
+      <c r="N53" t="s">
+        <v>306</v>
+      </c>
+      <c r="O53" t="s">
+        <v>307</v>
+      </c>
       <c r="P53" t="s">
-        <v>278</v>
+        <v>308</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>309</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+      <c r="S53" t="s">
+        <v>6</v>
       </c>
       <c r="T53" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U53">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>368</v>
+      </c>
+      <c r="N54" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>41</v>
+      </c>
+      <c r="R54" t="s">
+        <v>6</v>
+      </c>
+      <c r="S54" t="s">
+        <v>358</v>
+      </c>
+      <c r="T54" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" t="s">
+        <v>276</v>
+      </c>
+      <c r="T55" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4637,30 +4800,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -4679,10 +4842,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -4696,7 +4859,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -4710,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -4724,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -4738,7 +4901,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -4749,10 +4912,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -4763,10 +4926,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -4782,66 +4945,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4850,13 +5015,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -4865,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -4889,7 +5054,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4898,13 +5063,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1">
         <v>110</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4913,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -4937,7 +5102,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4946,13 +5111,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1">
         <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -4961,7 +5126,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -4985,7 +5150,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4994,25 +5159,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1">
         <v>700</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K5" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5033,7 +5198,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5042,25 +5207,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1">
         <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K6" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5081,7 +5246,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5090,25 +5255,25 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1">
         <v>700</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K7" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5129,7 +5294,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5138,25 +5303,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1">
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5177,42 +5342,42 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN100abcd(g)jqu.</v>
+        <v>call_no (holdings)UNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -5225,38 +5390,38 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
-        <v>110</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>287</v>
+        <v>999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>228</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN110abcd(g)(n)u.</v>
+        <v>call_no (items)UNC999qi1=9 AND i2=1</v>
       </c>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5273,38 +5438,38 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
-        <v>111</v>
+        <v>999</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_mainGEN111acde(g)(n)qu.</v>
+        <v>copy_no (items)UNC999ci1=9 AND i2=1 AND value != '1'</v>
       </c>
       <c r="L11" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5321,7 +5486,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5330,29 +5495,29 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN100e4.</v>
+        <v>creator_mainGEN100abcd(g)jqu.</v>
       </c>
       <c r="L12" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5369,7 +5534,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5378,29 +5543,29 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1">
         <v>110</v>
       </c>
-      <c r="F13" t="s">
-        <v>290</v>
+      <c r="F13" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN110e4.</v>
+        <v>creator_mainGEN110abcd(g)(n)u.</v>
       </c>
       <c r="L13" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5417,7 +5582,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5426,29 +5591,29 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1">
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>creator_main_relatorGEN111j4.</v>
+        <v>creator_mainGEN111acde(g)(n)qu.</v>
       </c>
       <c r="L14" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5465,22 +5630,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E15" s="1">
-        <v>946</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -5489,14 +5654,14 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K15" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedDUKE946b.</v>
+        <v>creator_main_relatorGEN100e4.</v>
       </c>
       <c r="L15" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5513,22 +5678,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1">
-        <v>909</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -5537,14 +5702,14 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K16" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedNCSU909a.</v>
+        <v>creator_main_relatorGEN110e4.</v>
       </c>
       <c r="L16" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5561,44 +5726,44 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1">
-        <v>999</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
-      </c>
-      <c r="L17">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
+        <v>41</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>creator_main_relatorGEN111j4.</v>
+      </c>
+      <c r="L17" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5618,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -5630,10 +5795,13 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>374</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
       </c>
       <c r="K18" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -5654,38 +5822,38 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1">
-        <v>100</v>
+        <v>946</v>
       </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="J19" t="s">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="K19" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN100abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
+        <v>date_catalogedDUKE946b.</v>
       </c>
       <c r="L19" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5702,38 +5870,38 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="E20" s="1">
-        <v>700</v>
+        <v>909</v>
       </c>
       <c r="F20" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K20" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN700abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
+        <v>date_catalogedNCSU909a.</v>
       </c>
       <c r="L20" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5750,44 +5918,44 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1">
-        <v>710</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>287</v>
+        <v>999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>directorGEN710abcd(g)(n)u$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
-      </c>
-      <c r="L21" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
+        <v>6</v>
+      </c>
+      <c r="K21" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>date_catalogedUNC999ai1=0 AND i2=0</v>
+      </c>
+      <c r="L21">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
         <v>0</v>
       </c>
@@ -5798,7 +5966,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5807,29 +5975,29 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K22" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN100abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
+        <v>directorGEN100abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L22" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5846,7 +6014,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5855,29 +6023,29 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1">
         <v>700</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>editorGEN700abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
+        <v>directorGEN700abcd(g)jqu$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L23" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5894,38 +6062,38 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1">
-        <v>999</v>
-      </c>
-      <c r="F24" t="s">
-        <v>319</v>
+        <v>710</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>call_no (holdings)UNC999hijkmi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>directorGEN710abcd(g)(n)u$e = ('director' OR 'film director') OR $4 = ('drt' OR 'fmd')</v>
       </c>
       <c r="L24" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5942,7 +6110,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -5957,23 +6125,23 @@
         <v>999</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="K25" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>loc_b (holdings)UNC999bi1=9 and i2=2</v>
+        <v>due_date (items)UNC999di1=9 AND i2=1</v>
       </c>
       <c r="L25" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -5990,35 +6158,38 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E26" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>316</v>
+        <v>332</v>
+      </c>
+      <c r="J26" t="s">
+        <v>296</v>
       </c>
       <c r="K26" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>loc_n (holdings)UNC999bi1=9 and i2=2</v>
+        <v>editorGEN100abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L26" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6035,38 +6206,38 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E27" s="1">
-        <v>999</v>
+        <v>700</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H27" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>notes (holdings)UNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>editorGEN700abcd(g)jqu$e = ('editor' OR 'editor of compilation') OR $4 = ('edt' OR 'edc')</v>
       </c>
       <c r="L27" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6083,7 +6254,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -6101,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -6131,7 +6302,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -6146,23 +6317,23 @@
         <v>999</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K29" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
+        <v>item_idUNC999ii1=9 AND i2=1</v>
       </c>
       <c r="L29" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6179,7 +6350,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -6194,23 +6365,23 @@
         <v>999</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K30" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>call_no (items)UNC999qvci1=9 AND i2=1</v>
+        <v>loc_b (holdings)UNC999bi1=9 and i2=2</v>
       </c>
       <c r="L30" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6227,7 +6398,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -6235,30 +6406,30 @@
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>999</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="K31" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>due_date (items)UNC999di1=9 AND i2=1</v>
+        <v>loc_b (items)UNC999li1=9 AND i2=1</v>
       </c>
       <c r="L31" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6275,7 +6446,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -6290,23 +6461,23 @@
         <v>999</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>loc_b (items)UNC999li1=9 AND i2=1</v>
+        <v>loc_b (items)UNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
       </c>
       <c r="L32" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6323,7 +6494,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -6331,30 +6502,27 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="1">
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>316</v>
-      </c>
-      <c r="J33" t="s">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="K33" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>loc_b (items)UNC999fi1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>loc_n (holdings)UNC999bi1=9 and i2=2</v>
       </c>
       <c r="L33" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6371,7 +6539,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -6386,16 +6554,16 @@
         <v>999</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
         <v>6</v>
@@ -6419,7 +6587,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
@@ -6434,16 +6602,16 @@
         <v>999</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
         <v>6</v>
@@ -6467,7 +6635,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -6475,30 +6643,30 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1">
         <v>999</v>
       </c>
       <c r="F36" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>notes (items)UNC999ni1=9 AND i2=1</v>
+        <v>notes (holdings)UNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6515,7 +6683,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6523,17 +6691,17 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="1">
         <v>999</v>
       </c>
       <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>151</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -6546,7 +6714,7 @@
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>item_idUNC999ii1=9 AND i2=1</v>
+        <v>notes (items)UNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6563,7 +6731,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6578,23 +6746,23 @@
         <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="H38" t="s">
-        <v>232</v>
-      </c>
       <c r="I38" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="J38" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>status (items)UNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>status (items)UNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L38" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6611,7 +6779,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -6626,23 +6794,23 @@
         <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J39" t="s">
         <v>6</v>
       </c>
       <c r="K39" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>status (items)UNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>status (items)UNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L39" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6659,7 +6827,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -6677,16 +6845,16 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>378</v>
+      </c>
+      <c r="I40" t="s">
+        <v>235</v>
+      </c>
+      <c r="J40" t="s">
         <v>236</v>
-      </c>
-      <c r="H40" t="s">
-        <v>237</v>
-      </c>
-      <c r="I40" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" t="s">
-        <v>238</v>
       </c>
       <c r="K40" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
@@ -6716,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1">
         <v>600</v>
@@ -6764,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1">
         <v>610</v>
@@ -6812,7 +6980,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1">
         <v>611</v>
@@ -6860,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="1">
         <v>630</v>
@@ -6908,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1">
         <v>650</v>
@@ -6956,7 +7124,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="1">
         <v>651</v>
@@ -7004,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1">
         <v>655</v>
@@ -7052,7 +7220,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" s="1">
         <v>648</v>
@@ -7097,32 +7265,32 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="1">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>16</v>
+        <v>655</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7145,32 +7313,32 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>17</v>
+        <v>655</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7193,32 +7361,32 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="1">
-        <v>8</v>
-      </c>
-      <c r="F51">
-        <v>33</v>
+        <v>655</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7241,32 +7409,32 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1">
-        <v>8</v>
-      </c>
-      <c r="F52">
-        <v>34</v>
+        <v>655</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7289,32 +7457,32 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7340,29 +7508,29 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1">
-        <v>610</v>
-      </c>
-      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
         <v>6</v>
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7388,29 +7556,29 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="1">
-        <v>611</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7436,29 +7604,29 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="1">
-        <v>630</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
         <v>6</v>
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7484,29 +7652,29 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" s="1">
-        <v>650</v>
-      </c>
-      <c r="F57" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7532,10 +7700,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -7554,7 +7722,7 @@
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7580,10 +7748,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="1">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -7602,7 +7770,7 @@
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7625,13 +7793,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="1">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -7646,11 +7814,11 @@
         <v>6</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7673,13 +7841,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E61" s="1">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -7694,11 +7862,11 @@
         <v>6</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7721,32 +7889,32 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="1">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7769,32 +7937,32 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7817,32 +7985,32 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1">
         <v>655</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7868,29 +8036,29 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" s="1">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7916,29 +8084,29 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7964,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E67" s="1">
         <v>655</v>
@@ -8012,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E68" s="1">
         <v>655</v>
@@ -8060,7 +8228,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E69" s="1">
         <v>655</v>
@@ -8108,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" s="1">
         <v>655</v>
@@ -8156,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E71" s="1">
         <v>656</v>
@@ -8204,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E72" s="1">
         <v>657</v>
@@ -8252,7 +8420,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E73" s="1">
         <v>600</v>
@@ -8300,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E74" s="1">
         <v>610</v>
@@ -8348,7 +8516,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" s="1">
         <v>611</v>
@@ -8396,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="1">
         <v>630</v>
@@ -8444,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E77" s="1">
         <v>650</v>
@@ -8492,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E78" s="1">
         <v>651</v>
@@ -8540,7 +8708,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E79" s="1">
         <v>655</v>
@@ -8588,7 +8756,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" s="1">
         <v>648</v>
@@ -8636,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="1">
         <v>600</v>
@@ -8684,29 +8852,29 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K82" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L82">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8732,13 +8900,13 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
         <v>4</v>
@@ -8750,11 +8918,11 @@
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L83">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8780,29 +8948,29 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E84" s="1">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K84" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L84">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8828,13 +8996,13 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="1">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
@@ -8846,11 +9014,11 @@
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K85" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L85">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8873,32 +9041,32 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" s="1">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K86" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L86">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8924,29 +9092,29 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K87" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L87">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8972,10 +9140,10 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -8994,7 +9162,7 @@
       </c>
       <c r="K88" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L88">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9020,19 +9188,19 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" s="1">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
         <v>6</v>
@@ -9042,7 +9210,7 @@
       </c>
       <c r="K89" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L89">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9068,10 +9236,10 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E90" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -9090,7 +9258,7 @@
       </c>
       <c r="K90" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L90">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9116,10 +9284,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E91" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -9138,7 +9306,7 @@
       </c>
       <c r="K91" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L91">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9161,32 +9329,32 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E92" s="1">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K92" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L92">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9212,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" s="1">
         <v>647</v>
@@ -9260,7 +9428,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E94" s="1">
         <v>648</v>
@@ -9308,7 +9476,7 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E95" s="1">
         <v>655</v>
@@ -9356,7 +9524,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E96" s="1">
         <v>656</v>
@@ -9404,7 +9572,7 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1">
         <v>656</v>
@@ -9452,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" s="1">
         <v>657</v>
@@ -9500,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E99" s="1">
         <v>657</v>
@@ -9539,38 +9707,38 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E100" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="F100" t="s">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="J100" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="K100" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN100f(g)klnpt.</v>
+        <v>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L100" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9587,7 +9755,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -9596,13 +9764,13 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E101" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -9611,14 +9779,14 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K101" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
       </c>
       <c r="L101" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9635,7 +9803,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -9644,13 +9812,13 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9659,31 +9827,127 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+      </c>
+      <c r="L102" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="1">
+        <v>111</v>
+      </c>
+      <c r="F103" t="s">
+        <v>286</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s">
+        <v>335</v>
+      </c>
+      <c r="J103" t="s">
+        <v>282</v>
+      </c>
+      <c r="K103" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
         <v>uniform_titleGEN111f(g)kl(n)pt.</v>
       </c>
-      <c r="L102" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="8" t="str">
+      <c r="L103" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" s="1">
+        <v>999</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>150</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>6</v>
+      </c>
+      <c r="K104" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>vol (items)UNC999vi1=9 AND i2=1</v>
+      </c>
+      <c r="L104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K64">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -9695,10 +9959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9711,21 +9975,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>655</v>
@@ -9734,7 +9998,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9748,7 +10012,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,7 +10026,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9776,7 +10040,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9787,10 +10051,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,21 +10068,35 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="383">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1164,6 +1164,18 @@
   </si>
   <si>
     <t>constant</t>
+  </si>
+  <si>
+    <t>location_hierarchy</t>
+  </si>
+  <si>
+    <t>MARC-to-Argot</t>
+  </si>
+  <si>
+    <t>loc_b (items, holdings)</t>
+  </si>
+  <si>
+    <t>Each loc_b value is mapped to a location hierarchy. Details forthcoming.</t>
   </si>
 </sst>
 </file>
@@ -1302,6 +1314,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1315,16 +1337,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1490,8 +1502,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N104" totalsRowShown="0">
-  <autoFilter ref="A1:N104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N105" totalsRowShown="0">
+  <autoFilter ref="A1:N105"/>
   <sortState ref="A2:N104">
     <sortCondition ref="A1:A104"/>
   </sortState>
@@ -1500,22 +1512,22 @@
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="5"/>
+    <tableColumn id="4" name="element/field" dataDxfId="6"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="4">
+    <tableColumn id="10" name="mapping_id" dataDxfId="5">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="3">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="2">
+    <tableColumn id="13" name="field issue ct" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="1">
+    <tableColumn id="14" name="field defined?" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1801,9 +1813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -3543,11 +3555,11 @@
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -4945,10 +4957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,38 +6647,35 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="1">
-        <v>999</v>
+      <c r="E36" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="K36" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>notes (holdings)UNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
+        <v>location_hierarchyUNCloc_b (items, holdings)..</v>
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -6691,30 +6700,30 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="1">
         <v>999</v>
       </c>
       <c r="F37" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="K37" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>notes (items)UNC999ni1=9 AND i2=1</v>
+        <v>notes (holdings)UNC999lzi1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='852'</v>
       </c>
       <c r="L37" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6731,7 +6740,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6739,30 +6748,30 @@
       <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="1">
         <v>999</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="J38" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>status (items)UNC999si1=9 AND i2=1 and $d IS blank</v>
+        <v>notes (items)UNC999ni1=9 AND i2=1</v>
       </c>
       <c r="L38" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6794,23 +6803,23 @@
         <v>999</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="I39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J39" t="s">
         <v>6</v>
       </c>
       <c r="K39" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>status (items)UNC999di1=9 AND i2=1 and $d IS NOT blank</v>
+        <v>status (items)UNC999si1=9 AND i2=1 and $d IS blank</v>
       </c>
       <c r="L39" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6842,23 +6851,23 @@
         <v>999</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
         <v>378</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="K40" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>status (items)UNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+        <v>status (items)UNC999di1=9 AND i2=1 and $d IS NOT blank</v>
       </c>
       <c r="L40" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6875,46 +6884,46 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1">
-        <v>600</v>
+        <v>999</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
-      </c>
-      <c r="L41">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>status (items)UNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</v>
+      </c>
+      <c r="L41" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
       </c>
       <c r="N41" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -6935,7 +6944,7 @@
         <v>138</v>
       </c>
       <c r="E42" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
@@ -6954,7 +6963,7 @@
       </c>
       <c r="K42" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN600yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L42">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -6983,7 +6992,7 @@
         <v>138</v>
       </c>
       <c r="E43" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -7002,7 +7011,7 @@
       </c>
       <c r="K43" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN610yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L43">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7031,7 +7040,7 @@
         <v>138</v>
       </c>
       <c r="E44" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -7050,7 +7059,7 @@
       </c>
       <c r="K44" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN611yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L44">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7079,7 +7088,7 @@
         <v>138</v>
       </c>
       <c r="E45" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
@@ -7098,7 +7107,7 @@
       </c>
       <c r="K45" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN630yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L45">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7127,7 +7136,7 @@
         <v>138</v>
       </c>
       <c r="E46" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -7146,7 +7155,7 @@
       </c>
       <c r="K46" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN650yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L46">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7175,7 +7184,7 @@
         <v>138</v>
       </c>
       <c r="E47" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
@@ -7194,7 +7203,7 @@
       </c>
       <c r="K47" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN651yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L47">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7217,19 +7226,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>138</v>
       </c>
       <c r="E48" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -7238,11 +7247,11 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K48" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_chronological_facetGEN655yi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L48">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7259,7 +7268,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -7271,26 +7280,26 @@
         <v>138</v>
       </c>
       <c r="E49" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K49" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_chronological_facetGEN648ai2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L49">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7298,7 +7307,7 @@
       </c>
       <c r="M49">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -7325,7 +7334,7 @@
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -7334,11 +7343,11 @@
         <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K50" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN655axi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L50">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7373,7 +7382,7 @@
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
@@ -7382,11 +7391,11 @@
         <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K51" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=lcgft</v>
       </c>
       <c r="L51">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7421,7 +7430,7 @@
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -7430,11 +7439,11 @@
         <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K52" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbbin</v>
       </c>
       <c r="L52">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7469,20 +7478,20 @@
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K53" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L53">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7505,32 +7514,32 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="1">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>16</v>
+        <v>655</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K54" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN655axi2=7 AND $2=rbprov</v>
       </c>
       <c r="L54">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7562,7 +7571,7 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -7571,14 +7580,14 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K55" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
+        <v>subject_genre_facetGEN616LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L55">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7607,26 +7616,26 @@
         <v>138</v>
       </c>
       <c r="E56" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F56">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K56" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN617LDR/06 = a AND LDR/07 =~ [acdm] AND 006/00 =~ [at]</v>
       </c>
       <c r="L56">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7658,7 +7667,7 @@
         <v>8</v>
       </c>
       <c r="F57">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>15</v>
@@ -7667,14 +7676,14 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K57" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
+        <v>subject_genre_facetGEN833LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L57">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7703,26 +7712,26 @@
         <v>138</v>
       </c>
       <c r="E58" s="1">
-        <v>600</v>
-      </c>
-      <c r="F58" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K58" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN834LDR/06 = a AND LDR/07 =~ [acdm]</v>
       </c>
       <c r="L58">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7751,7 +7760,7 @@
         <v>138</v>
       </c>
       <c r="E59" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -7770,7 +7779,7 @@
       </c>
       <c r="K59" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN600vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L59">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7799,7 +7808,7 @@
         <v>138</v>
       </c>
       <c r="E60" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -7818,7 +7827,7 @@
       </c>
       <c r="K60" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN610vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L60">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7847,7 +7856,7 @@
         <v>138</v>
       </c>
       <c r="E61" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -7866,7 +7875,7 @@
       </c>
       <c r="K61" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN611vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L61">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7895,7 +7904,7 @@
         <v>138</v>
       </c>
       <c r="E62" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -7914,7 +7923,7 @@
       </c>
       <c r="K62" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN630vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L62">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7943,7 +7952,7 @@
         <v>138</v>
       </c>
       <c r="E63" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -7962,7 +7971,7 @@
       </c>
       <c r="K63" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN650vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L63">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -7991,7 +8000,7 @@
         <v>138</v>
       </c>
       <c r="E64" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -8010,7 +8019,7 @@
       </c>
       <c r="K64" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN651vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L64">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8033,13 +8042,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
         <v>138</v>
       </c>
       <c r="E65" s="1">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -8054,11 +8063,11 @@
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K65" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN655vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L65">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8087,7 +8096,7 @@
         <v>138</v>
       </c>
       <c r="E66" s="1">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -8102,11 +8111,11 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN647vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L66">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8135,13 +8144,13 @@
         <v>138</v>
       </c>
       <c r="E67" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -8150,11 +8159,11 @@
         <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K67" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
+        <v>subject_genre_facetGEN648vi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L67">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8189,7 +8198,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -8198,11 +8207,11 @@
         <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K68" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=lcgft</v>
       </c>
       <c r="L68">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8237,7 +8246,7 @@
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -8246,11 +8255,11 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbbin</v>
       </c>
       <c r="L69">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8285,7 +8294,7 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -8294,11 +8303,11 @@
         <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K70" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbgenr</v>
       </c>
       <c r="L70">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8327,13 +8336,13 @@
         <v>138</v>
       </c>
       <c r="E71" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -8342,11 +8351,11 @@
         <v>6</v>
       </c>
       <c r="J71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K71" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN655vi2=7 AND $2=rbprov</v>
       </c>
       <c r="L71">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8375,10 +8384,10 @@
         <v>138</v>
       </c>
       <c r="E72" s="1">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>34</v>
@@ -8394,7 +8403,7 @@
       </c>
       <c r="K72" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
+        <v>subject_genre_facetGEN656kvi2=7 AND $2=lcsh</v>
       </c>
       <c r="L72">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8411,25 +8420,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>138</v>
       </c>
       <c r="E73" s="1">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -8438,11 +8447,11 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K73" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_genre_facetGEN657vi2=7 AND $2=lcsh</v>
       </c>
       <c r="L73">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8450,7 +8459,7 @@
       </c>
       <c r="M73">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -8471,7 +8480,7 @@
         <v>138</v>
       </c>
       <c r="E74" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -8490,7 +8499,7 @@
       </c>
       <c r="K74" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN600zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L74">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8519,7 +8528,7 @@
         <v>138</v>
       </c>
       <c r="E75" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -8538,7 +8547,7 @@
       </c>
       <c r="K75" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN610zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L75">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8567,7 +8576,7 @@
         <v>138</v>
       </c>
       <c r="E76" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
@@ -8586,7 +8595,7 @@
       </c>
       <c r="K76" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN611zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L76">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8615,7 +8624,7 @@
         <v>138</v>
       </c>
       <c r="E77" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="K77" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN630zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L77">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8663,7 +8672,7 @@
         <v>138</v>
       </c>
       <c r="E78" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -8682,7 +8691,7 @@
       </c>
       <c r="K78" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN650zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L78">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8711,7 +8720,7 @@
         <v>138</v>
       </c>
       <c r="E79" s="1">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F79" t="s">
         <v>37</v>
@@ -8730,7 +8739,7 @@
       </c>
       <c r="K79" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN651zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L79">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8753,19 +8762,19 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
         <v>138</v>
       </c>
       <c r="E80" s="1">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F80" t="s">
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
@@ -8774,11 +8783,11 @@
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K80" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
+        <v>subject_geographic_facetGEN655zi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L80">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8795,38 +8804,38 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
         <v>138</v>
       </c>
       <c r="E81" s="1">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K81" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_geographic_facetGEN648zi2=0 OR (i2=7 AND $2=~/lcsh|fast/)</v>
       </c>
       <c r="L81">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8855,10 +8864,10 @@
         <v>138</v>
       </c>
       <c r="E82" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>4</v>
@@ -8870,11 +8879,11 @@
         <v>6</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K82" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600abcdfghjklmnopqrstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L82">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8903,10 +8912,10 @@
         <v>138</v>
       </c>
       <c r="E83" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>4</v>
@@ -8918,11 +8927,11 @@
         <v>6</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610abcdfghklmnoprstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L83">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8951,10 +8960,10 @@
         <v>138</v>
       </c>
       <c r="E84" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
@@ -8966,11 +8975,11 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611acdefghklnpqstui2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L84">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -8999,10 +9008,10 @@
         <v>138</v>
       </c>
       <c r="E85" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G85" t="s">
         <v>4</v>
@@ -9014,11 +9023,11 @@
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K85" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630adfghklmnoprsti2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L85">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9041,16 +9050,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>138</v>
       </c>
       <c r="E86" s="1">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s">
         <v>4</v>
@@ -9062,11 +9071,11 @@
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K86" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650abcdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L86">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9089,32 +9098,32 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
         <v>138</v>
       </c>
       <c r="E87" s="1">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K87" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647acdgi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L87">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9143,7 +9152,7 @@
         <v>138</v>
       </c>
       <c r="E88" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -9162,7 +9171,7 @@
       </c>
       <c r="K88" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN600xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L88">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9191,7 +9200,7 @@
         <v>138</v>
       </c>
       <c r="E89" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -9210,7 +9219,7 @@
       </c>
       <c r="K89" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN610xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L89">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9239,7 +9248,7 @@
         <v>138</v>
       </c>
       <c r="E90" s="1">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -9258,7 +9267,7 @@
       </c>
       <c r="K90" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN611xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L90">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9287,7 +9296,7 @@
         <v>138</v>
       </c>
       <c r="E91" s="1">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -9306,7 +9315,7 @@
       </c>
       <c r="K91" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN630xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L91">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9335,7 +9344,7 @@
         <v>138</v>
       </c>
       <c r="E92" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -9354,7 +9363,7 @@
       </c>
       <c r="K92" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN650xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L92">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9377,13 +9386,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>138</v>
       </c>
       <c r="E93" s="1">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -9398,11 +9407,11 @@
         <v>6</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K93" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN651xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L93">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9431,7 +9440,7 @@
         <v>138</v>
       </c>
       <c r="E94" s="1">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -9446,11 +9455,11 @@
         <v>6</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>subject_topic_lcsh_facetGEN647xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L94">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9479,7 +9488,7 @@
         <v>138</v>
       </c>
       <c r="E95" s="1">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9494,15 +9503,15 @@
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>6</v>
-      </c>
-      <c r="K95" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
+        <v>18</v>
+      </c>
+      <c r="K95" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN648xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L95">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9527,13 +9536,13 @@
         <v>138</v>
       </c>
       <c r="E96" s="1">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
         <v>5</v>
@@ -9542,15 +9551,15 @@
         <v>6</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
-      </c>
-      <c r="K96" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
+        <v>6</v>
+      </c>
+      <c r="K96" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN655xi2=0 OR (i2=7 AND $2=lcsh)</v>
       </c>
       <c r="L96">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9578,7 +9587,7 @@
         <v>656</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9590,11 +9599,11 @@
         <v>6</v>
       </c>
       <c r="J97" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K97" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L97">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9623,10 +9632,10 @@
         <v>138</v>
       </c>
       <c r="E98" s="1">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9638,11 +9647,11 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="K98" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN656xi2=7 AND $2=lcsh</v>
       </c>
       <c r="L98">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9674,7 +9683,7 @@
         <v>657</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9690,7 +9699,7 @@
       </c>
       <c r="K99" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+        <v>subject_topic_lcsh_facetGEN657ai2=7 AND $2=lcsh</v>
       </c>
       <c r="L99">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9707,46 +9716,46 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E100" s="1">
-        <v>999</v>
+        <v>657</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
-      </c>
-      <c r="L100" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K100" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>subject_topic_lcsh_facetGEN657xi2=7 AND $2=lcsh</v>
+      </c>
+      <c r="L100">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>1</v>
       </c>
       <c r="N100" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
@@ -9755,38 +9764,38 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="E101" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="F101" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="J101" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="K101" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN100f(g)klnpt.</v>
+        <v>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</v>
       </c>
       <c r="L101" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9815,10 +9824,10 @@
         <v>138</v>
       </c>
       <c r="E102" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -9827,14 +9836,14 @@
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J102" t="s">
         <v>282</v>
       </c>
       <c r="K102" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
+        <v>uniform_titleGEN100f(g)klnpt.</v>
       </c>
       <c r="L102" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9863,7 +9872,7 @@
         <v>138</v>
       </c>
       <c r="E103" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" t="s">
         <v>286</v>
@@ -9882,7 +9891,7 @@
       </c>
       <c r="K103" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
+        <v>uniform_titleGEN110f(g)kl(n)pt.</v>
       </c>
       <c r="L103" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -9899,55 +9908,103 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="1">
+        <v>111</v>
+      </c>
+      <c r="F104" t="s">
+        <v>286</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>335</v>
+      </c>
+      <c r="J104" t="s">
+        <v>282</v>
+      </c>
+      <c r="K104" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>uniform_titleGEN111f(g)kl(n)pt.</v>
+      </c>
+      <c r="L104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>367</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>53</v>
       </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
         <v>54</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E105" s="1">
         <v>999</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>16</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G105" t="s">
         <v>150</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H105" t="s">
         <v>5</v>
       </c>
-      <c r="I104" t="s">
-        <v>6</v>
-      </c>
-      <c r="J104" t="s">
-        <v>6</v>
-      </c>
-      <c r="K104" s="8" t="str">
+      <c r="I105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
         <v>vol (items)UNC999vi1=9 AND i2=1</v>
       </c>
-      <c r="L104" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="8" t="str">
+      <c r="L105" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="8" t="str">
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K64">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  <conditionalFormatting sqref="K3:K65">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="427">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1176,6 +1176,138 @@
   </si>
   <si>
     <t>Each loc_b value is mapped to a location hierarchy. Details forthcoming.</t>
+  </si>
+  <si>
+    <t>Mapping to NOTE in Endeca: http://search.lib.unc.edu/search?R=UNCb3040837</t>
+  </si>
+  <si>
+    <t>concurrent_users</t>
+  </si>
+  <si>
+    <t>Number of concurrent users (for a licensed e-resource)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in development (for prominent display and faceting) in Endeca when that project was frozen. Was considered important by at least UNC and Duke. UNC did extensive work to code this accurately and consistently in all ebook records. </t>
+  </si>
+  <si>
+    <t>title_abbreviated</t>
+  </si>
+  <si>
+    <t>keyword, title</t>
+  </si>
+  <si>
+    <t>Abbreviated version of title_main</t>
+  </si>
+  <si>
+    <t>Support searching when people copy/paste info from citations which use title abbreviations.</t>
+  </si>
+  <si>
+    <t>Journal Title Abbreviation</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>i1=1</t>
+  </si>
+  <si>
+    <t>done in mta?</t>
+  </si>
+  <si>
+    <t>tests?</t>
+  </si>
+  <si>
+    <t>location_hierarchyUNCloc_b (items, holdings)..</t>
+  </si>
+  <si>
+    <t>Automate generation of YAML from location management spreadsheet</t>
+  </si>
+  <si>
+    <t>status (items)UNC999ai1=9 AND i2=4 AND NOT EXIST (tag=999 AND i1=9 and i2=1)</t>
+  </si>
+  <si>
+    <t>Desired statuses from order data will be discussed at next UNC OPAC Committee meeting</t>
+  </si>
+  <si>
+    <t>summary (holdings)UNC999ai1=9 AND i2=3 AND $0=#{holdings_record_id} AND $2='866'</t>
+  </si>
+  <si>
+    <t>863/4/5 + 853/4/5</t>
+  </si>
+  <si>
+    <t>Still need to figure out generating a summary from these fields.</t>
+  </si>
+  <si>
+    <t>oclc_number</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>keyword, ids</t>
+  </si>
+  <si>
+    <t>OCLC record number</t>
+  </si>
+  <si>
+    <t>OCLCNumber</t>
+  </si>
+  <si>
+    <t>Digits only. Strip off ocn/ocm/on prefixes. If coming from 035, remove (OCoLC)</t>
+  </si>
+  <si>
+    <t>oclc_numbers_merged</t>
+  </si>
+  <si>
+    <t>Full record?</t>
+  </si>
+  <si>
+    <t>OCLC record numbers of no-longer-existing WorldCat master records that were merged into this record</t>
+  </si>
+  <si>
+    <t>OCLC merges records all the time. If you have the OCLC number of a merged/deleted record, you should be able to be able to find the current record if it's in the system. Possibly improve rollup performance down the road.</t>
+  </si>
+  <si>
+    <t>Digits only. Strip off ocn/ocm/on prefixes. If coming from 035z, remove (OCoLC)</t>
+  </si>
+  <si>
+    <t>coden</t>
+  </si>
+  <si>
+    <t>CODEN:</t>
+  </si>
+  <si>
+    <t>A specific unique ID assigned to journals and used in some communities</t>
+  </si>
+  <si>
+    <t>sersol_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serials Solutions: </t>
+  </si>
+  <si>
+    <t>SerialsSolutions record ID number. Begins with ssj or ssib</t>
+  </si>
+  <si>
+    <t>Rollup for SerialsSolutions titles.</t>
+  </si>
+  <si>
+    <t>vendor_marc_ids</t>
+  </si>
+  <si>
+    <t>Record ID:</t>
+  </si>
+  <si>
+    <t>Record control numbers from non OCLC/SerialsSolutions MARC providers</t>
+  </si>
+  <si>
+    <t>Possible improvement in rollup. Staff often search for these as "OCLC number" because they think anything in an 001 field is an OCLC number.</t>
+  </si>
+  <si>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>https://github.com/trln/marc-to-argot/blob/master/spec/unc_oclc_number_spec.rb</t>
   </si>
 </sst>
 </file>
@@ -1212,6 +1344,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1302,7 +1435,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1322,6 +1455,22 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1452,12 +1601,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:U55" totalsRowShown="0">
-  <autoFilter ref="A1:U55"/>
-  <sortState ref="A2:U55">
-    <sortCondition ref="A1:A55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:W62" totalsRowShown="0">
+  <autoFilter ref="A1:W62"/>
+  <sortState ref="A2:W62">
+    <sortCondition ref="A1:A62"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="23">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
     <tableColumn id="1" name="provisional"/>
@@ -1477,67 +1626,71 @@
     <tableColumn id="14" name="notes"/>
     <tableColumn id="15" name="implementation details"/>
     <tableColumn id="20" name="documentation"/>
-    <tableColumn id="16" name="issue ct" dataDxfId="13">
+    <tableColumn id="16" name="issue ct" dataDxfId="16">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="mapping ct">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="21" name="done in mta?"/>
+    <tableColumn id="23" name="tests?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="field" dataDxfId="10"/>
-    <tableColumn id="3" name="desc" dataDxfId="9"/>
-    <tableColumn id="4" name="doc" dataDxfId="8"/>
-    <tableColumn id="2" name="jira ref" dataDxfId="7"/>
+    <tableColumn id="1" name="field" dataDxfId="13"/>
+    <tableColumn id="3" name="desc" dataDxfId="12"/>
+    <tableColumn id="4" name="doc" dataDxfId="11"/>
+    <tableColumn id="2" name="jira ref" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:N105" totalsRowShown="0">
-  <autoFilter ref="A1:N105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P110" totalsRowShown="0">
+  <autoFilter ref="A1:P110"/>
   <sortState ref="A2:N104">
     <sortCondition ref="A1:A104"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="16">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="6"/>
+    <tableColumn id="4" name="element/field" dataDxfId="9"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="5">
+    <tableColumn id="10" name="mapping_id" dataDxfId="8">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="4">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="7">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="3">
+    <tableColumn id="13" name="field issue ct" dataDxfId="6">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="2">
+    <tableColumn id="14" name="field defined?" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" name="done in mta?" dataDxfId="4"/>
+    <tableColumn id="16" name="tests?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="issuesmap" displayName="issuesmap" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="mappingID"/>
     <tableColumn id="2" name="element"/>
@@ -1811,11 +1964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1990,7 @@
     <col min="24" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1901,8 +2054,14 @@
       <c r="U1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>394</v>
+      </c>
+      <c r="W1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -1969,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>338</v>
       </c>
@@ -2036,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -2097,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -2164,12 +2323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -2180,8 +2339,47 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>415</v>
+      </c>
+      <c r="M6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
       </c>
       <c r="T6" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2189,27 +2387,63 @@
       </c>
       <c r="U6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" t="s">
+        <v>386</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
       <c r="P7" t="s">
         <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
       </c>
       <c r="T7" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2220,63 +2454,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>370</v>
-      </c>
-      <c r="N8" t="s">
-        <v>371</v>
-      </c>
-      <c r="O8" t="s">
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="T8" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2284,12 +2479,12 @@
       </c>
       <c r="U8">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>251</v>
@@ -2304,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T9" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2315,24 +2510,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>370</v>
+      </c>
+      <c r="N10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O10" t="s">
         <v>41</v>
       </c>
       <c r="P10" t="s">
         <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>358</v>
       </c>
       <c r="T10" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2340,12 +2574,12 @@
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
@@ -2359,41 +2593,8 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>310</v>
-      </c>
-      <c r="K11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
-        <v>278</v>
-      </c>
-      <c r="N11" t="s">
-        <v>279</v>
-      </c>
-      <c r="O11" t="s">
-        <v>6</v>
-      </c>
       <c r="P11" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2401,12 +2602,12 @@
       </c>
       <c r="U11">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>251</v>
@@ -2420,36 +2621,6 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
-        <v>280</v>
-      </c>
-      <c r="N12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
       <c r="P12" t="s">
         <v>41</v>
       </c>
@@ -2459,82 +2630,76 @@
       </c>
       <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="Q13" t="s">
         <v>41</v>
       </c>
-      <c r="R13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13">
+      <c r="T13" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U13">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2545,8 +2710,38 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>280</v>
+      </c>
+      <c r="N14" t="s">
+        <v>281</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
       <c r="P14" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="T14" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2554,43 +2749,82 @@
       </c>
       <c r="U14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
       <c r="P15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="8">
+        <v>107</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2601,44 +2835,8 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>277</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>310</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" t="s">
-        <v>297</v>
-      </c>
-      <c r="N16" t="s">
-        <v>298</v>
-      </c>
-      <c r="O16" t="s">
-        <v>304</v>
-      </c>
       <c r="P16" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R16" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2646,15 +2844,15 @@
       </c>
       <c r="U16">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2666,7 +2864,7 @@
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2679,61 +2877,58 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="Q18" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="R18" t="s">
-        <v>155</v>
-      </c>
-      <c r="S18" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2741,12 +2936,12 @@
       </c>
       <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
         <v>251</v>
@@ -2760,44 +2955,8 @@
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>277</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>310</v>
-      </c>
-      <c r="K19" t="s">
-        <v>299</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>300</v>
-      </c>
-      <c r="N19" t="s">
-        <v>301</v>
-      </c>
-      <c r="O19" t="s">
-        <v>304</v>
-      </c>
       <c r="P19" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>303</v>
-      </c>
-      <c r="R19" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2805,15 +2964,15 @@
       </c>
       <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2822,19 +2981,19 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
         <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -2843,28 +3002,28 @@
         <v>151</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="S20" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2872,66 +3031,63 @@
       </c>
       <c r="U20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="Q21" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="R21" t="s">
         <v>6</v>
-      </c>
-      <c r="S21" t="s">
-        <v>346</v>
       </c>
       <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2939,27 +3095,66 @@
       </c>
       <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>362</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" t="s">
+        <v>346</v>
       </c>
       <c r="T22" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2972,22 +3167,61 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>218</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
         <v>41</v>
       </c>
       <c r="P23" t="s">
         <v>41</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" t="s">
+        <v>346</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2995,15 +3229,15 @@
       </c>
       <c r="U23">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -3015,7 +3249,7 @@
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3028,61 +3262,22 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" t="s">
-        <v>147</v>
-      </c>
-      <c r="N25" t="s">
-        <v>173</v>
-      </c>
-      <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" t="s">
-        <v>41</v>
-      </c>
-      <c r="S25" t="s">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3090,66 +3285,27 @@
       </c>
       <c r="U25">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" t="s">
-        <v>363</v>
-      </c>
-      <c r="N26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" t="s">
-        <v>41</v>
-      </c>
       <c r="P26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3162,77 +3318,77 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
         <v>41</v>
       </c>
       <c r="R27" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s">
-        <v>6</v>
-      </c>
-      <c r="T27">
+        <v>358</v>
+      </c>
+      <c r="T27" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3241,49 +3397,49 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T28" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3291,79 +3447,79 @@
       </c>
       <c r="U28">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="s">
         <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>345</v>
+        <v>189</v>
       </c>
       <c r="S29" t="s">
-        <v>358</v>
-      </c>
-      <c r="T29" s="8">
+        <v>6</v>
+      </c>
+      <c r="T29">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
         <v>250</v>
@@ -3399,16 +3555,16 @@
         <v>174</v>
       </c>
       <c r="M30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
@@ -3430,7 +3586,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
         <v>249</v>
@@ -3466,16 +3622,16 @@
         <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="N31" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
@@ -3497,10 +3653,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3509,49 +3665,49 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="N32" t="s">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q32" t="s">
         <v>41</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="S32" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3564,10 +3720,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3576,49 +3732,49 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
         <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s">
         <v>174</v>
       </c>
       <c r="M33" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="N33" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="Q33" t="s">
         <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="S33" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T33" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3626,15 +3782,15 @@
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3643,49 +3799,49 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N34" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="O34" t="s">
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3698,22 +3854,61 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s">
+        <v>210</v>
+      </c>
+      <c r="L35" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" t="s">
+        <v>223</v>
+      </c>
+      <c r="N35" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>225</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" t="s">
+        <v>346</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3721,27 +3916,66 @@
       </c>
       <c r="U35">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" t="s">
+        <v>174</v>
+      </c>
+      <c r="M36" t="s">
+        <v>222</v>
+      </c>
+      <c r="N36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" t="s">
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>163</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" t="s">
+        <v>187</v>
+      </c>
+      <c r="S36" t="s">
+        <v>358</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3749,27 +3983,66 @@
       </c>
       <c r="U36">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>403</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
       </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>405</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>406</v>
+      </c>
+      <c r="N37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>6</v>
+      </c>
       <c r="P37" t="s">
-        <v>267</v>
+        <v>407</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" t="s">
+        <v>408</v>
+      </c>
+      <c r="S37" t="s">
+        <v>6</v>
       </c>
       <c r="T37" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3777,27 +4050,66 @@
       </c>
       <c r="U37">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s">
+        <v>410</v>
+      </c>
+      <c r="L38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>411</v>
+      </c>
+      <c r="N38" t="s">
+        <v>412</v>
+      </c>
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
       <c r="P38" t="s">
         <v>41</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>413</v>
+      </c>
+      <c r="S38" t="s">
+        <v>6</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3810,7 +4122,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
         <v>251</v>
@@ -3838,65 +4150,26 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="F40" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>201</v>
-      </c>
-      <c r="I40" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s">
-        <v>202</v>
-      </c>
-      <c r="L40" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s">
-        <v>41</v>
-      </c>
       <c r="P40" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>206</v>
-      </c>
-      <c r="R40" t="s">
-        <v>207</v>
-      </c>
-      <c r="S40" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -3905,61 +4178,22 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" t="s">
-        <v>151</v>
-      </c>
-      <c r="L41" t="s">
-        <v>174</v>
-      </c>
-      <c r="M41" t="s">
-        <v>194</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-      <c r="O41" t="s">
         <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>41</v>
-      </c>
-      <c r="R41" t="s">
-        <v>357</v>
-      </c>
-      <c r="S41" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3967,15 +4201,15 @@
       </c>
       <c r="U41">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3986,63 +4220,24 @@
       <c r="E42" t="s">
         <v>41</v>
       </c>
-      <c r="F42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N42" t="s">
-        <v>96</v>
-      </c>
-      <c r="O42" t="s">
-        <v>85</v>
-      </c>
       <c r="P42" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>98</v>
-      </c>
-      <c r="R42" t="s">
-        <v>190</v>
-      </c>
-      <c r="S42" t="s">
-        <v>6</v>
-      </c>
-      <c r="T42">
+        <v>41</v>
+      </c>
+      <c r="T42" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4053,136 +4248,97 @@
       <c r="E43" t="s">
         <v>41</v>
       </c>
-      <c r="F43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" t="s">
-        <v>81</v>
-      </c>
-      <c r="L43" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" t="s">
-        <v>91</v>
-      </c>
-      <c r="O43" t="s">
-        <v>85</v>
-      </c>
       <c r="P43" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>93</v>
-      </c>
-      <c r="R43" t="s">
-        <v>190</v>
-      </c>
-      <c r="S43" t="s">
-        <v>6</v>
-      </c>
-      <c r="T43">
+        <v>269</v>
+      </c>
+      <c r="T43" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="I44" t="s">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P44" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="Q44" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="R44" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="S44" t="s">
         <v>6</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>1</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>41</v>
@@ -4191,13 +4347,13 @@
         <v>149</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>182</v>
+        <v>405</v>
       </c>
       <c r="I45" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
@@ -4206,16 +4362,19 @@
         <v>123</v>
       </c>
       <c r="L45" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="M45" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="N45" t="s">
-        <v>181</v>
+        <v>420</v>
+      </c>
+      <c r="O45" t="s">
+        <v>6</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="Q45" t="s">
         <v>6</v>
@@ -4226,7 +4385,7 @@
       <c r="S45" t="s">
         <v>6</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4237,80 +4396,80 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="N46" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="Q46" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="S46" t="s">
-        <v>6</v>
-      </c>
-      <c r="T46">
+        <v>358</v>
+      </c>
+      <c r="T46" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -4331,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -4340,22 +4499,22 @@
         <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="N47" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O47" t="s">
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="Q47" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="R47" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S47" t="s">
         <v>6</v>
@@ -4366,18 +4525,18 @@
       </c>
       <c r="U47">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -4398,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
@@ -4407,108 +4566,108 @@
         <v>41</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N48" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="O48" t="s">
         <v>85</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q48" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="R48" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S48" t="s">
         <v>6</v>
       </c>
       <c r="T48">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="L49" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="N49" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="O49" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="Q49" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="R49" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S49" t="s">
-        <v>346</v>
-      </c>
-      <c r="T49" s="8">
+        <v>6</v>
+      </c>
+      <c r="T49">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -4519,10 +4678,46 @@
       <c r="E50" t="s">
         <v>41</v>
       </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" t="s">
+        <v>181</v>
+      </c>
       <c r="P50" t="s">
-        <v>274</v>
-      </c>
-      <c r="T50" s="8">
+        <v>180</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4533,10 +4728,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -4547,66 +4742,105 @@
       <c r="E51" t="s">
         <v>41</v>
       </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
       <c r="P51" t="s">
-        <v>268</v>
-      </c>
-      <c r="T51" s="8">
+        <v>86</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>87</v>
+      </c>
+      <c r="R51" t="s">
+        <v>190</v>
+      </c>
+      <c r="S51" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" t="s">
+        <v>117</v>
+      </c>
+      <c r="O52" t="s">
         <v>85</v>
       </c>
-      <c r="L52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M52" t="s">
-        <v>197</v>
-      </c>
-      <c r="N52" t="s">
-        <v>85</v>
-      </c>
-      <c r="O52" t="s">
-        <v>41</v>
-      </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="Q52" t="s">
         <v>41</v>
@@ -4615,11 +4849,11 @@
         <v>6</v>
       </c>
       <c r="S52" t="s">
-        <v>358</v>
-      </c>
-      <c r="T52" s="8">
+        <v>6</v>
+      </c>
+      <c r="T52">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4628,13 +4862,13 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -4643,40 +4877,40 @@
         <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="L53" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M53" t="s">
-        <v>305</v>
+        <v>120</v>
       </c>
       <c r="N53" t="s">
-        <v>306</v>
+        <v>121</v>
       </c>
       <c r="O53" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="Q53" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="R53" t="s">
         <v>6</v>
@@ -4684,21 +4918,21 @@
       <c r="S53" t="s">
         <v>6</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -4707,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G54" t="s">
         <v>2</v>
@@ -4719,28 +4953,28 @@
         <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="N54" t="s">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="O54" t="s">
         <v>41</v>
       </c>
       <c r="P54" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="Q54" t="s">
         <v>41</v>
@@ -4749,7 +4983,7 @@
         <v>6</v>
       </c>
       <c r="S54" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="T54" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4762,10 +4996,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -4776,14 +5010,405 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>388</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" t="s">
+        <v>389</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>6</v>
+      </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>391</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>41</v>
+      </c>
+      <c r="R55" t="s">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s">
+        <v>41</v>
       </c>
       <c r="T55" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U55">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" t="s">
+        <v>274</v>
+      </c>
+      <c r="T56" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" t="s">
+        <v>268</v>
+      </c>
+      <c r="T57" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" t="s">
+        <v>85</v>
+      </c>
+      <c r="L58" t="s">
+        <v>85</v>
+      </c>
+      <c r="M58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N58" t="s">
+        <v>85</v>
+      </c>
+      <c r="O58" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>41</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S58" t="s">
+        <v>358</v>
+      </c>
+      <c r="T58" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" t="s">
+        <v>305</v>
+      </c>
+      <c r="N59" t="s">
+        <v>306</v>
+      </c>
+      <c r="O59" t="s">
+        <v>307</v>
+      </c>
+      <c r="P59" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>309</v>
+      </c>
+      <c r="R59" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" t="s">
+        <v>6</v>
+      </c>
+      <c r="T59" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" t="s">
+        <v>404</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>405</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" t="s">
+        <v>422</v>
+      </c>
+      <c r="M60" t="s">
+        <v>423</v>
+      </c>
+      <c r="N60" t="s">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s">
+        <v>6</v>
+      </c>
+      <c r="P60" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>6</v>
+      </c>
+      <c r="R60" t="s">
+        <v>6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>6</v>
+      </c>
+      <c r="T60" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" t="s">
+        <v>368</v>
+      </c>
+      <c r="N61" t="s">
+        <v>369</v>
+      </c>
+      <c r="O61" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s">
+        <v>6</v>
+      </c>
+      <c r="S61" t="s">
+        <v>358</v>
+      </c>
+      <c r="T61" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="P62" t="s">
+        <v>276</v>
+      </c>
+      <c r="T62" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -4801,7 +5426,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,10 +5582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110:J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,7 +5597,7 @@
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -5015,8 +5640,14 @@
       <c r="N1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -5063,8 +5694,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -5111,8 +5746,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>252</v>
       </c>
@@ -5159,8 +5798,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>252</v>
       </c>
@@ -5207,8 +5850,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -5255,8 +5902,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -5303,8 +5954,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -5351,8 +6006,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -5399,8 +6058,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -5447,8 +6112,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -5495,8 +6166,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -5543,8 +6220,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>242</v>
       </c>
@@ -5591,8 +6270,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -5639,8 +6320,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -5687,8 +6370,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -5735,8 +6420,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -5783,8 +6470,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5831,8 +6520,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5879,8 +6570,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5927,8 +6620,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5975,8 +6670,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>244</v>
       </c>
@@ -6023,8 +6720,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>244</v>
       </c>
@@ -6071,8 +6770,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>244</v>
       </c>
@@ -6119,8 +6820,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>349</v>
       </c>
@@ -6167,8 +6870,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>245</v>
       </c>
@@ -6215,8 +6924,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>245</v>
       </c>
@@ -6263,8 +6974,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -6311,8 +7024,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -6359,8 +7078,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>339</v>
       </c>
@@ -6407,8 +7132,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>350</v>
       </c>
@@ -6455,8 +7186,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>350</v>
       </c>
@@ -6503,8 +7240,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>340</v>
       </c>
@@ -6548,8 +7287,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>351</v>
       </c>
@@ -6596,8 +7341,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>351</v>
       </c>
@@ -6644,8 +7395,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -6679,7 +7432,7 @@
       </c>
       <c r="L36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -6689,8 +7442,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>342</v>
       </c>
@@ -6737,8 +7496,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>352</v>
       </c>
@@ -6785,8 +7550,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>353</v>
       </c>
@@ -6833,8 +7604,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>353</v>
       </c>
@@ -6881,8 +7658,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>353</v>
       </c>
@@ -6919,7 +7702,7 @@
       </c>
       <c r="L41" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -6929,8 +7712,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -6977,8 +7762,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -7025,8 +7814,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -7073,8 +7866,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7121,8 +7918,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -7169,8 +7970,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -7217,8 +8022,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -7265,8 +8074,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -7313,8 +8126,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7361,8 +8178,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7409,8 +8230,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7457,8 +8282,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7505,8 +8334,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7553,8 +8386,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7601,8 +8438,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7649,8 +8490,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -7697,8 +8542,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7745,8 +8594,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7793,8 +8646,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -7841,8 +8698,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -7889,8 +8750,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7937,8 +8802,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7985,8 +8854,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8033,8 +8906,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8081,8 +8958,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8129,8 +9010,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8177,8 +9062,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8225,8 +9114,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -8273,8 +9166,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8321,8 +9218,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8369,8 +9270,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -8417,8 +9322,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -8465,8 +9374,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -8513,8 +9426,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -8561,8 +9478,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -8609,8 +9530,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -8657,8 +9582,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -8705,8 +9634,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -8753,8 +9686,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -8801,8 +9738,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -8849,8 +9790,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -8897,8 +9842,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -8945,8 +9894,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -8993,8 +9946,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -9041,8 +9998,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -9089,8 +10050,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -9137,8 +10102,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -9185,8 +10154,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -9233,8 +10206,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -9281,8 +10258,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -9329,8 +10310,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -9377,8 +10362,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -9425,8 +10414,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -9473,8 +10466,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -9521,8 +10518,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -9569,8 +10570,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -9617,8 +10622,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>38</v>
       </c>
@@ -9665,8 +10674,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -9713,8 +10726,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>38</v>
       </c>
@@ -9761,8 +10778,12 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>341</v>
       </c>
@@ -9799,7 +10820,7 @@
       </c>
       <c r="L101" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
@@ -9809,8 +10830,14 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>275</v>
       </c>
@@ -9857,8 +10884,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -9905,8 +10934,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>275</v>
       </c>
@@ -9953,8 +10984,10 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>367</v>
       </c>
@@ -10001,25 +11034,280 @@
         <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
         <v>y</v>
       </c>
+      <c r="O105" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="1">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
+        <v>392</v>
+      </c>
+      <c r="G106" t="s">
+        <v>393</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>title_abbreviatedGEN210abi1=1</v>
+      </c>
+      <c r="L106" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>codenGEN30a</v>
+      </c>
+      <c r="L107" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>403</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
+        <v>425</v>
+      </c>
+      <c r="H108" t="s">
+        <v>425</v>
+      </c>
+      <c r="I108" t="s">
+        <v>425</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K108" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>oclc_numberUNC1.see notes</v>
+      </c>
+      <c r="L108" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>403</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>425</v>
+      </c>
+      <c r="H109" t="s">
+        <v>425</v>
+      </c>
+      <c r="I109" t="s">
+        <v>425</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K109" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>oclc_numberUNC3.see notes</v>
+      </c>
+      <c r="L109" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>403</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="1">
+        <v>35</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>425</v>
+      </c>
+      <c r="H110" t="s">
+        <v>425</v>
+      </c>
+      <c r="I110" t="s">
+        <v>425</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K110" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>oclc_numberUNC35asee notes</v>
+      </c>
+      <c r="L110" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K65">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J108" r:id="rId1"/>
+    <hyperlink ref="J109" r:id="rId2"/>
+    <hyperlink ref="J110" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10156,9 +11444,59 @@
         <v>377</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>752</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="440">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1308,6 +1308,45 @@
   </si>
   <si>
     <t>https://github.com/trln/marc-to-argot/blob/master/spec/unc_oclc_number_spec.rb</t>
+  </si>
+  <si>
+    <t>upc</t>
+  </si>
+  <si>
+    <t>virtual_colls</t>
+  </si>
+  <si>
+    <t>Collection/group names searchable but not displayed anywhere. Can be used to scope special searches, power various logic, etc.</t>
+  </si>
+  <si>
+    <t>Needed by institutions.</t>
+  </si>
+  <si>
+    <t>Universal product code. Numeric/indexed portion only</t>
+  </si>
+  <si>
+    <t>Syndetics API data match point. Possible search term</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>upc_qualifying_info</t>
+  </si>
+  <si>
+    <t>id display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPC:' + #{upc} + #{upc_qualifying_info} </t>
+  </si>
+  <si>
+    <t>Universal product code. Qualifying info only</t>
+  </si>
+  <si>
+    <t>Contextualizes what UPC is given</t>
+  </si>
+  <si>
+    <t>If no qualifying info is given for a UPC in a record, this MUST be set to ""</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1430,22 +1469,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1601,11 +1631,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:W62" totalsRowShown="0">
-  <autoFilter ref="A1:W62"/>
-  <sortState ref="A2:W62">
-    <sortCondition ref="A1:A62"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:W65" totalsRowShown="0">
+  <autoFilter ref="A1:W65"/>
   <tableColumns count="23">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1626,7 +1653,7 @@
     <tableColumn id="14" name="notes"/>
     <tableColumn id="15" name="implementation details"/>
     <tableColumn id="20" name="documentation"/>
-    <tableColumn id="16" name="issue ct" dataDxfId="16">
+    <tableColumn id="16" name="issue ct" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="mapping ct">
@@ -1640,13 +1667,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="issuesfield" displayName="issuesfield" ref="A1:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="field" dataDxfId="13"/>
-    <tableColumn id="3" name="desc" dataDxfId="12"/>
-    <tableColumn id="4" name="doc" dataDxfId="11"/>
-    <tableColumn id="2" name="jira ref" dataDxfId="10"/>
+    <tableColumn id="1" name="field" dataDxfId="12"/>
+    <tableColumn id="3" name="desc" dataDxfId="11"/>
+    <tableColumn id="4" name="doc" dataDxfId="10"/>
+    <tableColumn id="2" name="jira ref" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1663,26 +1690,26 @@
     <tableColumn id="2" name="source data format"/>
     <tableColumn id="11" name="provisional?"/>
     <tableColumn id="3" name="institution"/>
-    <tableColumn id="4" name="element/field" dataDxfId="9"/>
+    <tableColumn id="4" name="element/field" dataDxfId="8"/>
     <tableColumn id="5" name="subelement/field(s)"/>
     <tableColumn id="6" name="constraints"/>
     <tableColumn id="7" name="processing_type"/>
     <tableColumn id="8" name="processing instructions"/>
     <tableColumn id="9" name="notes"/>
-    <tableColumn id="10" name="mapping_id" dataDxfId="8">
+    <tableColumn id="10" name="mapping_id" dataDxfId="7">
       <calculatedColumnFormula>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="mapping issue ct" dataDxfId="7">
+    <tableColumn id="12" name="mapping issue ct" dataDxfId="6">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="field issue ct" dataDxfId="6">
+    <tableColumn id="13" name="field issue ct" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="field defined?" dataDxfId="5">
+    <tableColumn id="14" name="field defined?" dataDxfId="4">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="done in mta?" dataDxfId="4"/>
-    <tableColumn id="16" name="tests?" dataDxfId="3"/>
+    <tableColumn id="15" name="done in mta?" dataDxfId="3"/>
+    <tableColumn id="16" name="tests?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1964,11 +1991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,6 +5436,198 @@
         <v>0</v>
       </c>
       <c r="U62">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>405</v>
+      </c>
+      <c r="I63" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="M63" t="s">
+        <v>431</v>
+      </c>
+      <c r="N63" t="s">
+        <v>432</v>
+      </c>
+      <c r="O63" t="s">
+        <v>41</v>
+      </c>
+      <c r="P63" t="s">
+        <v>433</v>
+      </c>
+      <c r="T63" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" t="s">
+        <v>435</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s">
+        <v>437</v>
+      </c>
+      <c r="N64" t="s">
+        <v>438</v>
+      </c>
+      <c r="O64" t="s">
+        <v>41</v>
+      </c>
+      <c r="P64" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s">
+        <v>439</v>
+      </c>
+      <c r="S64" t="s">
+        <v>6</v>
+      </c>
+      <c r="T64" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>428</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" t="s">
+        <v>429</v>
+      </c>
+      <c r="N65" t="s">
+        <v>430</v>
+      </c>
+      <c r="O65" t="s">
+        <v>41</v>
+      </c>
+      <c r="P65" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>41</v>
+      </c>
+      <c r="R65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="8">
+        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U65">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -11287,7 +11506,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K65">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J108" r:id="rId1"/>
@@ -11496,7 +11715,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="437">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1269,15 +1269,6 @@
   </si>
   <si>
     <t>Digits only. Strip off ocn/ocm/on prefixes. If coming from 035z, remove (OCoLC)</t>
-  </si>
-  <si>
-    <t>coden</t>
-  </si>
-  <si>
-    <t>CODEN:</t>
-  </si>
-  <si>
-    <t>A specific unique ID assigned to journals and used in some communities</t>
   </si>
   <si>
     <t>sersol_number</t>
@@ -1631,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:W65" totalsRowShown="0">
-  <autoFilter ref="A1:W65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:W64" totalsRowShown="0">
+  <autoFilter ref="A1:W64"/>
   <tableColumns count="23">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1680,8 +1671,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P110" totalsRowShown="0">
-  <autoFilter ref="A1:P110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P109" totalsRowShown="0">
+  <autoFilter ref="A1:P109"/>
   <sortState ref="A2:N104">
     <sortCondition ref="A1:A104"/>
   </sortState>
@@ -1991,11 +1982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A61" sqref="A61"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,60 +2343,57 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="O6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
         <v>41</v>
       </c>
       <c r="Q6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" t="s">
         <v>6</v>
       </c>
       <c r="T6" s="8">
@@ -2414,63 +2402,27 @@
       </c>
       <c r="U6">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" t="s">
-        <v>386</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
       <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="T7" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2483,7 +2435,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>251</v>
@@ -2498,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T8" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2511,22 +2463,61 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>370</v>
+      </c>
+      <c r="N9" t="s">
+        <v>371</v>
+      </c>
+      <c r="O9" t="s">
         <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>358</v>
       </c>
       <c r="T9" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2534,66 +2525,27 @@
       </c>
       <c r="U9">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" t="s">
-        <v>370</v>
-      </c>
-      <c r="N10" t="s">
-        <v>371</v>
-      </c>
-      <c r="O10" t="s">
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="T10" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2601,12 +2553,12 @@
       </c>
       <c r="U10">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
@@ -2621,7 +2573,7 @@
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T11" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2634,7 +2586,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
         <v>251</v>
@@ -2648,7 +2600,40 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N12" t="s">
+        <v>279</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
       <c r="P12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
       <c r="T12" s="8">
@@ -2657,12 +2642,12 @@
       </c>
       <c r="U12">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
         <v>251</v>
@@ -2683,13 +2668,13 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -2698,18 +2683,15 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" t="s">
         <v>41</v>
       </c>
       <c r="T13" s="8">
@@ -2723,132 +2705,102 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="8">
+        <v>107</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U14">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
       <c r="P15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15">
+        <v>267</v>
+      </c>
+      <c r="T15" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U15">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>259</v>
@@ -2863,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="T16" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2876,10 +2828,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2890,8 +2842,44 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>297</v>
+      </c>
+      <c r="N17" t="s">
+        <v>298</v>
+      </c>
+      <c r="O17" t="s">
+        <v>304</v>
+      </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>270</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>302</v>
+      </c>
+      <c r="R17" t="s">
+        <v>6</v>
       </c>
       <c r="T17" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2899,12 +2887,12 @@
       </c>
       <c r="U17">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
         <v>251</v>
@@ -2918,44 +2906,8 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>277</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>310</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" t="s">
-        <v>297</v>
-      </c>
-      <c r="N18" t="s">
-        <v>298</v>
-      </c>
-      <c r="O18" t="s">
-        <v>304</v>
-      </c>
       <c r="P18" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>302</v>
-      </c>
-      <c r="R18" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="T18" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2963,27 +2915,66 @@
       </c>
       <c r="U18">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
         <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>154</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>356</v>
+      </c>
+      <c r="R19" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" t="s">
+        <v>358</v>
       </c>
       <c r="T19" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -2991,66 +2982,63 @@
       </c>
       <c r="U19">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="K20" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="Q20" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="R20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S20" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T20" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3058,21 +3046,21 @@
       </c>
       <c r="U20">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -3084,37 +3072,40 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="N21" t="s">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="S21" t="s">
+        <v>346</v>
       </c>
       <c r="T21" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3122,12 +3113,12 @@
       </c>
       <c r="U21">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
         <v>250</v>
@@ -3139,34 +3130,34 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
         <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
         <v>41</v>
@@ -3178,7 +3169,7 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S22" t="s">
         <v>346</v>
@@ -3189,66 +3180,27 @@
       </c>
       <c r="U22">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" t="s">
-        <v>218</v>
-      </c>
-      <c r="N23" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" t="s">
         <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="T23" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3256,12 +3208,12 @@
       </c>
       <c r="U23">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>259</v>
@@ -3276,7 +3228,7 @@
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="T24" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3289,10 +3241,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -3304,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T25" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3317,22 +3269,61 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>269</v>
+        <v>148</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s">
+        <v>358</v>
       </c>
       <c r="T26" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3340,12 +3331,12 @@
       </c>
       <c r="U26">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
@@ -3357,40 +3348,40 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s">
         <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="O27" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="Q27" t="s">
         <v>41</v>
@@ -3407,21 +3398,21 @@
       </c>
       <c r="U27">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -3433,42 +3424,42 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M28" t="s">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="S28" t="s">
-        <v>358</v>
-      </c>
-      <c r="T28" s="8">
+        <v>6</v>
+      </c>
+      <c r="T28">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -3479,77 +3470,77 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s">
-        <v>113</v>
+        <v>343</v>
       </c>
       <c r="N29" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="Q29" t="s">
         <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29">
+        <v>346</v>
+      </c>
+      <c r="T29" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U29">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3558,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -3570,13 +3561,13 @@
         <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s">
         <v>174</v>
@@ -3585,13 +3576,13 @@
         <v>343</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q30" t="s">
         <v>41</v>
@@ -3600,7 +3591,7 @@
         <v>345</v>
       </c>
       <c r="S30" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T30" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3608,15 +3599,15 @@
       </c>
       <c r="U30">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3625,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -3637,28 +3628,28 @@
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s">
         <v>174</v>
       </c>
       <c r="M31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q31" t="s">
         <v>41</v>
@@ -3667,7 +3658,7 @@
         <v>345</v>
       </c>
       <c r="S31" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="T31" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3675,15 +3666,15 @@
       </c>
       <c r="U31">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3692,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
@@ -3704,28 +3695,28 @@
         <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s">
         <v>174</v>
       </c>
       <c r="M32" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="Q32" t="s">
         <v>41</v>
@@ -3734,7 +3725,7 @@
         <v>345</v>
       </c>
       <c r="S32" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T32" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3742,15 +3733,15 @@
       </c>
       <c r="U32">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3759,49 +3750,49 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="Q33" t="s">
         <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T33" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3809,15 +3800,15 @@
       </c>
       <c r="U33">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3826,49 +3817,49 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N34" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s">
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q34" t="s">
         <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="T34" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3881,10 +3872,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3893,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
         <v>161</v>
@@ -3911,31 +3902,31 @@
         <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s">
         <v>174</v>
       </c>
       <c r="M35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="Q35" t="s">
         <v>41</v>
       </c>
       <c r="R35" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="S35" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="T35" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -3948,10 +3939,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>404</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3960,49 +3951,49 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="L36" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>222</v>
+        <v>406</v>
       </c>
       <c r="N36" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="O36" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="Q36" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="S36" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T36" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4010,12 +4001,12 @@
       </c>
       <c r="U36">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
         <v>404</v>
@@ -4033,7 +4024,7 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>405</v>
@@ -4045,28 +4036,28 @@
         <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>123</v>
+        <v>410</v>
       </c>
       <c r="L37" t="s">
         <v>6</v>
       </c>
       <c r="M37" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>412</v>
       </c>
       <c r="O37" t="s">
         <v>6</v>
       </c>
       <c r="P37" t="s">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="Q37" t="s">
         <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="S37" t="s">
         <v>6</v>
@@ -4077,66 +4068,27 @@
       </c>
       <c r="U37">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>405</v>
-      </c>
-      <c r="I38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" t="s">
-        <v>410</v>
-      </c>
-      <c r="L38" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" t="s">
-        <v>411</v>
-      </c>
-      <c r="N38" t="s">
-        <v>412</v>
-      </c>
-      <c r="O38" t="s">
-        <v>6</v>
-      </c>
       <c r="P38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" t="s">
-        <v>413</v>
-      </c>
-      <c r="S38" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="T38" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4149,7 +4101,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
         <v>251</v>
@@ -4164,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="T39" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4177,10 +4129,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -4192,7 +4144,7 @@
         <v>41</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="T40" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4205,7 +4157,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
         <v>259</v>
@@ -4220,7 +4172,7 @@
         <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="T41" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4233,10 +4185,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -4248,7 +4200,7 @@
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="T42" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4261,26 +4213,65 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" t="s">
+        <v>202</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43" t="s">
+        <v>204</v>
+      </c>
+      <c r="O43" t="s">
+        <v>41</v>
+      </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>205</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>206</v>
+      </c>
+      <c r="R43" t="s">
+        <v>207</v>
+      </c>
+      <c r="S43" t="s">
+        <v>6</v>
       </c>
       <c r="T43" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4289,13 +4280,13 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -4304,50 +4295,50 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="I44" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="N44" t="s">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="O44" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Q44" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="R44" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="S44" t="s">
         <v>6</v>
       </c>
       <c r="T44" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
@@ -4356,10 +4347,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4368,16 +4359,16 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
         <v>41</v>
@@ -4386,31 +4377,31 @@
         <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s">
-        <v>419</v>
+        <v>194</v>
       </c>
       <c r="N45" t="s">
-        <v>420</v>
+        <v>195</v>
       </c>
       <c r="O45" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="Q45" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R45" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="S45" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="T45" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -4418,79 +4409,79 @@
       </c>
       <c r="U45">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="G46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="N46" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="O46" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="R46" t="s">
-        <v>357</v>
+        <v>190</v>
       </c>
       <c r="S46" t="s">
-        <v>358</v>
-      </c>
-      <c r="T46" s="8">
+        <v>6</v>
+      </c>
+      <c r="T46">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>248</v>
@@ -4517,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -4526,19 +4517,19 @@
         <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O47" t="s">
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R47" t="s">
         <v>190</v>
@@ -4548,16 +4539,16 @@
       </c>
       <c r="T47">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>248</v>
@@ -4584,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
@@ -4593,19 +4584,19 @@
         <v>41</v>
       </c>
       <c r="M48" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O48" t="s">
         <v>85</v>
       </c>
       <c r="P48" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q48" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R48" t="s">
         <v>190</v>
@@ -4615,16 +4606,16 @@
       </c>
       <c r="T48">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>248</v>
@@ -4645,53 +4636,50 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K49" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N49" t="s">
-        <v>101</v>
-      </c>
-      <c r="O49" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="P49" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="Q49" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="R49" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="S49" t="s">
         <v>6</v>
       </c>
       <c r="T49">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
         <v>248</v>
@@ -4712,56 +4700,59 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="L50" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="M50" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="N50" t="s">
-        <v>181</v>
+        <v>84</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="Q50" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="R50" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="S50" t="s">
         <v>6</v>
       </c>
       <c r="T50">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
         <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -4782,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s">
         <v>81</v>
@@ -4791,22 +4782,22 @@
         <v>41</v>
       </c>
       <c r="M51" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="N51" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="O51" t="s">
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="Q51" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="R51" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="S51" t="s">
         <v>6</v>
@@ -4817,12 +4808,12 @@
       </c>
       <c r="U51">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
         <v>248</v>
@@ -4849,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
         <v>81</v>
@@ -4858,16 +4849,16 @@
         <v>41</v>
       </c>
       <c r="M52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N52" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O52" t="s">
         <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q52" t="s">
         <v>41</v>
@@ -4889,52 +4880,52 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K53" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="M53" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="N53" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="O53" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P53" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="Q53" t="s">
         <v>41</v>
@@ -4943,41 +4934,41 @@
         <v>6</v>
       </c>
       <c r="S53" t="s">
-        <v>6</v>
-      </c>
-      <c r="T53">
+        <v>346</v>
+      </c>
+      <c r="T53" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -4986,31 +4977,31 @@
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="M54" t="s">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="N54" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="Q54" t="s">
         <v>41</v>
       </c>
       <c r="R54" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S54" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="T54" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5023,7 +5014,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
         <v>266</v>
@@ -5037,47 +5028,8 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="F55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>388</v>
-      </c>
-      <c r="I55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" t="s">
-        <v>2</v>
-      </c>
-      <c r="L55" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" t="s">
-        <v>389</v>
-      </c>
-      <c r="N55" t="s">
-        <v>390</v>
-      </c>
-      <c r="O55" t="s">
-        <v>6</v>
-      </c>
       <c r="P55" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>41</v>
-      </c>
-      <c r="R55" t="s">
-        <v>41</v>
-      </c>
-      <c r="S55" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="T55" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5085,15 +5037,15 @@
       </c>
       <c r="U55">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -5105,7 +5057,7 @@
         <v>41</v>
       </c>
       <c r="P56" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="T56" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5118,22 +5070,61 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" t="s">
+        <v>85</v>
+      </c>
+      <c r="L57" t="s">
+        <v>85</v>
+      </c>
+      <c r="M57" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" t="s">
+        <v>85</v>
+      </c>
+      <c r="O57" t="s">
         <v>41</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>198</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s">
+        <v>6</v>
+      </c>
+      <c r="S57" t="s">
+        <v>358</v>
       </c>
       <c r="T57" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5146,28 +5137,28 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
         <v>41</v>
@@ -5176,31 +5167,31 @@
         <v>41</v>
       </c>
       <c r="K58" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="M58" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="O58" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="Q58" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="R58" t="s">
         <v>6</v>
       </c>
       <c r="S58" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="T58" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5208,33 +5199,33 @@
       </c>
       <c r="U58">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>404</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="I59" t="s">
         <v>41</v>
@@ -5243,25 +5234,25 @@
         <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="L59" t="s">
-        <v>6</v>
+        <v>419</v>
       </c>
       <c r="M59" t="s">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="N59" t="s">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="O59" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="P59" t="s">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="Q59" t="s">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="R59" t="s">
         <v>6</v>
@@ -5275,15 +5266,15 @@
       </c>
       <c r="U59">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -5292,16 +5283,16 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s">
         <v>41</v>
@@ -5310,31 +5301,31 @@
         <v>41</v>
       </c>
       <c r="K60" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="N60" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="O60" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P60" t="s">
         <v>41</v>
       </c>
       <c r="Q60" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R60" t="s">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="T60" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5342,66 +5333,27 @@
       </c>
       <c r="U60">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" t="s">
-        <v>368</v>
-      </c>
-      <c r="N61" t="s">
-        <v>369</v>
-      </c>
-      <c r="O61" t="s">
         <v>41</v>
       </c>
       <c r="P61" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>41</v>
-      </c>
-      <c r="R61" t="s">
-        <v>6</v>
-      </c>
-      <c r="S61" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="T61" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5409,15 +5361,15 @@
       </c>
       <c r="U61">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -5428,8 +5380,38 @@
       <c r="E62" t="s">
         <v>41</v>
       </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>405</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="s">
+        <v>428</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>41</v>
+      </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>430</v>
       </c>
       <c r="T62" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5442,10 +5424,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -5463,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
         <v>3</v>
@@ -5475,19 +5457,28 @@
         <v>123</v>
       </c>
       <c r="L63" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="M63" t="s">
+        <v>434</v>
+      </c>
+      <c r="N63" t="s">
+        <v>435</v>
+      </c>
+      <c r="O63" t="s">
+        <v>41</v>
+      </c>
+      <c r="P63" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s">
         <v>436</v>
       </c>
-      <c r="M63" t="s">
-        <v>431</v>
-      </c>
-      <c r="N63" t="s">
-        <v>432</v>
-      </c>
-      <c r="O63" t="s">
-        <v>41</v>
-      </c>
-      <c r="P63" t="s">
-        <v>433</v>
+      <c r="S63" t="s">
+        <v>6</v>
       </c>
       <c r="T63" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5500,46 +5491,46 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>123</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>436</v>
+        <v>41</v>
+      </c>
+      <c r="L64" t="s">
+        <v>41</v>
       </c>
       <c r="M64" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N64" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="O64" t="s">
         <v>41</v>
@@ -5551,83 +5542,16 @@
         <v>41</v>
       </c>
       <c r="R64" t="s">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="S64" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T64" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>428</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s">
-        <v>6</v>
-      </c>
-      <c r="K65" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" t="s">
-        <v>429</v>
-      </c>
-      <c r="N65" t="s">
-        <v>430</v>
-      </c>
-      <c r="O65" t="s">
-        <v>41</v>
-      </c>
-      <c r="P65" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>41</v>
-      </c>
-      <c r="R65" t="s">
-        <v>41</v>
-      </c>
-      <c r="S65" t="s">
-        <v>41</v>
-      </c>
-      <c r="T65" s="8">
-        <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U65">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
         <v>0</v>
       </c>
@@ -5801,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110:J110"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11309,7 +11233,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -11318,26 +11242,29 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="E107" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>422</v>
       </c>
       <c r="H107" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="I107" t="s">
-        <v>6</v>
-      </c>
-      <c r="J107" t="s">
-        <v>6</v>
+        <v>422</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="K107" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>codenGEN30a</v>
+        <v>oclc_numberUNC1.see notes</v>
       </c>
       <c r="L107" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -11368,26 +11295,26 @@
         <v>54</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K108" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>oclc_numberUNC1.see notes</v>
+        <v>oclc_numberUNC3.see notes</v>
       </c>
       <c r="L108" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -11418,26 +11345,26 @@
         <v>54</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K109" s="8" t="str">
         <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>oclc_numberUNC3.see notes</v>
+        <v>oclc_numberUNC35asee notes</v>
       </c>
       <c r="L109" s="8">
         <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
@@ -11453,65 +11380,15 @@
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>403</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" s="1">
-        <v>35</v>
-      </c>
-      <c r="F110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>425</v>
-      </c>
-      <c r="H110" t="s">
-        <v>425</v>
-      </c>
-      <c r="I110" t="s">
-        <v>425</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="K110" s="8" t="str">
-        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
-        <v>oclc_numberUNC35asee notes</v>
-      </c>
-      <c r="L110" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="8">
-        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N110" s="8" t="str">
-        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
-        <v>y</v>
-      </c>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K65">
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J108" r:id="rId1"/>
-    <hyperlink ref="J109" r:id="rId2"/>
-    <hyperlink ref="J110" r:id="rId3"/>
+    <hyperlink ref="J107" r:id="rId1"/>
+    <hyperlink ref="J108" r:id="rId2"/>
+    <hyperlink ref="J109" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="455">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1386,6 +1386,12 @@
   </si>
   <si>
     <t>Staff search, possibly of use for rolling up e-resources or other format records, if institutions use the same MARC record source</t>
+  </si>
+  <si>
+    <t>qual MUST = "";;;type = "LCCN";;;Do NOT trim leading/trailing spaces</t>
+  </si>
+  <si>
+    <t>qual MUST = "";;;type = "NUCMC";;;Do NOT trim leading/trailing spaces</t>
   </si>
 </sst>
 </file>
@@ -1672,6 +1678,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="fields" displayName="fields" ref="A1:V60" totalsRowShown="0">
   <autoFilter ref="A1:V60"/>
+  <sortState ref="A2:V60">
+    <sortCondition ref="A1:A60"/>
+  </sortState>
   <tableColumns count="22">
     <tableColumn id="2" name="field"/>
     <tableColumn id="22" name="category"/>
@@ -1718,11 +1727,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P109" totalsRowShown="0">
-  <autoFilter ref="A1:P109"/>
-  <sortState ref="A2:P109">
-    <sortCondition ref="A1:A109"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P111" totalsRowShown="0">
+  <autoFilter ref="A1:P111"/>
   <tableColumns count="16">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
@@ -2031,9 +2037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,7 +4019,7 @@
       </c>
       <c r="T34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -5421,10 +5427,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -5439,25 +5445,25 @@
         <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="H58" t="s">
         <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s">
         <v>41</v>
@@ -5485,10 +5491,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -5497,31 +5503,31 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
         <v>41</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L59" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="N59" t="s">
         <v>41</v>
@@ -5533,10 +5539,10 @@
         <v>41</v>
       </c>
       <c r="Q59" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R59" t="s">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="S59" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5544,15 +5550,15 @@
       </c>
       <c r="T59">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -5561,13 +5567,13 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
         <v>41</v>
@@ -5576,16 +5582,16 @@
         <v>41</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="K60" t="s">
         <v>6</v>
       </c>
       <c r="L60" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="N60" t="s">
         <v>41</v>
@@ -5597,10 +5603,10 @@
         <v>41</v>
       </c>
       <c r="Q60" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="R60" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="S60" s="8">
         <f>IF(ISNUMBER(MATCH(fields[field],issuesfield[field],0)),COUNTIF(issuesfield[field],fields[field]),0)</f>
@@ -5608,7 +5614,7 @@
       </c>
       <c r="T60">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5780,9 +5786,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11433,6 +11441,106 @@
       <c r="P109" s="8" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" t="s">
+        <v>453</v>
+      </c>
+      <c r="J110" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>misc_idGEN10a.</v>
+      </c>
+      <c r="L110" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>163</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>454</v>
+      </c>
+      <c r="J111" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>misc_idGEN10b.</v>
+      </c>
+      <c r="L111" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K65">

--- a/argot/argot.xlsx
+++ b/argot/argot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="459">
   <si>
     <t>subject_chronological_facet</t>
   </si>
@@ -1392,6 +1392,18 @@
   </si>
   <si>
     <t>qual MUST = "";;;type = "NUCMC";;;Do NOT trim leading/trailing spaces</t>
+  </si>
+  <si>
+    <t>if subfield includes parentheses, split into 'id' and 'qual';;;if subfield contains no parentheses, 'id' = whole subfield value</t>
+  </si>
+  <si>
+    <t>qual = subfield valuewith parentheses removed</t>
+  </si>
+  <si>
+    <t>type = "National Bibliography Number" if there is no $2; otherwise, map $2 using https://github.com/trln/marc-to-argot/blob/master/lib/translation_maps/shared/national_bibliography_codes.yaml</t>
+  </si>
+  <si>
+    <t>Mapping is from: https://www.loc.gov/standards/sourcelist/national-bibliography.html</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1739,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P111" totalsRowShown="0">
-  <autoFilter ref="A1:P111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="mappings" displayName="mappings" ref="A1:P114" totalsRowShown="0">
+  <autoFilter ref="A1:P114"/>
   <tableColumns count="16">
     <tableColumn id="1" name="field"/>
     <tableColumn id="2" name="source data format"/>
@@ -4019,7 +4031,7 @@
       </c>
       <c r="T34">
         <f>IF(ISNUMBER(MATCH(fields[field],mappings[field],0)),COUNTIF(mappings[field],fields[field]),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -5786,10 +5798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11541,6 +11553,156 @@
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="1">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" t="s">
+        <v>455</v>
+      </c>
+      <c r="J112" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>misc_idGEN15a.</v>
+      </c>
+      <c r="L112" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="1">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>356</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>456</v>
+      </c>
+      <c r="J113" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" s="8" t="str">
+        <f>mappings[field]&amp;mappings[institution]&amp;mappings[element/field]&amp;mappings[subelement/field(s)]&amp;mappings[constraints]</f>
+        <v>misc_idGEN15q.</v>
+      </c>
+      <c r="L113" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[mapping_id],issuesmap[mappingID],0)),COUNTIF(issuesmap[mappingID],mappings[mapping_id]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="8">
+        <f>IF(ISNUMBER(MATCH(mappings[field],issuesfield[field],0)),COUNTIF(issuesfield[field],mappings[field]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="8" t="str">
+        <f>IF(ISNUMBER(MATCH(mappings[field],fields[field],0)),"y","n")</f>
+        <v>y</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>422</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="1">
+        <v>15</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>228</v>
+      </c>
+      <c r="I114" t="s">
+        <v>457</v>
+   